--- a/results/train/DeepBench_NV_M40.xlsx
+++ b/results/train/DeepBench_NV_M40.xlsx
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>Forward (msec)</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t xml:space="preserve">K </t>
@@ -273,6 +267,12 @@
   <si>
     <t>Float</t>
   </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
+  <si>
+    <t>S (Filter width)</t>
+  </si>
 </sst>
 </file>
 
@@ -343,8 +343,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -393,7 +411,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +426,15 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -422,6 +449,15 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,7 +790,7 @@
   <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -777,36 +813,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1320,7 +1356,7 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1345,7 +1381,7 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1370,7 +1406,7 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1395,7 +1431,7 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1420,7 +1456,7 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1445,7 +1481,7 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1470,7 +1506,7 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1495,7 +1531,7 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1520,7 +1556,7 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1545,7 +1581,7 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1570,7 +1606,7 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1595,7 +1631,7 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1620,7 +1656,7 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1645,7 +1681,7 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1670,7 +1706,7 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1695,7 +1731,7 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1720,7 +1756,7 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1745,7 +1781,7 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1770,7 +1806,7 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1795,7 +1831,7 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1823,10 +1859,10 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I44" s="2">
         <v>13.733000000000001</v>
@@ -1851,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I45" s="2">
         <v>13.672000000000001</v>
@@ -1876,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I46" s="2">
         <v>21.148</v>
@@ -1901,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I47" s="2">
         <v>53.929000000000002</v>
@@ -2133,7 +2169,7 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G58" t="s">
         <v>10</v>
@@ -2158,7 +2194,7 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -2183,7 +2219,7 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
@@ -2208,7 +2244,7 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -2233,7 +2269,7 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -2258,7 +2294,7 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
@@ -2283,7 +2319,7 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -2308,7 +2344,7 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -2438,7 +2474,7 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -2463,7 +2499,7 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -2488,7 +2524,7 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -2513,7 +2549,7 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -2643,7 +2679,7 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -2669,7 +2705,7 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -2695,7 +2731,7 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -2721,7 +2757,7 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
@@ -2754,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I84" s="2">
         <v>9.9060000000000006</v>
@@ -2779,7 +2815,7 @@
         <v>10</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I85" s="2">
         <v>51.033999999999999</v>
@@ -2897,7 +2933,7 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -2921,7 +2957,7 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
@@ -2945,7 +2981,7 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -2969,7 +3005,7 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -3017,7 +3053,7 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G96" t="s">
         <v>10</v>
@@ -3293,7 +3329,7 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -3317,7 +3353,7 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -3342,7 +3378,7 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>10</v>
@@ -3368,7 +3404,7 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>10</v>
@@ -3394,7 +3430,7 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>10</v>
@@ -3419,7 +3455,7 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -3443,7 +3479,7 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G113" t="s">
         <v>10</v>
@@ -3468,7 +3504,7 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>10</v>
@@ -3494,7 +3530,7 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>10</v>
@@ -3520,7 +3556,7 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>10</v>
@@ -3702,7 +3738,7 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>10</v>
@@ -3728,7 +3764,7 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>10</v>
@@ -3754,7 +3790,7 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>10</v>
@@ -3780,7 +3816,7 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>10</v>
@@ -3806,7 +3842,7 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>10</v>
@@ -3832,7 +3868,7 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>10</v>
@@ -4122,7 +4158,7 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>10</v>
@@ -4148,7 +4184,7 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>10</v>
@@ -4175,7 +4211,7 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>10</v>
@@ -4202,7 +4238,7 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>10</v>
@@ -4228,7 +4264,7 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>10</v>
@@ -4254,7 +4290,7 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>10</v>
@@ -4281,7 +4317,7 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>10</v>
@@ -4308,7 +4344,7 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>10</v>
@@ -4337,7 +4373,7 @@
         <v>10</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4363,7 +4399,7 @@
         <v>10</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4650,7 +4686,7 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>10</v>
@@ -4676,7 +4712,7 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>10</v>
@@ -4703,7 +4739,7 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>10</v>
@@ -4730,7 +4766,7 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>10</v>
@@ -4756,7 +4792,7 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>10</v>
@@ -4782,7 +4818,7 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>10</v>
@@ -4809,7 +4845,7 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>10</v>
@@ -4836,7 +4872,7 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>10</v>
@@ -4865,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -4891,7 +4927,7 @@
         <v>10</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -4907,42 +4943,42 @@
     </row>
     <row r="173" spans="1:29">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:29">
       <c r="C174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E174" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H174" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I174" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J174" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s">
+        <v>37</v>
+      </c>
+      <c r="L174" t="s">
         <v>39</v>
       </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>40</v>
-      </c>
-      <c r="L174" t="s">
-        <v>42</v>
-      </c>
-      <c r="M174" t="s">
-        <v>41</v>
       </c>
       <c r="N174" t="s">
         <v>22</v>
@@ -4954,22 +4990,22 @@
         <v>20</v>
       </c>
       <c r="R174" t="s">
+        <v>41</v>
+      </c>
+      <c r="S174" t="s">
+        <v>42</v>
+      </c>
+      <c r="T174" t="s">
+        <v>75</v>
+      </c>
+      <c r="U174" t="s">
         <v>43</v>
       </c>
-      <c r="S174" t="s">
+      <c r="V174" t="s">
         <v>44</v>
       </c>
-      <c r="T174" t="s">
-        <v>77</v>
-      </c>
-      <c r="U174" t="s">
+      <c r="W174" t="s">
         <v>45</v>
-      </c>
-      <c r="V174" t="s">
-        <v>46</v>
-      </c>
-      <c r="W174" t="s">
-        <v>47</v>
       </c>
       <c r="X174" t="s">
         <v>19</v>
@@ -4992,10 +5028,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -5013,17 +5049,17 @@
         <v>0.224</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P175" s="2">
         <v>0.36899999999999999</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="2">
@@ -5031,14 +5067,14 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="U175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>3.0547714285714287</v>
       </c>
       <c r="V175" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>1.854386991869919</v>
       </c>
       <c r="X175" s="3" t="s">
@@ -5064,10 +5100,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5085,17 +5121,17 @@
         <v>0.42</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P176" s="2">
         <v>0.68799999999999994</v>
       </c>
       <c r="R176" s="4">
-        <f t="shared" ref="R176:R228" si="9">(D176-H176+1+2*J176)/L176</f>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="4">
-        <f t="shared" ref="S176:S228" si="10">(C176-I176+1+2*K176)/M176</f>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="2">
@@ -5103,14 +5139,14 @@
         <v>1.1079999999999999</v>
       </c>
       <c r="U176" s="2">
-        <f t="shared" ref="U176:V211" si="11">(2*$R176*$S176*$F176*$G176*$E176*$H176*$I176)/(N176/1000)/10^12</f>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
         <v>3.2584228571428575</v>
       </c>
       <c r="V176" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W176" s="2">
-        <f t="shared" ref="W176:W228" si="12">(2*$R176*$S176*$F176*$G176*$E176*$H176*$I176)/(P176/1000)/10^12</f>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
         <v>1.9891534883720932</v>
       </c>
       <c r="X176" s="3" t="s">
@@ -5136,10 +5172,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5157,17 +5193,17 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P177" s="2">
         <v>1.329</v>
       </c>
       <c r="R177" s="4">
-        <f t="shared" si="9"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>78.5</v>
       </c>
       <c r="S177" s="4">
-        <f t="shared" si="10"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>340.5</v>
       </c>
       <c r="T177" s="2">
@@ -5175,14 +5211,14 @@
         <v>2.1440000000000001</v>
       </c>
       <c r="U177" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
         <v>3.3583744785276073</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W177" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
         <v>2.0594997742663659</v>
       </c>
       <c r="X177" s="3" t="s">
@@ -5208,10 +5244,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5229,17 +5265,17 @@
         <v>1.607</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P178" s="2">
         <v>2.8780000000000001</v>
       </c>
       <c r="R178" s="4">
-        <f t="shared" si="9"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>78.5</v>
       </c>
       <c r="S178" s="4">
-        <f t="shared" si="10"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>340.5</v>
       </c>
       <c r="T178" s="2">
@@ -5247,14 +5283,14 @@
         <v>4.4850000000000003</v>
       </c>
       <c r="U178" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
         <v>3.4064408214063473</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W178" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
         <v>1.9020675469075747</v>
       </c>
       <c r="X178" s="3" t="s">
@@ -5280,10 +5316,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5307,11 +5343,11 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="R179" s="4">
-        <f t="shared" si="9"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>37.5</v>
       </c>
       <c r="S179" s="4">
-        <f t="shared" si="10"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>166</v>
       </c>
       <c r="T179" s="2">
@@ -5319,15 +5355,15 @@
         <v>4.9300000000000006</v>
       </c>
       <c r="U179" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
         <v>3.2605626598465474</v>
       </c>
       <c r="V179" s="2">
-        <f t="shared" ref="V179:V210" si="13">(2*$R179*$S179*$F179*$G179*$E179*$H179*$I179)/(O179/1000)/10^12</f>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>0.7622600896860986</v>
       </c>
       <c r="W179" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
         <v>3.1752926525529266</v>
       </c>
       <c r="X179" s="3" t="s">
@@ -5353,10 +5389,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5380,27 +5416,27 @@
         <v>1.556</v>
       </c>
       <c r="R180" s="4">
-        <f t="shared" si="9"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>37.5</v>
       </c>
       <c r="S180" s="4">
-        <f t="shared" si="10"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>166</v>
       </c>
       <c r="T180" s="2">
-        <f t="shared" ref="T180:T182" si="14">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
         <v>9.6720000000000006</v>
       </c>
       <c r="U180" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
         <v>3.461995926680244</v>
       </c>
       <c r="V180" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>0.7676531687490592</v>
       </c>
       <c r="W180" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
         <v>3.2773264781491003</v>
       </c>
       <c r="X180" s="3" t="s">
@@ -5426,10 +5462,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -5453,27 +5489,27 @@
         <v>3.0190000000000001</v>
       </c>
       <c r="R181" s="4">
+        <f>(D181-I181+1+2*K181)/M181</f>
+        <v>37.5</v>
+      </c>
+      <c r="S181" s="4">
+        <f>(C181-H181+1+2*J181)/L181</f>
+        <v>166</v>
+      </c>
+      <c r="T181" s="2">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S181" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T181" s="2">
-        <f t="shared" si="14"/>
         <v>18.887</v>
       </c>
       <c r="U181" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
         <v>3.8070324748040312</v>
       </c>
       <c r="V181" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>0.77329896125559183</v>
       </c>
       <c r="W181" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
         <v>3.378284200066247</v>
       </c>
       <c r="X181" s="3" t="s">
@@ -5499,10 +5535,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -5526,27 +5562,27 @@
         <v>5.9729999999999999</v>
       </c>
       <c r="R182" s="4">
+        <f>(D182-I182+1+2*K182)/M182</f>
+        <v>37.5</v>
+      </c>
+      <c r="S182" s="4">
+        <f>(C182-H182+1+2*J182)/L182</f>
+        <v>166</v>
+      </c>
+      <c r="T182" s="2">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S182" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T182" s="2">
-        <f t="shared" si="14"/>
         <v>37.420999999999999</v>
       </c>
       <c r="U182" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
         <v>3.9638709677419359</v>
       </c>
       <c r="V182" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>0.7755334195118242</v>
       </c>
       <c r="W182" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
         <v>3.415047714716223</v>
       </c>
       <c r="X182" s="3" t="s">
@@ -5593,17 +5629,17 @@
         <v>0.247</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P183" s="2">
         <v>0.8</v>
       </c>
       <c r="R183" s="4">
-        <f t="shared" si="9"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>48</v>
       </c>
       <c r="S183" s="4">
-        <f t="shared" si="10"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>480</v>
       </c>
       <c r="T183" s="2">
@@ -5611,14 +5647,14 @@
         <v>1.0470000000000002</v>
       </c>
       <c r="U183" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
         <v>0.42983125506072878</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W183" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
         <v>0.13271040000000001</v>
       </c>
       <c r="X183" s="3" t="s">
@@ -5671,11 +5707,11 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="R184" s="4">
-        <f t="shared" si="9"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>24</v>
       </c>
       <c r="S184" s="4">
-        <f t="shared" si="10"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>240</v>
       </c>
       <c r="T184" s="2">
@@ -5683,15 +5719,15 @@
         <v>1.554</v>
       </c>
       <c r="U184" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
         <v>2.8791408813559327</v>
       </c>
       <c r="V184" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>2.6377222360248447</v>
       </c>
       <c r="W184" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
         <v>0.90645310565635007</v>
       </c>
       <c r="X184" s="3" t="s">
@@ -5744,27 +5780,27 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="R185" s="4">
-        <f t="shared" si="9"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>12</v>
       </c>
       <c r="S185" s="4">
-        <f t="shared" si="10"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>120</v>
       </c>
       <c r="T185" s="2">
-        <f t="shared" ref="T185:T186" si="15">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
         <v>0.99299999999999999</v>
       </c>
       <c r="U185" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
         <v>3.3177599999999998</v>
       </c>
       <c r="V185" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>5.3418022641509424</v>
       </c>
       <c r="W185" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
         <v>1.4694577162629758</v>
       </c>
       <c r="X185" s="3" t="s">
@@ -5817,27 +5853,27 @@
         <v>0.377</v>
       </c>
       <c r="R186" s="4">
-        <f t="shared" si="9"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>6</v>
       </c>
       <c r="S186" s="4">
+        <f>(C186-H186+1+2*J186)/L186</f>
+        <v>60</v>
+      </c>
+      <c r="T186" s="2">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="T186" s="2">
-        <f t="shared" si="15"/>
         <v>0.69100000000000006</v>
       </c>
       <c r="U186" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
         <v>4.9961562352941176</v>
       </c>
       <c r="V186" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>5.8982400000000013</v>
       </c>
       <c r="W186" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
         <v>2.2529086472148538</v>
       </c>
       <c r="X186" s="3" t="s">
@@ -5884,17 +5920,17 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P187" s="2">
         <v>0.18099999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f t="shared" si="9"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f t="shared" si="10"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>54</v>
       </c>
       <c r="T187" s="2">
@@ -5902,14 +5938,14 @@
         <v>0.252</v>
       </c>
       <c r="U187" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
         <v>1.1355150422535212</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W187" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
         <v>0.44542302762430946</v>
       </c>
       <c r="X187" s="3" t="s">
@@ -5962,11 +5998,11 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="R188" s="4">
-        <f t="shared" si="9"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f t="shared" si="10"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>54</v>
       </c>
       <c r="T188" s="2">
@@ -5974,15 +6010,15 @@
         <v>1.3260000000000001</v>
       </c>
       <c r="U188" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
         <v>4.7121281753424658</v>
       </c>
       <c r="V188" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>4.686449002724796</v>
       </c>
       <c r="W188" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
         <v>2.8954996363636361</v>
       </c>
       <c r="X188" s="3" t="s">
@@ -6035,27 +6071,27 @@
         <v>0.53</v>
       </c>
       <c r="R189" s="4">
-        <f t="shared" si="9"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f t="shared" si="10"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>27</v>
       </c>
       <c r="T189" s="2">
-        <f t="shared" ref="T189:T191" si="16">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="U189" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
         <v>5.5481509161290319</v>
       </c>
       <c r="V189" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>5.5481509161290319</v>
       </c>
       <c r="W189" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
         <v>3.2451448754716981</v>
       </c>
       <c r="X189" s="3" t="s">
@@ -6108,27 +6144,27 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="R190" s="4">
-        <f t="shared" si="9"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f t="shared" si="10"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>14</v>
       </c>
       <c r="T190" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>0.70700000000000007</v>
       </c>
       <c r="U190" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
         <v>5.2251075254237298</v>
       </c>
       <c r="V190" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>4.7427899076923072</v>
       </c>
       <c r="W190" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
         <v>2.7607284537313435</v>
       </c>
       <c r="X190" s="3" t="s">
@@ -6181,27 +6217,27 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="R191" s="4">
-        <f t="shared" si="9"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f t="shared" si="10"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>7</v>
       </c>
       <c r="T191" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>1.274</v>
       </c>
       <c r="U191" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
         <v>2.2835655111111111</v>
       </c>
       <c r="V191" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>2.3413772962025319</v>
       </c>
       <c r="W191" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
         <v>1.951147746835443</v>
       </c>
       <c r="X191" s="3" t="s">
@@ -6248,17 +6284,17 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P192" s="2">
         <v>1.651</v>
       </c>
       <c r="R192" s="4">
-        <f t="shared" si="9"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f t="shared" si="10"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>224</v>
       </c>
       <c r="T192" s="2">
@@ -6266,14 +6302,14 @@
         <v>2.427</v>
       </c>
       <c r="U192" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
         <v>1.7877139793814434</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W192" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
         <v>0.84025805451241664</v>
       </c>
       <c r="X192" s="3" t="s">
@@ -6326,11 +6362,11 @@
         <v>3.9039999999999999</v>
       </c>
       <c r="R193" s="4">
-        <f t="shared" si="9"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f t="shared" si="10"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>112</v>
       </c>
       <c r="T193" s="2">
@@ -6338,15 +6374,15 @@
         <v>7.7649999999999997</v>
       </c>
       <c r="U193" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
         <v>7.3363929162121977</v>
       </c>
       <c r="V193" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>8.0246770672451184</v>
       </c>
       <c r="W193" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
         <v>3.7903443934426231</v>
       </c>
       <c r="X193" s="3" t="s">
@@ -6400,27 +6436,27 @@
         <v>3.57</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="9"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="10"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>56</v>
       </c>
       <c r="T194" s="2">
-        <f t="shared" ref="T194:T197" si="17">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
         <v>12.912000000000001</v>
       </c>
       <c r="U194" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
         <v>2.0075301196581194</v>
       </c>
       <c r="V194" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>7.5076126392694063</v>
       </c>
       <c r="W194" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
         <v>4.1449592470588241</v>
       </c>
       <c r="X194" s="3" t="s">
@@ -6474,27 +6510,27 @@
         <v>3.8170000000000002</v>
       </c>
       <c r="R195" s="4">
-        <f t="shared" si="9"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f t="shared" si="10"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>28</v>
       </c>
       <c r="T195" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>7.9279999999999999</v>
       </c>
       <c r="U195" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
         <v>7.0030783303360158</v>
       </c>
       <c r="V195" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>7.4061584144144144</v>
       </c>
       <c r="W195" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
         <v>3.8767368383547289</v>
       </c>
       <c r="X195" s="3" t="s">
@@ -6547,27 +6583,27 @@
         <v>2.3079999999999998</v>
       </c>
       <c r="R196" s="4">
-        <f t="shared" si="9"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f t="shared" si="10"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="T196" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>4.6189999999999998</v>
       </c>
       <c r="U196" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
         <v>6.2914560000000002</v>
       </c>
       <c r="V196" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>6.5187244546255512</v>
       </c>
       <c r="W196" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
         <v>3.2056985511265172</v>
       </c>
       <c r="X196" s="3" t="s">
@@ -6620,27 +6656,27 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="R197" s="4">
-        <f t="shared" si="9"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f t="shared" si="10"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="T197" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>2.3639999999999999</v>
       </c>
       <c r="U197" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
         <v>2.4338000842105263</v>
       </c>
       <c r="V197" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>2.5654480776699029</v>
       </c>
       <c r="W197" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
         <v>2.0947769694224236</v>
       </c>
       <c r="X197" s="3" t="s">
@@ -6687,17 +6723,17 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P198" s="2">
         <v>3.2090000000000001</v>
       </c>
       <c r="R198" s="4">
-        <f t="shared" si="9"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f t="shared" si="10"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>224</v>
       </c>
       <c r="T198" s="2">
@@ -6705,14 +6741,14 @@
         <v>4.734</v>
       </c>
       <c r="U198" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
         <v>1.8193653088524593</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W198" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
         <v>0.86460956559675917</v>
       </c>
       <c r="X198" s="3" t="s">
@@ -6765,11 +6801,11 @@
         <v>7.6189999999999998</v>
       </c>
       <c r="R199" s="4">
-        <f t="shared" si="9"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f t="shared" si="10"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>112</v>
       </c>
       <c r="T199" s="2">
@@ -6777,15 +6813,15 @@
         <v>15.257999999999999</v>
       </c>
       <c r="U199" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
         <v>7.3858270586473678</v>
       </c>
       <c r="V199" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>8.1484055682819374</v>
       </c>
       <c r="W199" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
         <v>3.8843692117075732</v>
       </c>
       <c r="X199" s="3" t="s">
@@ -6839,27 +6875,27 @@
         <v>6.81</v>
       </c>
       <c r="R200" s="4">
-        <f t="shared" si="9"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f t="shared" si="10"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>56</v>
       </c>
       <c r="T200" s="2">
-        <f t="shared" ref="T200:T203" si="18">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
         <v>30.224</v>
       </c>
       <c r="U200" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
         <v>2.5772889509710004</v>
       </c>
       <c r="V200" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>2.4805137058083986</v>
       </c>
       <c r="W200" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
         <v>4.3458163030837014</v>
       </c>
       <c r="X200" s="3" t="s">
@@ -6913,27 +6949,27 @@
         <v>7.1390000000000002</v>
       </c>
       <c r="R201" s="4">
-        <f t="shared" si="9"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f t="shared" si="10"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>28</v>
       </c>
       <c r="T201" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>15.143000000000001</v>
       </c>
       <c r="U201" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
         <v>7.0750678995935932</v>
       </c>
       <c r="V201" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>7.7453569808950533</v>
       </c>
       <c r="W201" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
         <v>4.145539854881636</v>
       </c>
       <c r="X201" s="3" t="s">
@@ -6986,27 +7022,27 @@
         <v>3.8460000000000001</v>
       </c>
       <c r="R202" s="4">
-        <f t="shared" si="9"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f t="shared" si="10"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>14</v>
       </c>
       <c r="T202" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>8.0920000000000005</v>
       </c>
       <c r="U202" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
         <v>6.8986035020979015</v>
       </c>
       <c r="V202" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>7.0430768738695857</v>
       </c>
       <c r="W202" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
         <v>3.847505073322933</v>
       </c>
       <c r="X202" s="3" t="s">
@@ -7059,27 +7095,27 @@
         <v>2.7909999999999999</v>
       </c>
       <c r="R203" s="4">
-        <f t="shared" si="9"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f t="shared" si="10"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>7</v>
       </c>
       <c r="T203" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>5.3040000000000003</v>
       </c>
       <c r="U203" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
         <v>2.9037489230769236</v>
       </c>
       <c r="V203" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>2.9857757288135591</v>
       </c>
       <c r="W203" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
         <v>1.3254661870297386</v>
       </c>
       <c r="X203" s="3" t="s">
@@ -7126,17 +7162,17 @@
         <v>1.0820000000000001</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P204" s="2">
         <v>2.4</v>
       </c>
       <c r="R204" s="4">
-        <f t="shared" si="9"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f t="shared" si="10"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>112</v>
       </c>
       <c r="T204" s="2">
@@ -7144,14 +7180,14 @@
         <v>3.4820000000000002</v>
       </c>
       <c r="U204" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
         <v>3.4902462698706098</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W204" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
         <v>1.5735193600000001</v>
       </c>
       <c r="X204" s="3" t="s">
@@ -7204,11 +7240,11 @@
         <v>1.256</v>
       </c>
       <c r="R205" s="4">
-        <f t="shared" si="9"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f t="shared" si="10"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="T205" s="2">
@@ -7216,15 +7252,15 @@
         <v>3.2309999999999999</v>
       </c>
       <c r="U205" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
         <v>3.0656458233890218</v>
       </c>
       <c r="V205" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>5.3670150417827296</v>
       </c>
       <c r="W205" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
         <v>3.0680866242038216</v>
       </c>
       <c r="X205" s="3" t="s">
@@ -7277,27 +7313,27 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R206" s="4">
-        <f t="shared" si="9"/>
+        <f>(D206-I206+1+2*K206)/M206</f>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f t="shared" si="10"/>
+        <f>(C206-H206+1+2*J206)/L206</f>
         <v>28</v>
       </c>
       <c r="T206" s="2">
-        <f t="shared" ref="T206:T268" si="19">N206+O206+P206</f>
+        <f t="shared" ref="T206:T268" si="14">N206+O206+P206</f>
         <v>0.51200000000000001</v>
       </c>
       <c r="U206" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>2.2502287883211674</v>
       </c>
       <c r="V206" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
         <v>2.0552089600000003</v>
       </c>
       <c r="W206" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
         <v>1.3701393066666667</v>
       </c>
       <c r="X206" s="3" t="s">
@@ -7350,27 +7386,27 @@
         <v>2.1280000000000001</v>
       </c>
       <c r="R207" s="4">
-        <f t="shared" si="9"/>
+        <f>(D207-I207+1+2*K207)/M207</f>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f t="shared" si="10"/>
+        <f>(C207-H207+1+2*J207)/L207</f>
         <v>14</v>
       </c>
       <c r="T207" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>7.4009999999999998</v>
       </c>
       <c r="U207" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>1.2034718301061835</v>
       </c>
       <c r="V207" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
         <v>1.8607034282955091</v>
       </c>
       <c r="W207" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>1.8108631578947367</v>
       </c>
       <c r="X207" s="3" t="s">
@@ -7423,27 +7459,27 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="R208" s="4">
-        <f t="shared" si="9"/>
+        <f>(D208-I208+1+2*K208)/M208</f>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f t="shared" si="10"/>
+        <f>(C208-H208+1+2*J208)/L208</f>
         <v>14</v>
       </c>
       <c r="T208" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.76</v>
       </c>
       <c r="U208" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
         <v>2.854456888888889</v>
       </c>
       <c r="V208" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
         <v>2.8677334325581398</v>
       </c>
       <c r="W208" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
         <v>1.8740507234042552</v>
       </c>
       <c r="X208" s="3" t="s">
@@ -7496,27 +7532,27 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="R209" s="4">
-        <f t="shared" si="9"/>
+        <f>(D209-I209+1+2*K209)/M209</f>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f t="shared" si="10"/>
+        <f>(C209-H209+1+2*J209)/L209</f>
         <v>7</v>
       </c>
       <c r="T209" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.59399999999999997</v>
       </c>
       <c r="U209" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
         <v>1.7394346666666665</v>
       </c>
       <c r="V209" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
         <v>1.9530494502923974</v>
       </c>
       <c r="W209" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
         <v>1.4457638787878786</v>
       </c>
       <c r="X209" s="3" t="s">
@@ -7569,27 +7605,27 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="R210" s="4">
-        <f t="shared" si="9"/>
+        <f>(D210-I210+1+2*K210)/M210</f>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f t="shared" si="10"/>
+        <f>(C210-H210+1+2*J210)/L210</f>
         <v>7</v>
       </c>
       <c r="T210" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="U210" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
         <v>3.0055026637868969</v>
       </c>
       <c r="V210" s="2">
-        <f t="shared" si="13"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
         <v>1.9255734317343172</v>
       </c>
       <c r="W210" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
         <v>2.8930306306306304</v>
       </c>
       <c r="X210" s="3" t="s">
@@ -7642,27 +7678,27 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="R211" s="4">
-        <f t="shared" si="9"/>
+        <f>(D211-I211+1+2*K211)/M211</f>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f t="shared" si="10"/>
+        <f>(C211-H211+1+2*J211)/L211</f>
         <v>56</v>
       </c>
       <c r="T211" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.2629999999999999</v>
       </c>
       <c r="U211" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
         <v>5.7265884334365325</v>
       </c>
       <c r="V211" s="2">
-        <f t="shared" si="11"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
         <v>5.7265884334365325</v>
       </c>
       <c r="W211" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
         <v>2.9978736855753643</v>
       </c>
       <c r="X211" t="s">
@@ -7713,27 +7749,27 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R212" s="4">
-        <f t="shared" si="9"/>
+        <f>(D212-I212+1+2*K212)/M212</f>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f t="shared" si="10"/>
+        <f>(C212-H212+1+2*J212)/L212</f>
         <v>28</v>
       </c>
       <c r="T212" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="U212" s="2">
-        <f t="shared" ref="U212:V228" si="20">(2*$R212*$S212*$F212*$G212*$E212*$H212*$I212)/(N212/1000)/10^12</f>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
         <v>1.9761624615384616</v>
       </c>
       <c r="V212" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
         <v>1.2018765847953214</v>
       </c>
       <c r="W212" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
         <v>1.1354745635359116</v>
       </c>
       <c r="X212" t="s">
@@ -7784,27 +7820,27 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="R213" s="4">
-        <f t="shared" si="9"/>
+        <f>(D213-I213+1+2*K213)/M213</f>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f t="shared" si="10"/>
+        <f>(C213-H213+1+2*J213)/L213</f>
         <v>28</v>
       </c>
       <c r="T213" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.256</v>
       </c>
       <c r="U213" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
         <v>6.0054807272727277</v>
       </c>
       <c r="V213" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
         <v>6.0250425537459291</v>
       </c>
       <c r="W213" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
         <v>2.8856288049921996</v>
       </c>
       <c r="X213" t="s">
@@ -7856,27 +7892,27 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="R214" s="4">
-        <f t="shared" si="9"/>
+        <f>(D214-I214+1+2*K214)/M214</f>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f t="shared" si="10"/>
+        <f>(C214-H214+1+2*J214)/L214</f>
         <v>14</v>
       </c>
       <c r="T214" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.48199999999999998</v>
       </c>
       <c r="U214" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
         <v>2.0552089599999999</v>
       </c>
       <c r="V214" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
         <v>0.86717677637130808</v>
       </c>
       <c r="W214" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
         <v>1.4173854896551723</v>
       </c>
       <c r="X214" t="s">
@@ -7927,27 +7963,27 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="R215" s="4">
-        <f t="shared" si="9"/>
+        <f>(D215-I215+1+2*K215)/M215</f>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f t="shared" si="10"/>
+        <f>(C215-H215+1+2*J215)/L215</f>
         <v>14</v>
       </c>
       <c r="T215" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.377</v>
       </c>
       <c r="U215" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
         <v>1.8187689911504423</v>
       </c>
       <c r="V215" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
         <v>1.6709015934959348</v>
       </c>
       <c r="W215" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
         <v>1.4575950070921988</v>
       </c>
       <c r="X215" t="s">
@@ -7998,27 +8034,27 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="R216" s="4">
-        <f t="shared" si="9"/>
+        <f>(D216-I216+1+2*K216)/M216</f>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f t="shared" si="10"/>
+        <f>(C216-H216+1+2*J216)/L216</f>
         <v>14</v>
       </c>
       <c r="T216" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.095</v>
       </c>
       <c r="U216" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
         <v>5.8166291320754704</v>
       </c>
       <c r="V216" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
         <v>5.8720255999999997</v>
       </c>
       <c r="W216" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
         <v>4.0036538181818182</v>
       </c>
       <c r="X216" t="s">
@@ -8070,27 +8106,27 @@
         <v>0.159</v>
       </c>
       <c r="R217" s="4">
-        <f t="shared" si="9"/>
+        <f>(D217-I217+1+2*K217)/M217</f>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f t="shared" si="10"/>
+        <f>(C217-H217+1+2*J217)/L217</f>
         <v>7</v>
       </c>
       <c r="T217" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.48</v>
       </c>
       <c r="U217" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
         <v>1.7417025084745763</v>
       </c>
       <c r="V217" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
         <v>1.0124182068965517</v>
       </c>
       <c r="W217" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
         <v>1.2925842515723269</v>
       </c>
       <c r="X217" t="s">
@@ -8142,27 +8178,27 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="R218" s="4">
-        <f t="shared" si="9"/>
+        <f>(D218-I218+1+2*K218)/M218</f>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f t="shared" si="10"/>
+        <f>(C218-H218+1+2*J218)/L218</f>
         <v>7</v>
       </c>
       <c r="T218" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.38700000000000001</v>
       </c>
       <c r="U218" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
         <v>1.7717318620689655</v>
       </c>
       <c r="V218" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
         <v>1.6574265806451611</v>
       </c>
       <c r="W218" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
         <v>1.3981013333333334</v>
       </c>
       <c r="X218" t="s">
@@ -8214,27 +8250,27 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="R219" s="4">
-        <f t="shared" si="9"/>
+        <f>(D219-I219+1+2*K219)/M219</f>
         <v>6.5</v>
       </c>
       <c r="S219" s="4">
-        <f t="shared" si="10"/>
+        <f>(C219-H219+1+2*J219)/L219</f>
         <v>6.5</v>
       </c>
       <c r="T219" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.3879999999999999</v>
       </c>
       <c r="U219" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
         <v>1.6877080380952383</v>
       </c>
       <c r="V219" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
         <v>1.45551822587269</v>
       </c>
       <c r="W219" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
         <v>1.4736743783783783</v>
       </c>
       <c r="X219" t="s">
@@ -8285,27 +8321,27 @@
         <v>1.143</v>
       </c>
       <c r="R220" s="4">
-        <f t="shared" si="9"/>
+        <f>(D220-I220+1+2*K220)/M220</f>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f t="shared" si="10"/>
+        <f>(C220-H220+1+2*J220)/L220</f>
         <v>56</v>
       </c>
       <c r="T220" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.351</v>
       </c>
       <c r="U220" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
         <v>6.1247949139072855</v>
       </c>
       <c r="V220" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
         <v>6.1247949139072855</v>
       </c>
       <c r="W220" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="X220" t="s">
@@ -8356,27 +8392,27 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="R221" s="4">
-        <f t="shared" si="9"/>
+        <f>(D221-I221+1+2*K221)/M221</f>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f t="shared" si="10"/>
+        <f>(C221-H221+1+2*J221)/L221</f>
         <v>28</v>
       </c>
       <c r="T221" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="U221" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
         <v>2.4178928941176472</v>
       </c>
       <c r="V221" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
         <v>1.0512577800511509</v>
       </c>
       <c r="W221" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
         <v>1.2125126607669616</v>
       </c>
       <c r="X221" t="s">
@@ -8427,27 +8463,27 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="R222" s="4">
-        <f t="shared" si="9"/>
+        <f>(D222-I222+1+2*K222)/M222</f>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f t="shared" si="10"/>
+        <f>(C222-H222+1+2*J222)/L222</f>
         <v>28</v>
       </c>
       <c r="T222" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="U222" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
         <v>6.6535541870503581</v>
       </c>
       <c r="V222" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
         <v>6.6535541870503581</v>
       </c>
       <c r="W222" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
         <v>3.8415120747663551</v>
       </c>
       <c r="X222" t="s">
@@ -8498,27 +8534,27 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="R223" s="4">
-        <f t="shared" si="9"/>
+        <f>(D223-I223+1+2*K223)/M223</f>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f t="shared" si="10"/>
+        <f>(C223-H223+1+2*J223)/L223</f>
         <v>14</v>
       </c>
       <c r="T223" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.68599999999999994</v>
       </c>
       <c r="U223" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
         <v>2.6348832820512822</v>
       </c>
       <c r="V223" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
         <v>1.3839790976430977</v>
       </c>
       <c r="W223" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
         <v>1.764127862660944</v>
       </c>
       <c r="X223" t="s">
@@ -8570,34 +8606,34 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="R224" s="4">
-        <f t="shared" si="9"/>
+        <f>(D224-I224+1+2*K224)/M224</f>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f t="shared" si="10"/>
+        <f>(C224-H224+1+2*J224)/L224</f>
         <v>14</v>
       </c>
       <c r="T224" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.54199999999999993</v>
       </c>
       <c r="U224" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
         <v>2.553054608695652</v>
       </c>
       <c r="V224" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
         <v>2.3897778604651165</v>
       </c>
       <c r="W224" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
         <v>1.9667071387559809</v>
       </c>
       <c r="X224" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8641,34 +8677,34 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="R225" s="4">
-        <f t="shared" si="9"/>
+        <f>(D225-I225+1+2*K225)/M225</f>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f t="shared" si="10"/>
+        <f>(C225-H225+1+2*J225)/L225</f>
         <v>14</v>
       </c>
       <c r="T225" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.8879999999999999</v>
       </c>
       <c r="U225" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
         <v>6.4787672994746055</v>
       </c>
       <c r="V225" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
         <v>5.7089137777777772</v>
       </c>
       <c r="W225" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
         <v>5.5297102062780272</v>
       </c>
       <c r="X225" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="2:24">
       <c r="C226" s="3">
         <v>14</v>
       </c>
@@ -8712,34 +8748,34 @@
         <v>0.217</v>
       </c>
       <c r="R226" s="4">
-        <f t="shared" si="9"/>
+        <f>(D226-I226+1+2*K226)/M226</f>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f t="shared" si="10"/>
+        <f>(C226-H226+1+2*J226)/L226</f>
         <v>7</v>
       </c>
       <c r="T226" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.65400000000000003</v>
       </c>
       <c r="U226" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
         <v>2.3897778604651165</v>
       </c>
       <c r="V226" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
         <v>1.5511011018867924</v>
       </c>
       <c r="W226" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
         <v>1.8942018064516131</v>
       </c>
       <c r="X226" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="2:24">
       <c r="B227" s="3"/>
       <c r="C227">
         <v>7</v>
@@ -8784,34 +8820,34 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="R227" s="4">
-        <f t="shared" si="9"/>
+        <f>(D227-I227+1+2*K227)/M227</f>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f t="shared" si="10"/>
+        <f>(C227-H227+1+2*J227)/L227</f>
         <v>7</v>
       </c>
       <c r="T227" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="U227" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
         <v>2.0759686464646463</v>
       </c>
       <c r="V227" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
         <v>1.9857091400966185</v>
       </c>
       <c r="W227" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
         <v>1.9857091400966185</v>
       </c>
       <c r="X227" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="2:24">
       <c r="B228" s="3"/>
       <c r="C228">
         <v>7</v>
@@ -8856,34 +8892,34 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="R228" s="4">
-        <f t="shared" si="9"/>
+        <f>(D228-I228+1+2*K228)/M228</f>
         <v>6.5</v>
       </c>
       <c r="S228" s="4">
-        <f t="shared" si="10"/>
+        <f>(C228-H228+1+2*J228)/L228</f>
         <v>6.5</v>
       </c>
       <c r="T228" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.4749999999999996</v>
       </c>
       <c r="U228" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
         <v>2.0486629364161852</v>
       </c>
       <c r="V228" s="2">
-        <f t="shared" si="20"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
         <v>1.5510664682713347</v>
       </c>
       <c r="W228" s="2">
-        <f t="shared" si="12"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
         <v>1.6313863659378596</v>
       </c>
       <c r="X228" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="2:24">
       <c r="B229" s="3"/>
       <c r="C229">
         <v>700</v>
@@ -8922,17 +8958,17 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P229" s="2">
         <v>1.845</v>
       </c>
       <c r="R229" s="4">
-        <f t="shared" ref="R229:R268" si="21">(D229-H229+1+2*J229)/L229</f>
+        <f>(D229-I229+1+2*K229)/M229</f>
         <v>79.5</v>
       </c>
       <c r="S229" s="4">
-        <f t="shared" ref="S229:S268" si="22">(C229-I229+1+2*K229)/M229</f>
+        <f>(C229-H229+1+2*J229)/L229</f>
         <v>349</v>
       </c>
       <c r="T229" s="2">
@@ -8940,21 +8976,21 @@
         <v>2.589</v>
       </c>
       <c r="U229" s="2">
-        <f t="shared" ref="U229:U268" si="23">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(N229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
         <v>1.909367741935484</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W229" s="2">
-        <f t="shared" ref="W229:W268" si="24">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(P229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
         <v>0.76995642276422771</v>
       </c>
       <c r="X229" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="2:24">
       <c r="B230" s="3"/>
       <c r="C230">
         <v>350</v>
@@ -8999,34 +9035,34 @@
         <v>10.943</v>
       </c>
       <c r="R230" s="4">
-        <f t="shared" si="21"/>
+        <f>(D230-I230+1+2*K230)/M230</f>
         <v>80</v>
       </c>
       <c r="S230" s="4">
-        <f t="shared" si="22"/>
+        <f>(C230-H230+1+2*J230)/L230</f>
         <v>350</v>
       </c>
       <c r="T230" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>20.084</v>
       </c>
       <c r="U230" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
         <v>7.2276026258205688</v>
       </c>
       <c r="V230" s="2">
-        <f t="shared" ref="V230:V268" si="25">(2*$R230*$S230*$F230*$G230*$E230*$H230*$I230)/(O230/1000)/10^12</f>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>7.2260214395099549</v>
       </c>
       <c r="W230" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
         <v>3.0183810655213379</v>
       </c>
       <c r="X230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="2:24">
       <c r="B231" s="3"/>
       <c r="C231">
         <v>350</v>
@@ -9071,34 +9107,34 @@
         <v>10.643000000000001</v>
       </c>
       <c r="R231" s="4">
-        <f t="shared" si="21"/>
+        <f>(D231-I231+1+2*K231)/M231</f>
         <v>39</v>
       </c>
       <c r="S231" s="4">
-        <f t="shared" si="22"/>
+        <f>(C231-H231+1+2*J231)/L231</f>
         <v>174</v>
       </c>
       <c r="T231" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>42.811</v>
       </c>
       <c r="U231" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
         <v>4.5426690091930544</v>
       </c>
       <c r="V231" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
         <v>1.9873415676110466</v>
       </c>
       <c r="W231" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
         <v>4.1785896457765661</v>
       </c>
       <c r="X231" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="2:24">
       <c r="B232" s="3"/>
       <c r="C232">
         <v>175</v>
@@ -9143,34 +9179,34 @@
         <v>7.8230000000000004</v>
       </c>
       <c r="R232" s="4">
-        <f t="shared" si="21"/>
+        <f>(D232-I232+1+2*K232)/M232</f>
         <v>40</v>
       </c>
       <c r="S232" s="4">
-        <f t="shared" si="22"/>
+        <f>(C232-H232+1+2*J232)/L232</f>
         <v>175</v>
       </c>
       <c r="T232" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>15.591000000000001</v>
       </c>
       <c r="U232" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
         <v>8.4779630390143748</v>
       </c>
       <c r="V232" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
         <v>8.5305123966942151</v>
       </c>
       <c r="W232" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
         <v>4.222183816950019</v>
       </c>
       <c r="X232" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="3"/>
       <c r="C233">
         <v>175</v>
@@ -9215,34 +9251,34 @@
         <v>10.029</v>
       </c>
       <c r="R233" s="4">
-        <f t="shared" si="21"/>
+        <f>(D233-I233+1+2*K233)/M233</f>
         <v>19</v>
       </c>
       <c r="S233" s="4">
-        <f t="shared" si="22"/>
+        <f>(C233-H233+1+2*J233)/L233</f>
         <v>86.5</v>
       </c>
       <c r="T233" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>36.918000000000006</v>
       </c>
       <c r="U233" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
         <v>4.4392958681092214</v>
       </c>
       <c r="V233" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
         <v>2.507179143389199</v>
       </c>
       <c r="W233" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
         <v>4.2958785920829596</v>
       </c>
       <c r="X233" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="2:24">
       <c r="B234" s="3"/>
       <c r="C234">
         <v>84</v>
@@ -9287,34 +9323,34 @@
         <v>6.6630000000000003</v>
       </c>
       <c r="R234" s="4">
-        <f t="shared" si="21"/>
+        <f>(D234-I234+1+2*K234)/M234</f>
         <v>20</v>
       </c>
       <c r="S234" s="4">
-        <f t="shared" si="22"/>
+        <f>(C234-H234+1+2*J234)/L234</f>
         <v>84</v>
       </c>
       <c r="T234" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>13.763999999999999</v>
       </c>
       <c r="U234" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
         <v>8.9346120710059154</v>
       </c>
       <c r="V234" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
         <v>8.9270659459459445</v>
       </c>
       <c r="W234" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
         <v>4.7589581629896438</v>
       </c>
       <c r="X234" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="3"/>
       <c r="C235">
         <v>84</v>
@@ -9359,34 +9395,34 @@
         <v>9.0129999999999999</v>
       </c>
       <c r="R235" s="4">
-        <f t="shared" si="21"/>
+        <f>(D235-I235+1+2*K235)/M235</f>
         <v>9</v>
       </c>
       <c r="S235" s="4">
-        <f t="shared" si="22"/>
+        <f>(C235-H235+1+2*J235)/L235</f>
         <v>41</v>
       </c>
       <c r="T235" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>31.692</v>
       </c>
       <c r="U235" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
         <v>4.4179555149577538</v>
       </c>
       <c r="V235" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
         <v>2.7794306730838301</v>
       </c>
       <c r="W235" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
         <v>4.2929606568290248</v>
       </c>
       <c r="X235" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="2:24">
       <c r="B236" s="3"/>
       <c r="C236">
         <v>42</v>
@@ -9431,35 +9467,34 @@
         <v>3.069</v>
       </c>
       <c r="R236" s="4">
-        <f t="shared" si="21"/>
+        <f>(D236-I236+1+2*K236)/M236</f>
         <v>10</v>
       </c>
       <c r="S236" s="4">
-        <f t="shared" si="22"/>
+        <f>(C236-H236+1+2*J236)/L236</f>
         <v>42</v>
       </c>
       <c r="T236" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>11.670999999999999</v>
       </c>
       <c r="U236" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
         <v>7.405170070060719</v>
       </c>
       <c r="V236" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
         <v>7.3400319999999999</v>
       </c>
       <c r="W236" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
         <v>10.332009853372433</v>
       </c>
       <c r="X236" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="3"/>
       <c r="C237">
         <v>112</v>
@@ -9504,35 +9539,34 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="R237" s="4">
-        <f t="shared" si="21"/>
+        <f>(D237-I237+1+2*K237)/M237</f>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f t="shared" si="22"/>
+        <f>(C237-H237+1+2*J237)/L237</f>
         <v>112</v>
       </c>
       <c r="T237" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.544</v>
       </c>
       <c r="U237" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
         <v>2.7586697449664435</v>
       </c>
       <c r="V237" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>2.5690111999999998</v>
       </c>
       <c r="W237" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="3"/>
+    <row r="238" spans="2:24">
       <c r="B238" s="3"/>
       <c r="C238">
         <v>56</v>
@@ -9577,35 +9611,34 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="R238" s="4">
-        <f t="shared" si="21"/>
+        <f>(D238-I238+1+2*K238)/M238</f>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f t="shared" si="22"/>
+        <f>(C238-H238+1+2*J238)/L238</f>
         <v>56</v>
       </c>
       <c r="T238" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.141</v>
       </c>
       <c r="U238" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
         <v>2.7494434247491641</v>
       </c>
       <c r="V238" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
         <v>2.854456888888889</v>
       </c>
       <c r="W238" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
         <v>1.4839053862815883</v>
       </c>
       <c r="X238" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="3"/>
+    <row r="239" spans="2:24">
       <c r="B239" s="3"/>
       <c r="C239">
         <v>56</v>
@@ -9650,35 +9683,34 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="R239" s="4">
-        <f t="shared" si="21"/>
+        <f>(D239-I239+1+2*K239)/M239</f>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f t="shared" si="22"/>
+        <f>(C239-H239+1+2*J239)/L239</f>
         <v>56</v>
       </c>
       <c r="T239" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.1469999999999998</v>
       </c>
       <c r="U239" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>3.0674760597014927</v>
       </c>
       <c r="V239" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
         <v>2.6097891555555557</v>
       </c>
       <c r="W239" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>1.4575950070921988</v>
       </c>
       <c r="X239" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="3"/>
+    <row r="240" spans="2:24">
       <c r="B240" s="3"/>
       <c r="C240">
         <v>56</v>
@@ -9723,35 +9755,34 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="R240" s="4">
-        <f t="shared" si="21"/>
+        <f>(D240-I240+1+2*K240)/M240</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f t="shared" si="22"/>
+        <f>(C240-H240+1+2*J240)/L240</f>
         <v>28</v>
       </c>
       <c r="T240" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.92100000000000004</v>
       </c>
       <c r="U240" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
         <v>2.4911623757575758</v>
       </c>
       <c r="V240" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
         <v>0.84057626175869127</v>
       </c>
       <c r="W240" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
         <v>1.5394823670411983</v>
       </c>
       <c r="X240" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="3"/>
+    <row r="241" spans="2:24">
       <c r="B241" s="3"/>
       <c r="C241" s="3">
         <v>28</v>
@@ -9796,35 +9827,34 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="R241" s="4">
-        <f t="shared" si="21"/>
+        <f>(D241-I241+1+2*K241)/M241</f>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f t="shared" si="22"/>
+        <f>(C241-H241+1+2*J241)/L241</f>
         <v>28</v>
       </c>
       <c r="T241" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="U241" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="V241" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
         <v>2.6691025454545456</v>
       </c>
       <c r="W241" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
         <v>2.3759641156069367</v>
       </c>
       <c r="X241" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="3"/>
+    <row r="242" spans="2:24">
       <c r="B242" s="3"/>
       <c r="C242" s="3">
         <v>28</v>
@@ -9869,35 +9899,34 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="R242" s="4">
-        <f t="shared" si="21"/>
+        <f>(D242-I242+1+2*K242)/M242</f>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f t="shared" si="22"/>
+        <f>(C242-H242+1+2*J242)/L242</f>
         <v>28</v>
       </c>
       <c r="T242" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.90399999999999991</v>
       </c>
       <c r="U242" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
         <v>2.7867240135593221</v>
       </c>
       <c r="V242" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
         <v>3.0674760597014927</v>
       </c>
       <c r="W242" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
         <v>2.4108022991202342</v>
       </c>
       <c r="X242" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="3"/>
+    <row r="243" spans="2:24">
       <c r="B243" s="3"/>
       <c r="C243" s="3">
         <v>28</v>
@@ -9942,35 +9971,34 @@
         <v>0.246</v>
       </c>
       <c r="R243" s="4">
-        <f t="shared" si="21"/>
+        <f>(D243-I243+1+2*K243)/M243</f>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f t="shared" si="22"/>
+        <f>(C243-H243+1+2*J243)/L243</f>
         <v>14</v>
       </c>
       <c r="T243" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.85299999999999998</v>
       </c>
       <c r="U243" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
         <v>2.1079066256410255</v>
       </c>
       <c r="V243" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
         <v>0.99767425242718444</v>
       </c>
       <c r="W243" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
         <v>1.6709015934959348</v>
       </c>
       <c r="X243" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="3"/>
+    <row r="244" spans="2:24">
       <c r="B244" s="3"/>
       <c r="C244" s="3">
         <v>14</v>
@@ -10015,35 +10043,34 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R244" s="4">
-        <f t="shared" si="21"/>
+        <f>(D244-I244+1+2*K244)/M244</f>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f t="shared" si="22"/>
+        <f>(C244-H244+1+2*J244)/L244</f>
         <v>14</v>
       </c>
       <c r="T244" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.96500000000000008</v>
       </c>
       <c r="U244" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
         <v>3.1863704806201554</v>
       </c>
       <c r="V244" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
         <v>2.2278687913279134</v>
       </c>
       <c r="W244" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
         <v>2.4321999526627218</v>
       </c>
       <c r="X244" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="3"/>
+    <row r="245" spans="2:24">
       <c r="B245" s="3"/>
       <c r="C245" s="3">
         <v>28</v>
@@ -10088,35 +10115,34 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="R245" s="4">
-        <f t="shared" si="21"/>
+        <f>(D245-I245+1+2*K245)/M245</f>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f t="shared" si="22"/>
+        <f>(C245-H245+1+2*J245)/L245</f>
         <v>14</v>
       </c>
       <c r="T245" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.2010000000000001</v>
       </c>
       <c r="U245" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
         <v>3.0168204917431192</v>
       </c>
       <c r="V245" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
         <v>1.6262781088031653</v>
       </c>
       <c r="W245" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
         <v>2.5490963844961234</v>
       </c>
       <c r="X245" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="3"/>
+    <row r="246" spans="2:24">
       <c r="B246" s="3"/>
       <c r="C246" s="3">
         <v>14</v>
@@ -10161,35 +10187,34 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="R246" s="4">
-        <f t="shared" si="21"/>
+        <f>(D246-I246+1+2*K246)/M246</f>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f t="shared" si="22"/>
+        <f>(C246-H246+1+2*J246)/L246</f>
         <v>14</v>
       </c>
       <c r="T246" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.96799999999999997</v>
       </c>
       <c r="U246" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
         <v>2.2963228603351959</v>
       </c>
       <c r="V246" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
         <v>3.0560728029739774</v>
       </c>
       <c r="W246" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
         <v>2.4108022991202342</v>
       </c>
       <c r="X246" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="3"/>
+    <row r="247" spans="2:24">
       <c r="B247" s="3"/>
       <c r="C247" s="3">
         <v>14</v>
@@ -10234,35 +10259,34 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R247" s="4">
-        <f t="shared" si="21"/>
+        <f>(D247-I247+1+2*K247)/M247</f>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f t="shared" si="22"/>
+        <f>(C247-H247+1+2*J247)/L247</f>
         <v>14</v>
       </c>
       <c r="T247" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.96399999999999997</v>
       </c>
       <c r="U247" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
         <v>3.1987688093385214</v>
       </c>
       <c r="V247" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
         <v>2.2278687913279134</v>
       </c>
       <c r="W247" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
         <v>2.4321999526627218</v>
       </c>
       <c r="X247" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="3"/>
+    <row r="248" spans="2:24">
       <c r="B248" s="3"/>
       <c r="C248" s="3">
         <v>14</v>
@@ -10307,35 +10331,34 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" si="21"/>
+        <f>(D248-I248+1+2*K248)/M248</f>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" si="22"/>
+        <f>(C248-H248+1+2*J248)/L248</f>
         <v>7</v>
       </c>
       <c r="T248" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.77800000000000002</v>
       </c>
       <c r="U248" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
         <v>1.8268524088888889</v>
       </c>
       <c r="V248" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
         <v>1.3839790976430977</v>
       </c>
       <c r="W248" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
         <v>1.6056319999999999</v>
       </c>
       <c r="X248" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="3"/>
+    <row r="249" spans="2:24">
       <c r="B249" s="3"/>
       <c r="C249" s="3">
         <v>7</v>
@@ -10380,35 +10403,34 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="R249" s="4">
-        <f t="shared" si="21"/>
+        <f>(D249-I249+1+2*K249)/M249</f>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f t="shared" si="22"/>
+        <f>(C249-H249+1+2*J249)/L249</f>
         <v>7</v>
       </c>
       <c r="T249" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.0469999999999997</v>
       </c>
       <c r="U249" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
         <v>2.486139870967742</v>
       </c>
       <c r="V249" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
         <v>2.6348832820512822</v>
       </c>
       <c r="W249" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
         <v>3.0776839667221298</v>
       </c>
       <c r="X249" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="3"/>
+    <row r="250" spans="2:24">
       <c r="B250" s="3"/>
       <c r="C250" s="3">
         <v>7</v>
@@ -10453,35 +10475,34 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="R250" s="4">
-        <f t="shared" si="21"/>
+        <f>(D250-I250+1+2*K250)/M250</f>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f t="shared" si="22"/>
+        <f>(C250-H250+1+2*J250)/L250</f>
         <v>7</v>
       </c>
       <c r="T250" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.27</v>
       </c>
       <c r="U250" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
         <v>2.2039774369973189</v>
       </c>
       <c r="V250" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
         <v>1.9809242987951807</v>
       </c>
       <c r="W250" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
         <v>1.705567601659751</v>
       </c>
       <c r="X250" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="3"/>
+    <row r="251" spans="2:24">
       <c r="B251" s="3"/>
       <c r="C251" s="3">
         <v>14</v>
@@ -10526,35 +10547,34 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="R251" s="4">
-        <f t="shared" si="21"/>
+        <f>(D251-I251+1+2*K251)/M251</f>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f t="shared" si="22"/>
+        <f>(C251-H251+1+2*J251)/L251</f>
         <v>7</v>
       </c>
       <c r="T251" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.496</v>
       </c>
       <c r="U251" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
         <v>2.3589198967001437</v>
       </c>
       <c r="V251" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
         <v>1.9977729866342648</v>
       </c>
       <c r="W251" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
         <v>1.6845975081967215</v>
       </c>
       <c r="X251" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="3"/>
+    <row r="252" spans="2:24">
       <c r="B252" s="3"/>
       <c r="C252" s="3">
         <v>7</v>
@@ -10599,35 +10619,34 @@
         <v>0.495</v>
       </c>
       <c r="R252" s="4">
-        <f t="shared" si="21"/>
+        <f>(D252-I252+1+2*K252)/M252</f>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f t="shared" si="22"/>
+        <f>(C252-H252+1+2*J252)/L252</f>
         <v>7</v>
       </c>
       <c r="T252" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.294</v>
       </c>
       <c r="U252" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
         <v>1.9809242987951807</v>
       </c>
       <c r="V252" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
         <v>2.1408426666666664</v>
       </c>
       <c r="W252" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
         <v>1.6607749171717172</v>
       </c>
       <c r="X252" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="3"/>
+    <row r="253" spans="2:24">
       <c r="B253" s="3"/>
       <c r="C253">
         <v>112</v>
@@ -10672,35 +10691,34 @@
         <v>1.67</v>
       </c>
       <c r="R253" s="4">
-        <f t="shared" si="21"/>
+        <f>(D253-I253+1+2*K253)/M253</f>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f t="shared" si="22"/>
+        <f>(C253-H253+1+2*J253)/L253</f>
         <v>112</v>
       </c>
       <c r="T253" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.8479999999999999</v>
       </c>
       <c r="U253" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
         <v>2.894660507042254</v>
       </c>
       <c r="V253" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
         <v>2.6953560131147545</v>
       </c>
       <c r="W253" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
         <v>0.98453123832335343</v>
       </c>
       <c r="X253" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="3"/>
+    <row r="254" spans="2:24">
       <c r="B254" s="3"/>
       <c r="C254">
         <v>56</v>
@@ -10745,35 +10763,34 @@
         <v>0.999</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" si="21"/>
+        <f>(D254-I254+1+2*K254)/M254</f>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" si="22"/>
+        <f>(C254-H254+1+2*J254)/L254</f>
         <v>56</v>
       </c>
       <c r="T254" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.0350000000000001</v>
       </c>
       <c r="U254" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
         <v>3.0447540148148149</v>
       </c>
       <c r="V254" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
         <v>3.3148531612903223</v>
       </c>
       <c r="W254" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
         <v>1.6458129809809807</v>
       </c>
       <c r="X254" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="3"/>
+    <row r="255" spans="2:24">
       <c r="B255" s="3"/>
       <c r="C255">
         <v>56</v>
@@ -10818,35 +10835,34 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="R255" s="4">
-        <f t="shared" si="21"/>
+        <f>(D255-I255+1+2*K255)/M255</f>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f t="shared" si="22"/>
+        <f>(C255-H255+1+2*J255)/L255</f>
         <v>56</v>
       </c>
       <c r="T255" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.069</v>
       </c>
       <c r="U255" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
         <v>3.5056869253731349</v>
       </c>
       <c r="V255" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
         <v>2.9100303858407082</v>
       </c>
       <c r="W255" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
         <v>1.588567312077295</v>
       </c>
       <c r="X255" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="3"/>
+    <row r="256" spans="2:24">
       <c r="B256" s="3"/>
       <c r="C256">
         <v>56</v>
@@ -10891,35 +10907,34 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="R256" s="4">
-        <f t="shared" si="21"/>
+        <f>(D256-I256+1+2*K256)/M256</f>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f t="shared" si="22"/>
+        <f>(C256-H256+1+2*J256)/L256</f>
         <v>28</v>
       </c>
       <c r="T256" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.593</v>
       </c>
       <c r="U256" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
         <v>3.1863704806201554</v>
       </c>
       <c r="V256" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
         <v>0.97518811862396204</v>
       </c>
       <c r="W256" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
         <v>1.6709015934959348</v>
       </c>
       <c r="X256" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="3"/>
+    <row r="257" spans="2:24">
       <c r="B257" s="3"/>
       <c r="C257" s="3">
         <v>28</v>
@@ -10964,35 +10979,34 @@
         <v>0.628</v>
       </c>
       <c r="R257" s="4">
-        <f t="shared" si="21"/>
+        <f>(D257-I257+1+2*K257)/M257</f>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f t="shared" si="22"/>
+        <f>(C257-H257+1+2*J257)/L257</f>
         <v>28</v>
       </c>
       <c r="T257" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.573</v>
       </c>
       <c r="U257" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
         <v>3.5820635468409585</v>
       </c>
       <c r="V257" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
         <v>3.3830600164609055</v>
       </c>
       <c r="W257" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
         <v>2.618100585987261</v>
       </c>
       <c r="X257" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="3"/>
+    <row r="258" spans="2:24">
       <c r="B258" s="3"/>
       <c r="C258" s="3">
         <v>28</v>
@@ -11037,35 +11051,34 @@
         <v>0.625</v>
       </c>
       <c r="R258" s="4">
-        <f t="shared" si="21"/>
+        <f>(D258-I258+1+2*K258)/M258</f>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f t="shared" si="22"/>
+        <f>(C258-H258+1+2*J258)/L258</f>
         <v>28</v>
       </c>
       <c r="T258" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.5760000000000001</v>
       </c>
       <c r="U258" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
         <v>3.4760405243128969</v>
       </c>
       <c r="V258" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
         <v>3.4396802677824274</v>
       </c>
       <c r="W258" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
         <v>2.6306674688</v>
       </c>
       <c r="X258" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="3"/>
+    <row r="259" spans="2:24">
       <c r="B259" s="3"/>
       <c r="C259" s="3">
         <v>28</v>
@@ -11110,35 +11123,34 @@
         <v>0.37</v>
       </c>
       <c r="R259" s="4">
-        <f t="shared" si="21"/>
+        <f>(D259-I259+1+2*K259)/M259</f>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f t="shared" si="22"/>
+        <f>(C259-H259+1+2*J259)/L259</f>
         <v>14</v>
       </c>
       <c r="T259" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.3439999999999999</v>
       </c>
       <c r="U259" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
         <v>2.7494434247491641</v>
       </c>
       <c r="V259" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
         <v>1.2179016059259258</v>
       </c>
       <c r="W259" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
         <v>2.2218475243243243</v>
       </c>
       <c r="X259" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="3"/>
+    <row r="260" spans="2:24">
       <c r="B260" s="3"/>
       <c r="C260" s="3">
         <v>14</v>
@@ -11183,35 +11195,34 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="R260" s="4">
-        <f t="shared" si="21"/>
+        <f>(D260-I260+1+2*K260)/M260</f>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f t="shared" si="22"/>
+        <f>(C260-H260+1+2*J260)/L260</f>
         <v>14</v>
       </c>
       <c r="T260" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="U260" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
         <v>3.6618422449888639</v>
       </c>
       <c r="V260" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
         <v>2.9203679715808173</v>
       </c>
       <c r="W260" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
         <v>2.8445798754325264</v>
       </c>
       <c r="X260" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="3"/>
+    <row r="261" spans="2:24">
       <c r="B261" s="3"/>
       <c r="C261" s="3">
         <v>28</v>
@@ -11256,35 +11267,34 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="R261" s="4">
-        <f t="shared" si="21"/>
+        <f>(D261-I261+1+2*K261)/M261</f>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f t="shared" si="22"/>
+        <f>(C261-H261+1+2*J261)/L261</f>
         <v>14</v>
       </c>
       <c r="T261" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>3.5830000000000002</v>
       </c>
       <c r="U261" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
         <v>3.6295080971302425</v>
       </c>
       <c r="V261" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
         <v>2.077280060644346</v>
       </c>
       <c r="W261" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
         <v>3.005790069469835</v>
       </c>
       <c r="X261" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="3"/>
+    <row r="262" spans="2:24">
       <c r="B262" s="3"/>
       <c r="C262" s="3">
         <v>14</v>
@@ -11329,35 +11339,34 @@
         <v>0.59</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" si="21"/>
+        <f>(D262-I262+1+2*K262)/M262</f>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" si="22"/>
+        <f>(C262-H262+1+2*J262)/L262</f>
         <v>14</v>
       </c>
       <c r="T262" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.605</v>
       </c>
       <c r="U262" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
         <v>2.9893948509090906</v>
       </c>
       <c r="V262" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
         <v>3.5358433720430109</v>
       </c>
       <c r="W262" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
         <v>2.7867240135593221</v>
       </c>
       <c r="X262" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="3"/>
+    <row r="263" spans="2:24">
       <c r="B263" s="3"/>
       <c r="C263" s="3">
         <v>14</v>
@@ -11402,35 +11411,34 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" si="21"/>
+        <f>(D263-I263+1+2*K263)/M263</f>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" si="22"/>
+        <f>(C263-H263+1+2*J263)/L263</f>
         <v>14</v>
       </c>
       <c r="T263" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.5649999999999999</v>
       </c>
       <c r="U263" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
         <v>3.6618422449888639</v>
       </c>
       <c r="V263" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
         <v>2.9151900141843976</v>
       </c>
       <c r="W263" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
         <v>2.9785637101449272</v>
       </c>
       <c r="X263" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="3"/>
+    <row r="264" spans="2:24">
       <c r="B264" s="3"/>
       <c r="C264" s="3">
         <v>14</v>
@@ -11475,35 +11483,34 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="R264" s="4">
-        <f t="shared" si="21"/>
+        <f>(D264-I264+1+2*K264)/M264</f>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f t="shared" si="22"/>
+        <f>(C264-H264+1+2*J264)/L264</f>
         <v>7</v>
       </c>
       <c r="T264" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.3290000000000002</v>
       </c>
       <c r="U264" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
         <v>2.2646930688705234</v>
       </c>
       <c r="V264" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
         <v>1.4680063999999997</v>
       </c>
       <c r="W264" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
         <v>2.0248364137931034</v>
       </c>
       <c r="X264" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="3"/>
+    <row r="265" spans="2:24">
       <c r="B265" s="3"/>
       <c r="C265" s="3">
         <v>7</v>
@@ -11548,35 +11555,34 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="R265" s="4">
-        <f t="shared" si="21"/>
+        <f>(D265-I265+1+2*K265)/M265</f>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f t="shared" si="22"/>
+        <f>(C265-H265+1+2*J265)/L265</f>
         <v>7</v>
       </c>
       <c r="T265" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>3.077</v>
       </c>
       <c r="U265" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
         <v>2.8522560740169625</v>
       </c>
       <c r="V265" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
         <v>3.4476944342963658</v>
       </c>
       <c r="W265" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
         <v>5.2324980594059411</v>
       </c>
       <c r="X265" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="3"/>
+    <row r="266" spans="2:24">
       <c r="B266" s="3"/>
       <c r="C266" s="3">
         <v>7</v>
@@ -11621,35 +11627,34 @@
         <v>0.68</v>
       </c>
       <c r="R266" s="4">
-        <f t="shared" si="21"/>
+        <f>(D266-I266+1+2*K266)/M266</f>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f t="shared" si="22"/>
+        <f>(C266-H266+1+2*J266)/L266</f>
         <v>7</v>
       </c>
       <c r="T266" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.9359999999999999</v>
       </c>
       <c r="U266" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
         <v>2.9785637101449272</v>
       </c>
       <c r="V266" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
         <v>2.3354647272727274</v>
       </c>
       <c r="W266" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
         <v>2.4178928941176472</v>
       </c>
       <c r="X266" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="3"/>
+    <row r="267" spans="2:24">
       <c r="B267" s="3"/>
       <c r="C267" s="3">
         <v>14</v>
@@ -11694,35 +11699,34 @@
         <v>1.6120000000000001</v>
       </c>
       <c r="R267" s="4">
-        <f t="shared" si="21"/>
+        <f>(D267-I267+1+2*K267)/M267</f>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f t="shared" si="22"/>
+        <f>(C267-H267+1+2*J267)/L267</f>
         <v>7</v>
       </c>
       <c r="T267" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>4.2759999999999998</v>
       </c>
       <c r="U267" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
         <v>3.1287672083729787</v>
       </c>
       <c r="V267" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
         <v>2.0386449696218225</v>
       </c>
       <c r="W267" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
         <v>2.0399096377171215</v>
       </c>
       <c r="X267" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="3"/>
+    <row r="268" spans="2:24">
       <c r="B268" s="3"/>
       <c r="C268" s="3">
         <v>7</v>
@@ -11767,34 +11771,34 @@
         <v>0.71199999999999997</v>
       </c>
       <c r="R268" s="4">
-        <f t="shared" si="21"/>
+        <f>(D268-I268+1+2*K268)/M268</f>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f t="shared" si="22"/>
+        <f>(C268-H268+1+2*J268)/L268</f>
         <v>7</v>
       </c>
       <c r="T268" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>1.9709999999999999</v>
       </c>
       <c r="U268" s="2">
-        <f t="shared" si="23"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
         <v>2.379402558610709</v>
       </c>
       <c r="V268" s="2">
-        <f t="shared" si="25"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
         <v>2.894660507042254</v>
       </c>
       <c r="W268" s="2">
-        <f t="shared" si="24"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
         <v>2.3092235505617977</v>
       </c>
       <c r="X268" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="2:24">
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -11802,9 +11806,9 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -11830,10 +11834,10 @@
         <v>13</v>
       </c>
       <c r="I278" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -11878,11 +11882,11 @@
         <v>9.9450000000000003</v>
       </c>
       <c r="I281" s="2">
-        <f t="shared" ref="I281:I291" si="26">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <f t="shared" ref="I281:I291" si="15">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
         <v>0.94089352818371608</v>
       </c>
       <c r="J281" s="2">
-        <f t="shared" ref="J281:J291" si="27">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
+        <f t="shared" ref="J281:J291" si="16">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
         <v>0.99699708396178977</v>
       </c>
     </row>
@@ -11903,11 +11907,11 @@
         <v>12.762</v>
       </c>
       <c r="I282" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>1.506745080161082</v>
       </c>
       <c r="J282" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>1.5538530010970066</v>
       </c>
     </row>
@@ -11928,11 +11932,11 @@
         <v>15.997</v>
       </c>
       <c r="I283" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.3886138279932543</v>
       </c>
       <c r="J283" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.4792488591610926</v>
       </c>
     </row>
@@ -11953,11 +11957,11 @@
         <v>8.2349999999999994</v>
       </c>
       <c r="I284" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>0.76811131708433456</v>
       </c>
       <c r="J284" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>0.81512140862173654</v>
       </c>
     </row>
@@ -11978,11 +11982,11 @@
         <v>8.8049999999999997</v>
       </c>
       <c r="I285" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>1.4589273636166049</v>
       </c>
       <c r="J285" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>1.5247075070982394</v>
       </c>
     </row>
@@ -12003,11 +12007,11 @@
         <v>11.754</v>
       </c>
       <c r="I286" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.1882721434392831</v>
       </c>
       <c r="J286" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.2843371788327378</v>
       </c>
     </row>
@@ -12028,11 +12032,11 @@
         <v>17.943000000000001</v>
       </c>
       <c r="I287" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.8082940278213573</v>
       </c>
       <c r="J287" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.9928216240316559</v>
       </c>
     </row>
@@ -12053,11 +12057,11 @@
         <v>12.574999999999999</v>
       </c>
       <c r="I288" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>0.81030734760101986</v>
       </c>
       <c r="J288" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>0.83402051689860834</v>
       </c>
     </row>
@@ -12078,11 +12082,11 @@
         <v>11.189</v>
       </c>
       <c r="I289" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>1.7619165056698867</v>
       </c>
       <c r="J289" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>1.87466404504424</v>
       </c>
     </row>
@@ -12103,11 +12107,11 @@
         <v>15.411</v>
       </c>
       <c r="I290" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>2.6561499303532989</v>
       </c>
       <c r="J290" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>2.722161572902472</v>
       </c>
     </row>
@@ -12128,11 +12132,11 @@
         <v>25.521999999999998</v>
       </c>
       <c r="I291" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="15"/>
         <v>3.2352303539754761</v>
       </c>
       <c r="J291" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="16"/>
         <v>3.2874564689287675</v>
       </c>
     </row>
@@ -12169,10 +12173,10 @@
         <v>7</v>
       </c>
       <c r="I295" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J295" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -12217,11 +12221,11 @@
         <v>3.173</v>
       </c>
       <c r="I297" s="2">
-        <f t="shared" ref="I297:J311" si="28">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <f t="shared" ref="I297:J311" si="17">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
         <v>0.4885619103086779</v>
       </c>
       <c r="J297" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.52874932240781591</v>
       </c>
     </row>
@@ -12242,11 +12246,11 @@
         <v>3.9420000000000002</v>
       </c>
       <c r="I298" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.96531737629459158</v>
       </c>
       <c r="J298" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.85120324708269912</v>
       </c>
     </row>
@@ -12267,11 +12271,11 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="I299" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>1.5925216896060748</v>
       </c>
       <c r="J299" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.94960894297438792</v>
       </c>
     </row>
@@ -12292,11 +12296,11 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="I300" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.61443750228895799</v>
       </c>
       <c r="J300" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.63489937559129617</v>
       </c>
     </row>
@@ -12317,11 +12321,11 @@
         <v>12.397</v>
       </c>
       <c r="I301" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>1.3171514033366045</v>
       </c>
       <c r="J301" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.54133148342340887</v>
       </c>
     </row>
@@ -12342,11 +12346,11 @@
         <v>14.587999999999999</v>
       </c>
       <c r="I302" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.1348453634483855</v>
       </c>
       <c r="J302" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.92005571702769406</v>
       </c>
     </row>
@@ -12367,11 +12371,11 @@
         <v>9.593</v>
       </c>
       <c r="I303" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.9524357237131542</v>
       </c>
       <c r="J303" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.798243052225581</v>
       </c>
     </row>
@@ -12392,11 +12396,11 @@
         <v>12.689</v>
       </c>
       <c r="I304" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.79872487502975487</v>
       </c>
       <c r="J304" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>1.0577486641973362</v>
       </c>
     </row>
@@ -12417,11 +12421,11 @@
         <v>11.444000000000001</v>
       </c>
       <c r="I305" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.3856688233202989</v>
       </c>
       <c r="J305" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.345643621111499</v>
       </c>
     </row>
@@ -12442,11 +12446,11 @@
         <v>16.218</v>
       </c>
       <c r="I306" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.261670182260024</v>
       </c>
       <c r="J306" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.3103398199531386</v>
       </c>
     </row>
@@ -12467,11 +12471,11 @@
         <v>30.824999999999999</v>
       </c>
       <c r="I307" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.4042732443486257</v>
       </c>
       <c r="J307" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.4833473609083541</v>
       </c>
     </row>
@@ -12492,11 +12496,11 @@
         <v>56.017000000000003</v>
       </c>
       <c r="I308" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.89110163324923652</v>
       </c>
       <c r="J308" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>0.95840711212667573</v>
       </c>
     </row>
@@ -12517,11 +12521,11 @@
         <v>38.359000000000002</v>
       </c>
       <c r="I309" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>1.023605620698202</v>
       </c>
       <c r="J309" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.7991913866367732</v>
       </c>
     </row>
@@ -12542,11 +12546,11 @@
         <v>56.636000000000003</v>
       </c>
       <c r="I310" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>2.0216367597081666</v>
       </c>
       <c r="J310" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.7917290204110454</v>
       </c>
     </row>
@@ -12567,11 +12571,11 @@
         <v>112.19199999999999</v>
       </c>
       <c r="I311" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.9506666936485302</v>
       </c>
       <c r="J311" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="17"/>
         <v>3.8282295493439826</v>
       </c>
     </row>
@@ -12592,11 +12596,11 @@
         <v>12.353999999999999</v>
       </c>
       <c r="I312" s="2">
-        <f t="shared" ref="I312:I317" si="29">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:I317" si="18">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.64127641212944875</v>
       </c>
       <c r="J312" s="2">
-        <f t="shared" ref="J312:J317" si="30">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
+        <f t="shared" ref="J312:J317" si="19">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
         <v>0.61111762991743568</v>
       </c>
     </row>
@@ -12617,11 +12621,11 @@
         <v>14.135999999999999</v>
       </c>
       <c r="I313" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>0.77832445360824754</v>
       </c>
       <c r="J313" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>1.0681589134125637</v>
       </c>
     </row>
@@ -12642,11 +12646,11 @@
         <v>16.105</v>
       </c>
       <c r="I314" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>2.1787020272707598</v>
       </c>
       <c r="J314" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>1.8751312511642346</v>
       </c>
     </row>
@@ -12667,11 +12671,11 @@
         <v>12.395</v>
       </c>
       <c r="I315" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>0.14498112685793293</v>
       </c>
       <c r="J315" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>0.1015160306575232</v>
       </c>
     </row>
@@ -12692,11 +12696,11 @@
         <v>12.340999999999999</v>
       </c>
       <c r="I316" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>0.28244471380471381</v>
       </c>
       <c r="J316" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>0.20392046025443644</v>
       </c>
     </row>
@@ -12717,11 +12721,11 @@
         <v>13.086</v>
       </c>
       <c r="I317" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="18"/>
         <v>0.43873472803347285</v>
       </c>
       <c r="J317" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>0.38462209995414948</v>
       </c>
     </row>
@@ -12735,10 +12739,10 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C320" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D320" t="s">
         <v>10</v>
@@ -12795,11 +12799,11 @@
         <v>391.86500000000001</v>
       </c>
       <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="31">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="20">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>2.7556614629461151</v>
       </c>
       <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="32">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="21">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>2.9140118765391141</v>
       </c>
     </row>
@@ -12820,11 +12824,11 @@
         <v>197.33500000000001</v>
       </c>
       <c r="I323" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.70311682187682</v>
       </c>
       <c r="J323" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.8933014011705982</v>
       </c>
     </row>
@@ -12845,11 +12849,11 @@
         <v>99.554000000000002</v>
       </c>
       <c r="I324" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.6653331257337043</v>
       </c>
       <c r="J324" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.8598906103622155</v>
       </c>
     </row>
@@ -12870,11 +12874,11 @@
         <v>529.28800000000001</v>
       </c>
       <c r="I325" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.8062127914621371</v>
       </c>
       <c r="J325" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.2822349118060488</v>
       </c>
     </row>
@@ -12895,11 +12899,11 @@
         <v>266.03199999999998</v>
       </c>
       <c r="I326" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.7662477889886827</v>
       </c>
       <c r="J326" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.2703275395441151</v>
       </c>
     </row>
@@ -12920,11 +12924,11 @@
         <v>134.517</v>
       </c>
       <c r="I327" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.7394851772560687</v>
       </c>
       <c r="J327" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.2449942237784071</v>
       </c>
     </row>
@@ -12945,11 +12949,11 @@
         <v>68.504000000000005</v>
       </c>
       <c r="I328" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.6292848680226979</v>
       </c>
       <c r="J328" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.1982992353147259</v>
       </c>
     </row>
@@ -12970,11 +12974,11 @@
         <v>369.03399999999999</v>
       </c>
       <c r="I329" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.193864876645454</v>
       </c>
       <c r="J329" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>1.8412321032750372</v>
       </c>
     </row>
@@ -12995,11 +12999,11 @@
         <v>185.78399999999999</v>
       </c>
       <c r="I330" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.1775325214716061</v>
       </c>
       <c r="J330" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>1.8286753649399301</v>
       </c>
     </row>
@@ -13020,11 +13024,11 @@
         <v>94.47</v>
       </c>
       <c r="I331" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.1424340631621432</v>
       </c>
       <c r="J331" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>1.7981296919657033</v>
       </c>
     </row>
@@ -13045,11 +13049,11 @@
         <v>48.908999999999999</v>
       </c>
       <c r="I332" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.0567222741708346</v>
       </c>
       <c r="J332" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>1.731954519290928</v>
       </c>
     </row>
@@ -13070,11 +13074,11 @@
         <v>695.00900000000001</v>
       </c>
       <c r="I333" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.6460445391522565</v>
       </c>
       <c r="J333" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.7157012355235688</v>
       </c>
     </row>
@@ -13095,11 +13099,11 @@
         <v>349.279</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.622598314255463</v>
       </c>
       <c r="J334" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.7019042083835556</v>
       </c>
     </row>
@@ -13120,11 +13124,11 @@
         <v>176.239</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.6051289978854615</v>
       </c>
       <c r="J335" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.6773824181934756</v>
       </c>
     </row>
@@ -13145,11 +13149,11 @@
         <v>89.552999999999997</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.5869132390773766</v>
       </c>
       <c r="J336" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>2.6274994070550401</v>
       </c>
     </row>
@@ -13170,11 +13174,11 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>0.39945752380952382</v>
       </c>
       <c r="J337" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>0.52428799999999998</v>
       </c>
     </row>
@@ -13195,11 +13199,11 @@
         <v>322.041</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>1.4885808617298677</v>
       </c>
       <c r="J338" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>0.93773739368589715</v>
       </c>
     </row>
@@ -13220,11 +13224,11 @@
         <v>514.49199999999996</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="20"/>
         <v>2.3504542521686003</v>
       </c>
       <c r="J339" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="21"/>
         <v>1.1739342419318475</v>
       </c>
     </row>
@@ -13248,16 +13252,16 @@
         <v>4</v>
       </c>
       <c r="G342" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I342" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J342" t="s">
         <v>3</v>
       </c>
       <c r="K342" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="344" spans="1:15">
@@ -13272,7 +13276,7 @@
       </c>
       <c r="H344" s="2"/>
       <c r="I344" s="2">
-        <f t="shared" ref="I344:I368" si="33">C344*4*D344/(G344/1000)/10^9</f>
+        <f t="shared" ref="I344:I368" si="22">C344*4*D344/(G344/1000)/10^9</f>
         <v>11.55067860236789</v>
       </c>
       <c r="J344" t="s">
@@ -13296,7 +13300,7 @@
       </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>14.267879436418761</v>
       </c>
       <c r="J345" t="s">
@@ -13320,7 +13324,7 @@
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>11.474469305794607</v>
       </c>
       <c r="J346" t="s">
@@ -13346,7 +13350,7 @@
         <v>0.53879115384599996</v>
       </c>
       <c r="I347" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>11.878442981692457</v>
       </c>
       <c r="J347" t="s">
@@ -13370,7 +13374,7 @@
         <v>0.73525240000000003</v>
       </c>
       <c r="I348" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>17.408987716327072</v>
       </c>
       <c r="J348" t="s">
@@ -13392,7 +13396,7 @@
       </c>
       <c r="H349" s="2"/>
       <c r="I349" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>20.562590238478517</v>
       </c>
       <c r="J349" t="s">
@@ -13417,7 +13421,7 @@
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>24.127194306243855</v>
       </c>
       <c r="J350" t="s">
@@ -13442,7 +13446,7 @@
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>23.206146901967031</v>
       </c>
       <c r="J351" t="s">
@@ -13468,7 +13472,7 @@
         <v>27.527460769200001</v>
       </c>
       <c r="I352" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>7.201768505354277</v>
       </c>
       <c r="J352" t="s">
@@ -13492,7 +13496,7 @@
         <v>29.464853000000002</v>
       </c>
       <c r="I353" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>13.456466251503103</v>
       </c>
       <c r="J353" t="s">
@@ -13514,7 +13518,7 @@
       </c>
       <c r="H354" s="2"/>
       <c r="I354" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>20.786777514836889</v>
       </c>
       <c r="J354" t="s">
@@ -13539,7 +13543,7 @@
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>24.302478452958642</v>
       </c>
       <c r="J355" t="s">
@@ -13564,7 +13568,7 @@
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>23.348629362503086</v>
       </c>
       <c r="J356" t="s">
@@ -13590,7 +13594,7 @@
         <v>34.004162884599999</v>
       </c>
       <c r="I357" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>7.8941939229908398</v>
       </c>
       <c r="J357" t="s">
@@ -13615,7 +13619,7 @@
         <v>37.550554400000003</v>
       </c>
       <c r="I358" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>14.297283237980633</v>
       </c>
       <c r="J358" t="s">
@@ -13638,7 +13642,7 @@
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>20.911128660428684</v>
       </c>
       <c r="J359" t="s">
@@ -13663,7 +13667,7 @@
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>24.459207285213107</v>
       </c>
       <c r="J360" t="s">
@@ -13688,7 +13692,7 @@
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>23.255178531825237</v>
       </c>
       <c r="J361" t="s">
@@ -13714,7 +13718,7 @@
         <v>47.726722352899998</v>
       </c>
       <c r="I362" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>8.7881668659049303</v>
       </c>
       <c r="J362" t="s">
@@ -13738,7 +13742,7 @@
         <v>55.967877399999999</v>
       </c>
       <c r="I363" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>14.988254673385203</v>
       </c>
       <c r="J363" t="s">
@@ -13750,7 +13754,7 @@
     </row>
     <row r="364" spans="3:15">
       <c r="C364">
-        <f t="shared" ref="C364:C366" si="34">4096*4096</f>
+        <f t="shared" ref="C364:C366" si="23">4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D364">
@@ -13761,7 +13765,7 @@
       </c>
       <c r="H364" s="2"/>
       <c r="I364" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>21.099767021427109</v>
       </c>
       <c r="J364" t="s">
@@ -13775,7 +13779,7 @@
     </row>
     <row r="365" spans="3:15">
       <c r="C365">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>16777216</v>
       </c>
       <c r="D365">
@@ -13786,7 +13790,7 @@
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>24.532711383904498</v>
       </c>
       <c r="J365" t="s">
@@ -13800,7 +13804,7 @@
     </row>
     <row r="366" spans="3:15">
       <c r="C366">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>16777216</v>
       </c>
       <c r="D366">
@@ -13811,7 +13815,7 @@
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>23.335679574936407</v>
       </c>
       <c r="J366" t="s">
@@ -13838,7 +13842,7 @@
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>9.1044242362871834</v>
       </c>
       <c r="J367" t="s">
@@ -13864,7 +13868,7 @@
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="22"/>
         <v>16.719425228325989</v>
       </c>
       <c r="J368" t="s">
@@ -13917,39 +13921,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -13957,15 +13961,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8">
         <v>352.99</v>
@@ -13973,42 +13977,42 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_M40.xlsx
+++ b/results/train/DeepBench_NV_M40.xlsx
@@ -790,7 +790,7 @@
   <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5055,27 +5055,27 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="2">
         <f>N175+P175</f>
         <v>0.59299999999999997</v>
       </c>
       <c r="U175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>3.0547714285714287</v>
+        <f t="shared" ref="U175:U206" si="9">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
+        <v>3.0787428571428572</v>
       </c>
       <c r="V175" s="10" t="s">
         <v>74</v>
       </c>
       <c r="W175" s="2">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>1.854386991869919</v>
+        <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
+        <v>1.8689387533875339</v>
       </c>
       <c r="X175" s="3" t="s">
         <v>16</v>
@@ -5127,27 +5127,27 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="R176" s="4">
-        <f>(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="11">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="4">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="12">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="2">
         <f>N176+P176</f>
         <v>1.1079999999999999</v>
       </c>
       <c r="U176" s="2">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
-        <v>3.2584228571428575</v>
+        <f t="shared" si="9"/>
+        <v>3.2839923809523812</v>
       </c>
       <c r="V176" s="10" t="s">
         <v>74</v>
       </c>
       <c r="W176" s="2">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
-        <v>1.9891534883720932</v>
+        <f t="shared" si="10"/>
+        <v>2.0047627906976744</v>
       </c>
       <c r="X176" s="3" t="s">
         <v>16</v>
@@ -5199,27 +5199,27 @@
         <v>1.329</v>
       </c>
       <c r="R177" s="4">
-        <f>(D177-I177+1+2*K177)/M177</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S177" s="4">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T177" s="2">
         <f>N177+P177</f>
         <v>2.1440000000000001</v>
       </c>
       <c r="U177" s="2">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
-        <v>3.3583744785276073</v>
+        <f t="shared" si="9"/>
+        <v>3.3847283435582822</v>
       </c>
       <c r="V177" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W177" s="2">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
-        <v>2.0594997742663659</v>
+        <f t="shared" si="10"/>
+        <v>2.0756610985703539</v>
       </c>
       <c r="X177" s="3" t="s">
         <v>16</v>
@@ -5271,27 +5271,27 @@
         <v>2.8780000000000001</v>
       </c>
       <c r="R178" s="4">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S178" s="4">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T178" s="2">
         <f>N178+P178</f>
         <v>4.4850000000000003</v>
       </c>
       <c r="U178" s="2">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
-        <v>3.4064408214063473</v>
+        <f t="shared" si="9"/>
+        <v>3.4331718730553829</v>
       </c>
       <c r="V178" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W178" s="2">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
-        <v>1.9020675469075747</v>
+        <f t="shared" si="10"/>
+        <v>1.9169934676858931</v>
       </c>
       <c r="X178" s="3" t="s">
         <v>16</v>
@@ -5343,28 +5343,28 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="R179" s="4">
-        <f>(D179-I179+1+2*K179)/M179</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S179" s="4">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T179" s="2">
         <f>N179+O179+P179</f>
         <v>4.9300000000000006</v>
       </c>
       <c r="U179" s="2">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
-        <v>3.2605626598465474</v>
+        <f t="shared" si="9"/>
+        <v>3.304036828644501</v>
       </c>
       <c r="V179" s="2">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>0.7622600896860986</v>
+        <v>0.77242355754857994</v>
       </c>
       <c r="W179" s="2">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
-        <v>3.1752926525529266</v>
+        <f t="shared" si="10"/>
+        <v>3.2176298879202987</v>
       </c>
       <c r="X179" s="3" t="s">
         <v>16</v>
@@ -5416,28 +5416,28 @@
         <v>1.556</v>
       </c>
       <c r="R180" s="4">
-        <f>(D180-I180+1+2*K180)/M180</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S180" s="4">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T180" s="2">
-        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="13">N180+O180+P180</f>
         <v>9.6720000000000006</v>
       </c>
       <c r="U180" s="2">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
-        <v>3.461995926680244</v>
+        <f t="shared" si="9"/>
+        <v>3.508155872369314</v>
       </c>
       <c r="V180" s="2">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>0.7676531687490592</v>
+        <v>0.77788854433237997</v>
       </c>
       <c r="W180" s="2">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
-        <v>3.2773264781491003</v>
+        <f t="shared" si="10"/>
+        <v>3.3210241645244212</v>
       </c>
       <c r="X180" s="3" t="s">
         <v>16</v>
@@ -5489,28 +5489,28 @@
         <v>3.0190000000000001</v>
       </c>
       <c r="R181" s="4">
-        <f>(D181-I181+1+2*K181)/M181</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S181" s="4">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T181" s="2">
+        <f t="shared" si="13"/>
+        <v>18.887</v>
+      </c>
+      <c r="U181" s="2">
         <f t="shared" si="9"/>
-        <v>18.887</v>
-      </c>
-      <c r="U181" s="2">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
-        <v>3.8070324748040312</v>
+        <v>3.8577929078014184</v>
       </c>
       <c r="V181" s="2">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>0.77329896125559183</v>
+        <v>0.78360961407233298</v>
       </c>
       <c r="W181" s="2">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
-        <v>3.378284200066247</v>
+        <f t="shared" si="10"/>
+        <v>3.4233279894004638</v>
       </c>
       <c r="X181" s="3" t="s">
         <v>16</v>
@@ -5562,28 +5562,28 @@
         <v>5.9729999999999999</v>
       </c>
       <c r="R182" s="4">
-        <f>(D182-I182+1+2*K182)/M182</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S182" s="4">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T182" s="2">
+        <f t="shared" si="13"/>
+        <v>37.420999999999999</v>
+      </c>
+      <c r="U182" s="2">
         <f t="shared" si="9"/>
-        <v>37.420999999999999</v>
-      </c>
-      <c r="U182" s="2">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
-        <v>3.9638709677419359</v>
+        <v>4.0167225806451619</v>
       </c>
       <c r="V182" s="2">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>0.7755334195118242</v>
+        <v>0.78587386510531521</v>
       </c>
       <c r="W182" s="2">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
-        <v>3.415047714716223</v>
+        <f t="shared" si="10"/>
+        <v>3.4605816842457724</v>
       </c>
       <c r="X182" s="3" t="s">
         <v>16</v>
@@ -5635,26 +5635,26 @@
         <v>0.8</v>
       </c>
       <c r="R183" s="4">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="S183" s="4">
+        <f t="shared" si="12"/>
         <v>48</v>
-      </c>
-      <c r="S183" s="4">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>480</v>
       </c>
       <c r="T183" s="2">
         <f>N183+P183</f>
         <v>1.0470000000000002</v>
       </c>
       <c r="U183" s="2">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.42983125506072878</v>
       </c>
       <c r="V183" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W183" s="2">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.13271040000000001</v>
       </c>
       <c r="X183" s="3" t="s">
@@ -5707,19 +5707,19 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="R184" s="4">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="S184" s="4">
+        <f t="shared" si="12"/>
         <v>24</v>
-      </c>
-      <c r="S184" s="4">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>240</v>
       </c>
       <c r="T184" s="2">
         <f>N184+O184+P184</f>
         <v>1.554</v>
       </c>
       <c r="U184" s="2">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.8791408813559327</v>
       </c>
       <c r="V184" s="2">
@@ -5727,7 +5727,7 @@
         <v>2.6377222360248447</v>
       </c>
       <c r="W184" s="2">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.90645310565635007</v>
       </c>
       <c r="X184" s="3" t="s">
@@ -5780,19 +5780,19 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="R185" s="4">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="S185" s="4">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="S185" s="4">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>120</v>
-      </c>
       <c r="T185" s="2">
-        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="14">N185+O185+P185</f>
         <v>0.99299999999999999</v>
       </c>
       <c r="U185" s="2">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.3177599999999998</v>
       </c>
       <c r="V185" s="2">
@@ -5800,7 +5800,7 @@
         <v>5.3418022641509424</v>
       </c>
       <c r="W185" s="2">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.4694577162629758</v>
       </c>
       <c r="X185" s="3" t="s">
@@ -5853,19 +5853,19 @@
         <v>0.377</v>
       </c>
       <c r="R186" s="4">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="S186" s="4">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="S186" s="4">
-        <f>(C186-H186+1+2*J186)/L186</f>
-        <v>60</v>
-      </c>
       <c r="T186" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.69100000000000006</v>
       </c>
       <c r="U186" s="2">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.9961562352941176</v>
       </c>
       <c r="V186" s="2">
@@ -5873,7 +5873,7 @@
         <v>5.8982400000000013</v>
       </c>
       <c r="W186" s="2">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.2529086472148538</v>
       </c>
       <c r="X186" s="3" t="s">
@@ -5926,11 +5926,11 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T187" s="2">
@@ -5938,14 +5938,14 @@
         <v>0.252</v>
       </c>
       <c r="U187" s="2">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.1355150422535212</v>
       </c>
       <c r="V187" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W187" s="2">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.44542302762430946</v>
       </c>
       <c r="X187" s="3" t="s">
@@ -5998,11 +5998,11 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="R188" s="4">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T188" s="2">
@@ -6010,7 +6010,7 @@
         <v>1.3260000000000001</v>
       </c>
       <c r="U188" s="2">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>4.7121281753424658</v>
       </c>
       <c r="V188" s="2">
@@ -6018,7 +6018,7 @@
         <v>4.686449002724796</v>
       </c>
       <c r="W188" s="2">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.8954996363636361</v>
       </c>
       <c r="X188" s="3" t="s">
@@ -6071,19 +6071,19 @@
         <v>0.53</v>
       </c>
       <c r="R189" s="4">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="T189" s="2">
-        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="15">N189+O189+P189</f>
         <v>1.1499999999999999</v>
       </c>
       <c r="U189" s="2">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.5481509161290319</v>
       </c>
       <c r="V189" s="2">
@@ -6091,7 +6091,7 @@
         <v>5.5481509161290319</v>
       </c>
       <c r="W189" s="2">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.2451448754716981</v>
       </c>
       <c r="X189" s="3" t="s">
@@ -6144,19 +6144,19 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="R190" s="4">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.70700000000000007</v>
       </c>
       <c r="U190" s="2">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.2251075254237298</v>
       </c>
       <c r="V190" s="2">
@@ -6164,7 +6164,7 @@
         <v>4.7427899076923072</v>
       </c>
       <c r="W190" s="2">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.7607284537313435</v>
       </c>
       <c r="X190" s="3" t="s">
@@ -6217,19 +6217,19 @@
         <v>0.47399999999999998</v>
       </c>
       <c r="R191" s="4">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.274</v>
       </c>
       <c r="U191" s="2">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.2835655111111111</v>
       </c>
       <c r="V191" s="2">
@@ -6237,7 +6237,7 @@
         <v>2.3413772962025319</v>
       </c>
       <c r="W191" s="2">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.951147746835443</v>
       </c>
       <c r="X191" s="3" t="s">
@@ -6290,11 +6290,11 @@
         <v>1.651</v>
       </c>
       <c r="R192" s="4">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T192" s="2">
@@ -6302,14 +6302,14 @@
         <v>2.427</v>
       </c>
       <c r="U192" s="2">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.7877139793814434</v>
       </c>
       <c r="V192" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W192" s="2">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.84025805451241664</v>
       </c>
       <c r="X192" s="3" t="s">
@@ -6362,11 +6362,11 @@
         <v>3.9039999999999999</v>
       </c>
       <c r="R193" s="4">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T193" s="2">
@@ -6374,7 +6374,7 @@
         <v>7.7649999999999997</v>
       </c>
       <c r="U193" s="2">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.3363929162121977</v>
       </c>
       <c r="V193" s="2">
@@ -6382,7 +6382,7 @@
         <v>8.0246770672451184</v>
       </c>
       <c r="W193" s="2">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.7903443934426231</v>
       </c>
       <c r="X193" s="3" t="s">
@@ -6436,19 +6436,19 @@
         <v>3.57</v>
       </c>
       <c r="R194" s="4">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T194" s="2">
-        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="16">N194+O194+P194</f>
         <v>12.912000000000001</v>
       </c>
       <c r="U194" s="2">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.0075301196581194</v>
       </c>
       <c r="V194" s="2">
@@ -6456,7 +6456,7 @@
         <v>7.5076126392694063</v>
       </c>
       <c r="W194" s="2">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.1449592470588241</v>
       </c>
       <c r="X194" s="3" t="s">
@@ -6510,19 +6510,19 @@
         <v>3.8170000000000002</v>
       </c>
       <c r="R195" s="4">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T195" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.9279999999999999</v>
       </c>
       <c r="U195" s="2">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.0030783303360158</v>
       </c>
       <c r="V195" s="2">
@@ -6530,7 +6530,7 @@
         <v>7.4061584144144144</v>
       </c>
       <c r="W195" s="2">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.8767368383547289</v>
       </c>
       <c r="X195" s="3" t="s">
@@ -6583,19 +6583,19 @@
         <v>2.3079999999999998</v>
       </c>
       <c r="R196" s="4">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T196" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.6189999999999998</v>
       </c>
       <c r="U196" s="2">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.2914560000000002</v>
       </c>
       <c r="V196" s="2">
@@ -6603,7 +6603,7 @@
         <v>6.5187244546255512</v>
       </c>
       <c r="W196" s="2">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.2056985511265172</v>
       </c>
       <c r="X196" s="3" t="s">
@@ -6656,19 +6656,19 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="R197" s="4">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T197" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.3639999999999999</v>
       </c>
       <c r="U197" s="2">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.4338000842105263</v>
       </c>
       <c r="V197" s="2">
@@ -6676,7 +6676,7 @@
         <v>2.5654480776699029</v>
       </c>
       <c r="W197" s="2">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.0947769694224236</v>
       </c>
       <c r="X197" s="3" t="s">
@@ -6729,11 +6729,11 @@
         <v>3.2090000000000001</v>
       </c>
       <c r="R198" s="4">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T198" s="2">
@@ -6741,14 +6741,14 @@
         <v>4.734</v>
       </c>
       <c r="U198" s="2">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.8193653088524593</v>
       </c>
       <c r="V198" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W198" s="2">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.86460956559675917</v>
       </c>
       <c r="X198" s="3" t="s">
@@ -6801,11 +6801,11 @@
         <v>7.6189999999999998</v>
       </c>
       <c r="R199" s="4">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T199" s="2">
@@ -6813,7 +6813,7 @@
         <v>15.257999999999999</v>
       </c>
       <c r="U199" s="2">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.3858270586473678</v>
       </c>
       <c r="V199" s="2">
@@ -6821,7 +6821,7 @@
         <v>8.1484055682819374</v>
       </c>
       <c r="W199" s="2">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.8843692117075732</v>
       </c>
       <c r="X199" s="3" t="s">
@@ -6875,19 +6875,19 @@
         <v>6.81</v>
       </c>
       <c r="R200" s="4">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T200" s="2">
-        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="17">N200+O200+P200</f>
         <v>30.224</v>
       </c>
       <c r="U200" s="2">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.5772889509710004</v>
       </c>
       <c r="V200" s="2">
@@ -6895,7 +6895,7 @@
         <v>2.4805137058083986</v>
       </c>
       <c r="W200" s="2">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.3458163030837014</v>
       </c>
       <c r="X200" s="3" t="s">
@@ -6949,19 +6949,19 @@
         <v>7.1390000000000002</v>
       </c>
       <c r="R201" s="4">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T201" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15.143000000000001</v>
       </c>
       <c r="U201" s="2">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.0750678995935932</v>
       </c>
       <c r="V201" s="2">
@@ -6969,7 +6969,7 @@
         <v>7.7453569808950533</v>
       </c>
       <c r="W201" s="2">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.145539854881636</v>
       </c>
       <c r="X201" s="3" t="s">
@@ -7022,19 +7022,19 @@
         <v>3.8460000000000001</v>
       </c>
       <c r="R202" s="4">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T202" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.0920000000000005</v>
       </c>
       <c r="U202" s="2">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.8986035020979015</v>
       </c>
       <c r="V202" s="2">
@@ -7042,7 +7042,7 @@
         <v>7.0430768738695857</v>
       </c>
       <c r="W202" s="2">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.847505073322933</v>
       </c>
       <c r="X202" s="3" t="s">
@@ -7095,19 +7095,19 @@
         <v>2.7909999999999999</v>
       </c>
       <c r="R203" s="4">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T203" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5.3040000000000003</v>
       </c>
       <c r="U203" s="2">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.9037489230769236</v>
       </c>
       <c r="V203" s="2">
@@ -7115,7 +7115,7 @@
         <v>2.9857757288135591</v>
       </c>
       <c r="W203" s="2">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.3254661870297386</v>
       </c>
       <c r="X203" s="3" t="s">
@@ -7168,11 +7168,11 @@
         <v>2.4</v>
       </c>
       <c r="R204" s="4">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T204" s="2">
@@ -7180,14 +7180,14 @@
         <v>3.4820000000000002</v>
       </c>
       <c r="U204" s="2">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.4902462698706098</v>
       </c>
       <c r="V204" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W204" s="2">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.5735193600000001</v>
       </c>
       <c r="X204" s="3" t="s">
@@ -7240,11 +7240,11 @@
         <v>1.256</v>
       </c>
       <c r="R205" s="4">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T205" s="2">
@@ -7252,15 +7252,15 @@
         <v>3.2309999999999999</v>
       </c>
       <c r="U205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.0656458233890218</v>
       </c>
       <c r="V205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
+        <f t="shared" ref="V205:V228" si="18">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>5.3670150417827296</v>
       </c>
       <c r="W205" s="2">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.0680866242038216</v>
       </c>
       <c r="X205" s="3" t="s">
@@ -7313,27 +7313,27 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="R206" s="4">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T206" s="2">
-        <f t="shared" ref="T206:T268" si="14">N206+O206+P206</f>
+        <f t="shared" ref="T206:T268" si="19">N206+O206+P206</f>
         <v>0.51200000000000001</v>
       </c>
       <c r="U206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.2502287883211674</v>
       </c>
       <c r="V206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.0552089600000003</v>
       </c>
       <c r="W206" s="2">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.3701393066666667</v>
       </c>
       <c r="X206" s="3" t="s">
@@ -7386,27 +7386,27 @@
         <v>2.1280000000000001</v>
       </c>
       <c r="R207" s="4">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T207" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>7.4009999999999998</v>
       </c>
       <c r="U207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="U207:U238" si="20">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>1.2034718301061835</v>
       </c>
       <c r="V207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.8607034282955091</v>
       </c>
       <c r="W207" s="2">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
+        <f t="shared" ref="W207:W238" si="21">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>1.8108631578947367</v>
       </c>
       <c r="X207" s="3" t="s">
@@ -7459,27 +7459,27 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="R208" s="4">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T208" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.76</v>
       </c>
       <c r="U208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.854456888888889</v>
       </c>
       <c r="V208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.8677334325581398</v>
       </c>
       <c r="W208" s="2">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.8740507234042552</v>
       </c>
       <c r="X208" s="3" t="s">
@@ -7532,27 +7532,27 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="R209" s="4">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T209" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.59399999999999997</v>
       </c>
       <c r="U209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.7394346666666665</v>
       </c>
       <c r="V209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.9530494502923974</v>
       </c>
       <c r="W209" s="2">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.4457638787878786</v>
       </c>
       <c r="X209" s="3" t="s">
@@ -7605,27 +7605,27 @@
         <v>1.4430000000000001</v>
       </c>
       <c r="R210" s="4">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T210" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="U210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.0055026637868969</v>
       </c>
       <c r="V210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.9255734317343172</v>
       </c>
       <c r="W210" s="2">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.8930306306306304</v>
       </c>
       <c r="X210" s="3" t="s">
@@ -7678,27 +7678,27 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="R211" s="4">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T211" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2629999999999999</v>
       </c>
       <c r="U211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.7265884334365325</v>
       </c>
       <c r="V211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.7265884334365325</v>
       </c>
       <c r="W211" s="2">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.9978736855753643</v>
       </c>
       <c r="X211" t="s">
@@ -7749,27 +7749,27 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="R212" s="4">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T212" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.45600000000000002</v>
       </c>
       <c r="U212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.9761624615384616</v>
       </c>
       <c r="V212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.2018765847953214</v>
       </c>
       <c r="W212" s="2">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.1354745635359116</v>
       </c>
       <c r="X212" t="s">
@@ -7820,27 +7820,27 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="R213" s="4">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T213" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.256</v>
       </c>
       <c r="U213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.0054807272727277</v>
       </c>
       <c r="V213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.0250425537459291</v>
       </c>
       <c r="W213" s="2">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.8856288049921996</v>
       </c>
       <c r="X213" t="s">
@@ -7892,27 +7892,27 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="R214" s="4">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T214" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.48199999999999998</v>
       </c>
       <c r="U214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.0552089599999999</v>
       </c>
       <c r="V214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>0.86717677637130808</v>
       </c>
       <c r="W214" s="2">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.4173854896551723</v>
       </c>
       <c r="X214" t="s">
@@ -7963,27 +7963,27 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="R215" s="4">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T215" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.377</v>
       </c>
       <c r="U215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.8187689911504423</v>
       </c>
       <c r="V215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.6709015934959348</v>
       </c>
       <c r="W215" s="2">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.4575950070921988</v>
       </c>
       <c r="X215" t="s">
@@ -8034,27 +8034,27 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="R216" s="4">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T216" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.095</v>
       </c>
       <c r="U216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>5.8166291320754704</v>
       </c>
       <c r="V216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.8720255999999997</v>
       </c>
       <c r="W216" s="2">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.0036538181818182</v>
       </c>
       <c r="X216" t="s">
@@ -8106,27 +8106,27 @@
         <v>0.159</v>
       </c>
       <c r="R217" s="4">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T217" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.48</v>
       </c>
       <c r="U217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.7417025084745763</v>
       </c>
       <c r="V217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.0124182068965517</v>
       </c>
       <c r="W217" s="2">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.2925842515723269</v>
       </c>
       <c r="X217" t="s">
@@ -8178,27 +8178,27 @@
         <v>0.14699999999999999</v>
       </c>
       <c r="R218" s="4">
-        <f>(D218-I218+1+2*K218)/M218</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f>(C218-H218+1+2*J218)/L218</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T218" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.38700000000000001</v>
       </c>
       <c r="U218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.7717318620689655</v>
       </c>
       <c r="V218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.6574265806451611</v>
       </c>
       <c r="W218" s="2">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.3981013333333334</v>
       </c>
       <c r="X218" t="s">
@@ -8250,28 +8250,28 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="R219" s="4">
-        <f>(D219-I219+1+2*K219)/M219</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S219" s="4">
-        <f>(C219-H219+1+2*J219)/L219</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T219" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3879999999999999</v>
       </c>
       <c r="U219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
-        <v>1.6877080380952383</v>
+        <f t="shared" si="20"/>
+        <v>1.9573418666666667</v>
       </c>
       <c r="V219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
-        <v>1.45551822587269</v>
+        <f t="shared" si="18"/>
+        <v>1.6880566406570843</v>
       </c>
       <c r="W219" s="2">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
-        <v>1.4736743783783783</v>
+        <f t="shared" si="21"/>
+        <v>1.7091134802494803</v>
       </c>
       <c r="X219" t="s">
         <v>16</v>
@@ -8321,27 +8321,27 @@
         <v>1.143</v>
       </c>
       <c r="R220" s="4">
-        <f>(D220-I220+1+2*K220)/M220</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f>(C220-H220+1+2*J220)/L220</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T220" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.351</v>
       </c>
       <c r="U220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.1247949139072855</v>
       </c>
       <c r="V220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.1247949139072855</v>
       </c>
       <c r="W220" s="2">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.236549543307087</v>
       </c>
       <c r="X220" t="s">
@@ -8392,27 +8392,27 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="R221" s="4">
-        <f>(D221-I221+1+2*K221)/M221</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f>(C221-H221+1+2*J221)/L221</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T221" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="U221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.4178928941176472</v>
       </c>
       <c r="V221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.0512577800511509</v>
       </c>
       <c r="W221" s="2">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.2125126607669616</v>
       </c>
       <c r="X221" t="s">
@@ -8463,27 +8463,27 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="R222" s="4">
-        <f>(D222-I222+1+2*K222)/M222</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f>(C222-H222+1+2*J222)/L222</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T222" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.0750000000000002</v>
       </c>
       <c r="U222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.6535541870503581</v>
       </c>
       <c r="V222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.6535541870503581</v>
       </c>
       <c r="W222" s="2">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.8415120747663551</v>
       </c>
       <c r="X222" t="s">
@@ -8534,27 +8534,27 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="R223" s="4">
-        <f>(D223-I223+1+2*K223)/M223</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f>(C223-H223+1+2*J223)/L223</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T223" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.68599999999999994</v>
       </c>
       <c r="U223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.6348832820512822</v>
       </c>
       <c r="V223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.3839790976430977</v>
       </c>
       <c r="W223" s="2">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.764127862660944</v>
       </c>
       <c r="X223" t="s">
@@ -8606,27 +8606,27 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="R224" s="4">
-        <f>(D224-I224+1+2*K224)/M224</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f>(C224-H224+1+2*J224)/L224</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T224" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.54199999999999993</v>
       </c>
       <c r="U224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.553054608695652</v>
       </c>
       <c r="V224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.3897778604651165</v>
       </c>
       <c r="W224" s="2">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.9667071387559809</v>
       </c>
       <c r="X224" t="s">
@@ -8677,27 +8677,27 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="R225" s="4">
-        <f>(D225-I225+1+2*K225)/M225</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f>(C225-H225+1+2*J225)/L225</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T225" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.8879999999999999</v>
       </c>
       <c r="U225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.4787672994746055</v>
       </c>
       <c r="V225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>5.7089137777777772</v>
       </c>
       <c r="W225" s="2">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.5297102062780272</v>
       </c>
       <c r="X225" t="s">
@@ -8748,27 +8748,27 @@
         <v>0.217</v>
       </c>
       <c r="R226" s="4">
-        <f>(D226-I226+1+2*K226)/M226</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f>(C226-H226+1+2*J226)/L226</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T226" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.65400000000000003</v>
       </c>
       <c r="U226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.3897778604651165</v>
       </c>
       <c r="V226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.5511011018867924</v>
       </c>
       <c r="W226" s="2">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.8942018064516131</v>
       </c>
       <c r="X226" t="s">
@@ -8820,27 +8820,27 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="R227" s="4">
-        <f>(D227-I227+1+2*K227)/M227</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f>(C227-H227+1+2*J227)/L227</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T227" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.61199999999999999</v>
       </c>
       <c r="U227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.0759686464646463</v>
       </c>
       <c r="V227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.9857091400966185</v>
       </c>
       <c r="W227" s="2">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.9857091400966185</v>
       </c>
       <c r="X227" t="s">
@@ -8892,28 +8892,28 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="R228" s="4">
-        <f>(D228-I228+1+2*K228)/M228</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S228" s="4">
-        <f>(C228-H228+1+2*J228)/L228</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T228" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.4749999999999996</v>
       </c>
       <c r="U228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
-        <v>2.0486629364161852</v>
+        <f t="shared" si="20"/>
+        <v>2.3759641156069367</v>
       </c>
       <c r="V228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
-        <v>1.5510664682713347</v>
+        <f t="shared" si="18"/>
+        <v>1.7988699868708973</v>
       </c>
       <c r="W228" s="2">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
-        <v>1.6313863659378596</v>
+        <f t="shared" si="21"/>
+        <v>1.8920220575373994</v>
       </c>
       <c r="X228" t="s">
         <v>16</v>
@@ -8964,27 +8964,27 @@
         <v>1.845</v>
       </c>
       <c r="R229" s="4">
-        <f>(D229-I229+1+2*K229)/M229</f>
-        <v>79.5</v>
+        <f t="shared" si="11"/>
+        <v>349</v>
       </c>
       <c r="S229" s="4">
-        <f>(C229-H229+1+2*J229)/L229</f>
-        <v>349</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="T229" s="2">
         <f>N229+P229</f>
         <v>2.589</v>
       </c>
       <c r="U229" s="2">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
-        <v>1.909367741935484</v>
+        <f t="shared" si="20"/>
+        <v>1.9213763440860214</v>
       </c>
       <c r="V229" s="2" t="s">
         <v>74</v>
       </c>
       <c r="W229" s="2">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
-        <v>0.76995642276422771</v>
+        <f t="shared" si="21"/>
+        <v>0.77479891598915995</v>
       </c>
       <c r="X229" t="s">
         <v>16</v>
@@ -9035,27 +9035,27 @@
         <v>10.943</v>
       </c>
       <c r="R230" s="4">
-        <f>(D230-I230+1+2*K230)/M230</f>
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="S230" s="4">
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="S230" s="4">
-        <f>(C230-H230+1+2*J230)/L230</f>
-        <v>350</v>
-      </c>
       <c r="T230" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>20.084</v>
       </c>
       <c r="U230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.2276026258205688</v>
       </c>
       <c r="V230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
+        <f t="shared" ref="V230:V268" si="22">(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>7.2260214395099549</v>
       </c>
       <c r="W230" s="2">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.0183810655213379</v>
       </c>
       <c r="X230" t="s">
@@ -9107,27 +9107,27 @@
         <v>10.643000000000001</v>
       </c>
       <c r="R231" s="4">
-        <f>(D231-I231+1+2*K231)/M231</f>
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="S231" s="4">
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="S231" s="4">
-        <f>(C231-H231+1+2*J231)/L231</f>
-        <v>174</v>
-      </c>
       <c r="T231" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>42.811</v>
       </c>
       <c r="U231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.5426690091930544</v>
       </c>
       <c r="V231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.9873415676110466</v>
       </c>
       <c r="W231" s="2">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.1785896457765661</v>
       </c>
       <c r="X231" t="s">
@@ -9179,27 +9179,27 @@
         <v>7.8230000000000004</v>
       </c>
       <c r="R232" s="4">
-        <f>(D232-I232+1+2*K232)/M232</f>
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="S232" s="4">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="S232" s="4">
-        <f>(C232-H232+1+2*J232)/L232</f>
-        <v>175</v>
-      </c>
       <c r="T232" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>15.591000000000001</v>
       </c>
       <c r="U232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.4779630390143748</v>
       </c>
       <c r="V232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>8.5305123966942151</v>
       </c>
       <c r="W232" s="2">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.222183816950019</v>
       </c>
       <c r="X232" t="s">
@@ -9251,28 +9251,28 @@
         <v>10.029</v>
       </c>
       <c r="R233" s="4">
-        <f>(D233-I233+1+2*K233)/M233</f>
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="S233" s="4">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="S233" s="4">
-        <f>(C233-H233+1+2*J233)/L233</f>
-        <v>86.5</v>
-      </c>
       <c r="T233" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>36.918000000000006</v>
       </c>
       <c r="U233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
-        <v>4.4392958681092214</v>
+        <f t="shared" si="20"/>
+        <v>4.4649565378670788</v>
       </c>
       <c r="V233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
-        <v>2.507179143389199</v>
+        <f t="shared" si="22"/>
+        <v>2.5216715083798884</v>
       </c>
       <c r="W233" s="2">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
-        <v>4.2958785920829596</v>
+        <f t="shared" si="21"/>
+        <v>4.3207102602452885</v>
       </c>
       <c r="X233" t="s">
         <v>16</v>
@@ -9323,27 +9323,27 @@
         <v>6.6630000000000003</v>
       </c>
       <c r="R234" s="4">
-        <f>(D234-I234+1+2*K234)/M234</f>
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="S234" s="4">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="S234" s="4">
-        <f>(C234-H234+1+2*J234)/L234</f>
-        <v>84</v>
-      </c>
       <c r="T234" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>13.763999999999999</v>
       </c>
       <c r="U234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.9346120710059154</v>
       </c>
       <c r="V234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>8.9270659459459445</v>
       </c>
       <c r="W234" s="2">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.7589581629896438</v>
       </c>
       <c r="X234" t="s">
@@ -9395,27 +9395,27 @@
         <v>9.0129999999999999</v>
       </c>
       <c r="R235" s="4">
-        <f>(D235-I235+1+2*K235)/M235</f>
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="S235" s="4">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="S235" s="4">
-        <f>(C235-H235+1+2*J235)/L235</f>
-        <v>41</v>
-      </c>
       <c r="T235" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>31.692</v>
       </c>
       <c r="U235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.4179555149577538</v>
       </c>
       <c r="V235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.7794306730838301</v>
       </c>
       <c r="W235" s="2">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.2929606568290248</v>
       </c>
       <c r="X235" t="s">
@@ -9467,27 +9467,27 @@
         <v>3.069</v>
       </c>
       <c r="R236" s="4">
-        <f>(D236-I236+1+2*K236)/M236</f>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="S236" s="4">
-        <f>(C236-H236+1+2*J236)/L236</f>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="T236" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11.670999999999999</v>
       </c>
       <c r="U236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.405170070060719</v>
       </c>
       <c r="V236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>7.3400319999999999</v>
       </c>
       <c r="W236" s="2">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>10.332009853372433</v>
       </c>
       <c r="X236" t="s">
@@ -9539,27 +9539,27 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="R237" s="4">
-        <f>(D237-I237+1+2*K237)/M237</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f>(C237-H237+1+2*J237)/L237</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T237" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.544</v>
       </c>
       <c r="U237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.7586697449664435</v>
       </c>
       <c r="V237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.5690111999999998</v>
       </c>
       <c r="W237" s="2">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
@@ -9611,27 +9611,27 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="R238" s="4">
-        <f>(D238-I238+1+2*K238)/M238</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f>(C238-H238+1+2*J238)/L238</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T238" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.141</v>
       </c>
       <c r="U238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.7494434247491641</v>
       </c>
       <c r="V238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.854456888888889</v>
       </c>
       <c r="W238" s="2">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.4839053862815883</v>
       </c>
       <c r="X238" t="s">
@@ -9683,27 +9683,27 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="R239" s="4">
-        <f>(D239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f>(C239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T239" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1469999999999998</v>
       </c>
       <c r="U239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
+        <f t="shared" ref="U239:U268" si="23">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>3.0674760597014927</v>
       </c>
       <c r="V239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.6097891555555557</v>
       </c>
       <c r="W239" s="2">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
+        <f t="shared" ref="W239:W268" si="24">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>1.4575950070921988</v>
       </c>
       <c r="X239" t="s">
@@ -9755,27 +9755,27 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="R240" s="4">
-        <f>(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="25">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f>(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="26">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.92100000000000004</v>
       </c>
       <c r="U240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.4911623757575758</v>
       </c>
       <c r="V240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>0.84057626175869127</v>
       </c>
       <c r="W240" s="2">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.5394823670411983</v>
       </c>
       <c r="X240" t="s">
@@ -9827,27 +9827,27 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="R241" s="4">
-        <f>(D241-I241+1+2*K241)/M241</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f>(C241-H241+1+2*J241)/L241</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="T241" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.90800000000000003</v>
       </c>
       <c r="U241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.236549543307087</v>
       </c>
       <c r="V241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.6691025454545456</v>
       </c>
       <c r="W241" s="2">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.3759641156069367</v>
       </c>
       <c r="X241" t="s">
@@ -9899,27 +9899,27 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="R242" s="4">
-        <f>(D242-I242+1+2*K242)/M242</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f>(C242-H242+1+2*J242)/L242</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="T242" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.90399999999999991</v>
       </c>
       <c r="U242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.7867240135593221</v>
       </c>
       <c r="V242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.0674760597014927</v>
       </c>
       <c r="W242" s="2">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4108022991202342</v>
       </c>
       <c r="X242" t="s">
@@ -9971,27 +9971,27 @@
         <v>0.246</v>
       </c>
       <c r="R243" s="4">
-        <f>(D243-I243+1+2*K243)/M243</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f>(C243-H243+1+2*J243)/L243</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T243" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.85299999999999998</v>
       </c>
       <c r="U243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1079066256410255</v>
       </c>
       <c r="V243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>0.99767425242718444</v>
       </c>
       <c r="W243" s="2">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6709015934959348</v>
       </c>
       <c r="X243" t="s">
@@ -10043,27 +10043,27 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R244" s="4">
-        <f>(D244-I244+1+2*K244)/M244</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f>(C244-H244+1+2*J244)/L244</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T244" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96500000000000008</v>
       </c>
       <c r="U244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.1863704806201554</v>
       </c>
       <c r="V244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.2278687913279134</v>
       </c>
       <c r="W244" s="2">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4321999526627218</v>
       </c>
       <c r="X244" t="s">
@@ -10115,27 +10115,27 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="R245" s="4">
-        <f>(D245-I245+1+2*K245)/M245</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f>(C245-H245+1+2*J245)/L245</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T245" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.2010000000000001</v>
       </c>
       <c r="U245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0168204917431192</v>
       </c>
       <c r="V245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.6262781088031653</v>
       </c>
       <c r="W245" s="2">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.5490963844961234</v>
       </c>
       <c r="X245" t="s">
@@ -10187,27 +10187,27 @@
         <v>0.34100000000000003</v>
       </c>
       <c r="R246" s="4">
-        <f>(D246-I246+1+2*K246)/M246</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f>(C246-H246+1+2*J246)/L246</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T246" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96799999999999997</v>
       </c>
       <c r="U246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.2963228603351959</v>
       </c>
       <c r="V246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.0560728029739774</v>
       </c>
       <c r="W246" s="2">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4108022991202342</v>
       </c>
       <c r="X246" t="s">
@@ -10259,27 +10259,27 @@
         <v>0.33800000000000002</v>
       </c>
       <c r="R247" s="4">
-        <f>(D247-I247+1+2*K247)/M247</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f>(C247-H247+1+2*J247)/L247</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T247" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.96399999999999997</v>
       </c>
       <c r="U247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.1987688093385214</v>
       </c>
       <c r="V247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.2278687913279134</v>
       </c>
       <c r="W247" s="2">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4321999526627218</v>
       </c>
       <c r="X247" t="s">
@@ -10331,27 +10331,27 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="R248" s="4">
-        <f>(D248-I248+1+2*K248)/M248</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f>(C248-H248+1+2*J248)/L248</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T248" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.77800000000000002</v>
       </c>
       <c r="U248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.8268524088888889</v>
       </c>
       <c r="V248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.3839790976430977</v>
       </c>
       <c r="W248" s="2">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6056319999999999</v>
       </c>
       <c r="X248" t="s">
@@ -10403,27 +10403,27 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="R249" s="4">
-        <f>(D249-I249+1+2*K249)/M249</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f>(C249-H249+1+2*J249)/L249</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T249" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.0469999999999997</v>
       </c>
       <c r="U249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.486139870967742</v>
       </c>
       <c r="V249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.6348832820512822</v>
       </c>
       <c r="W249" s="2">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.0776839667221298</v>
       </c>
       <c r="X249" t="s">
@@ -10475,27 +10475,27 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="R250" s="4">
-        <f>(D250-I250+1+2*K250)/M250</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f>(C250-H250+1+2*J250)/L250</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T250" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.27</v>
       </c>
       <c r="U250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.2039774369973189</v>
       </c>
       <c r="V250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.9809242987951807</v>
       </c>
       <c r="W250" s="2">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.705567601659751</v>
       </c>
       <c r="X250" t="s">
@@ -10547,27 +10547,27 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="R251" s="4">
-        <f>(D251-I251+1+2*K251)/M251</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f>(C251-H251+1+2*J251)/L251</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T251" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.496</v>
       </c>
       <c r="U251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.3589198967001437</v>
       </c>
       <c r="V251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.9977729866342648</v>
       </c>
       <c r="W251" s="2">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6845975081967215</v>
       </c>
       <c r="X251" t="s">
@@ -10619,27 +10619,27 @@
         <v>0.495</v>
       </c>
       <c r="R252" s="4">
-        <f>(D252-I252+1+2*K252)/M252</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f>(C252-H252+1+2*J252)/L252</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T252" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.294</v>
       </c>
       <c r="U252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.9809242987951807</v>
       </c>
       <c r="V252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.1408426666666664</v>
       </c>
       <c r="W252" s="2">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6607749171717172</v>
       </c>
       <c r="X252" t="s">
@@ -10691,27 +10691,27 @@
         <v>1.67</v>
       </c>
       <c r="R253" s="4">
-        <f>(D253-I253+1+2*K253)/M253</f>
+        <f t="shared" si="25"/>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f>(C253-H253+1+2*J253)/L253</f>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="T253" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.8479999999999999</v>
       </c>
       <c r="U253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.894660507042254</v>
       </c>
       <c r="V253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.6953560131147545</v>
       </c>
       <c r="W253" s="2">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>0.98453123832335343</v>
       </c>
       <c r="X253" t="s">
@@ -10763,27 +10763,27 @@
         <v>0.999</v>
       </c>
       <c r="R254" s="4">
-        <f>(D254-I254+1+2*K254)/M254</f>
+        <f t="shared" si="25"/>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f>(C254-H254+1+2*J254)/L254</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="T254" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.0350000000000001</v>
       </c>
       <c r="U254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0447540148148149</v>
       </c>
       <c r="V254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.3148531612903223</v>
       </c>
       <c r="W254" s="2">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6458129809809807</v>
       </c>
       <c r="X254" t="s">
@@ -10835,27 +10835,27 @@
         <v>1.0349999999999999</v>
       </c>
       <c r="R255" s="4">
-        <f>(D255-I255+1+2*K255)/M255</f>
+        <f t="shared" si="25"/>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f>(C255-H255+1+2*J255)/L255</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="T255" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.069</v>
       </c>
       <c r="U255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.5056869253731349</v>
       </c>
       <c r="V255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.9100303858407082</v>
       </c>
       <c r="W255" s="2">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.588567312077295</v>
       </c>
       <c r="X255" t="s">
@@ -10907,27 +10907,27 @@
         <v>0.49199999999999999</v>
       </c>
       <c r="R256" s="4">
-        <f>(D256-I256+1+2*K256)/M256</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f>(C256-H256+1+2*J256)/L256</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="T256" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.593</v>
       </c>
       <c r="U256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.1863704806201554</v>
       </c>
       <c r="V256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>0.97518811862396204</v>
       </c>
       <c r="W256" s="2">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.6709015934959348</v>
       </c>
       <c r="X256" t="s">
@@ -10979,27 +10979,27 @@
         <v>0.628</v>
       </c>
       <c r="R257" s="4">
-        <f>(D257-I257+1+2*K257)/M257</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f>(C257-H257+1+2*J257)/L257</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="T257" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.573</v>
       </c>
       <c r="U257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.5820635468409585</v>
       </c>
       <c r="V257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.3830600164609055</v>
       </c>
       <c r="W257" s="2">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.618100585987261</v>
       </c>
       <c r="X257" t="s">
@@ -11051,27 +11051,27 @@
         <v>0.625</v>
       </c>
       <c r="R258" s="4">
-        <f>(D258-I258+1+2*K258)/M258</f>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f>(C258-H258+1+2*J258)/L258</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="T258" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.5760000000000001</v>
       </c>
       <c r="U258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.4760405243128969</v>
       </c>
       <c r="V258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.4396802677824274</v>
       </c>
       <c r="W258" s="2">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.6306674688</v>
       </c>
       <c r="X258" t="s">
@@ -11123,27 +11123,27 @@
         <v>0.37</v>
       </c>
       <c r="R259" s="4">
-        <f>(D259-I259+1+2*K259)/M259</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f>(C259-H259+1+2*J259)/L259</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T259" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3439999999999999</v>
       </c>
       <c r="U259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.7494434247491641</v>
       </c>
       <c r="V259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.2179016059259258</v>
       </c>
       <c r="W259" s="2">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.2218475243243243</v>
       </c>
       <c r="X259" t="s">
@@ -11195,27 +11195,27 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="R260" s="4">
-        <f>(D260-I260+1+2*K260)/M260</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f>(C260-H260+1+2*J260)/L260</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T260" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.5899999999999999</v>
       </c>
       <c r="U260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.6618422449888639</v>
       </c>
       <c r="V260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.9203679715808173</v>
       </c>
       <c r="W260" s="2">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.8445798754325264</v>
       </c>
       <c r="X260" t="s">
@@ -11267,27 +11267,27 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="R261" s="4">
-        <f>(D261-I261+1+2*K261)/M261</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f>(C261-H261+1+2*J261)/L261</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T261" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.5830000000000002</v>
       </c>
       <c r="U261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.6295080971302425</v>
       </c>
       <c r="V261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.077280060644346</v>
       </c>
       <c r="W261" s="2">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.005790069469835</v>
       </c>
       <c r="X261" t="s">
@@ -11339,27 +11339,27 @@
         <v>0.59</v>
       </c>
       <c r="R262" s="4">
-        <f>(D262-I262+1+2*K262)/M262</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f>(C262-H262+1+2*J262)/L262</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T262" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.605</v>
       </c>
       <c r="U262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.9893948509090906</v>
       </c>
       <c r="V262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.5358433720430109</v>
       </c>
       <c r="W262" s="2">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.7867240135593221</v>
       </c>
       <c r="X262" t="s">
@@ -11411,27 +11411,27 @@
         <v>0.55200000000000005</v>
       </c>
       <c r="R263" s="4">
-        <f>(D263-I263+1+2*K263)/M263</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f>(C263-H263+1+2*J263)/L263</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="T263" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.5649999999999999</v>
       </c>
       <c r="U263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.6618422449888639</v>
       </c>
       <c r="V263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.9151900141843976</v>
       </c>
       <c r="W263" s="2">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.9785637101449272</v>
       </c>
       <c r="X263" t="s">
@@ -11483,27 +11483,27 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="R264" s="4">
-        <f>(D264-I264+1+2*K264)/M264</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f>(C264-H264+1+2*J264)/L264</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T264" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3290000000000002</v>
       </c>
       <c r="U264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.2646930688705234</v>
       </c>
       <c r="V264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>1.4680063999999997</v>
       </c>
       <c r="W264" s="2">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.0248364137931034</v>
       </c>
       <c r="X264" t="s">
@@ -11555,27 +11555,27 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="R265" s="4">
-        <f>(D265-I265+1+2*K265)/M265</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f>(C265-H265+1+2*J265)/L265</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T265" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.077</v>
       </c>
       <c r="U265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.8522560740169625</v>
       </c>
       <c r="V265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>3.4476944342963658</v>
       </c>
       <c r="W265" s="2">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>5.2324980594059411</v>
       </c>
       <c r="X265" t="s">
@@ -11627,27 +11627,27 @@
         <v>0.68</v>
       </c>
       <c r="R266" s="4">
-        <f>(D266-I266+1+2*K266)/M266</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f>(C266-H266+1+2*J266)/L266</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T266" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.9359999999999999</v>
       </c>
       <c r="U266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.9785637101449272</v>
       </c>
       <c r="V266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.3354647272727274</v>
       </c>
       <c r="W266" s="2">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4178928941176472</v>
       </c>
       <c r="X266" t="s">
@@ -11699,27 +11699,27 @@
         <v>1.6120000000000001</v>
       </c>
       <c r="R267" s="4">
-        <f>(D267-I267+1+2*K267)/M267</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f>(C267-H267+1+2*J267)/L267</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T267" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.2759999999999998</v>
       </c>
       <c r="U267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.1287672083729787</v>
       </c>
       <c r="V267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.0386449696218225</v>
       </c>
       <c r="W267" s="2">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.0399096377171215</v>
       </c>
       <c r="X267" t="s">
@@ -11771,27 +11771,27 @@
         <v>0.71199999999999997</v>
       </c>
       <c r="R268" s="4">
-        <f>(D268-I268+1+2*K268)/M268</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f>(C268-H268+1+2*J268)/L268</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="T268" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.9709999999999999</v>
       </c>
       <c r="U268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.379402558610709</v>
       </c>
       <c r="V268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
+        <f t="shared" si="22"/>
         <v>2.894660507042254</v>
       </c>
       <c r="W268" s="2">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.3092235505617977</v>
       </c>
       <c r="X268" t="s">
@@ -11882,11 +11882,11 @@
         <v>9.9450000000000003</v>
       </c>
       <c r="I281" s="2">
-        <f t="shared" ref="I281:I291" si="15">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <f t="shared" ref="I281:I291" si="27">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
         <v>0.94089352818371608</v>
       </c>
       <c r="J281" s="2">
-        <f t="shared" ref="J281:J291" si="16">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
+        <f t="shared" ref="J281:J291" si="28">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
         <v>0.99699708396178977</v>
       </c>
     </row>
@@ -11907,11 +11907,11 @@
         <v>12.762</v>
       </c>
       <c r="I282" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.506745080161082</v>
       </c>
       <c r="J282" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.5538530010970066</v>
       </c>
     </row>
@@ -11932,11 +11932,11 @@
         <v>15.997</v>
       </c>
       <c r="I283" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.3886138279932543</v>
       </c>
       <c r="J283" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.4792488591610926</v>
       </c>
     </row>
@@ -11957,11 +11957,11 @@
         <v>8.2349999999999994</v>
       </c>
       <c r="I284" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.76811131708433456</v>
       </c>
       <c r="J284" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.81512140862173654</v>
       </c>
     </row>
@@ -11982,11 +11982,11 @@
         <v>8.8049999999999997</v>
       </c>
       <c r="I285" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.4589273636166049</v>
       </c>
       <c r="J285" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.5247075070982394</v>
       </c>
     </row>
@@ -12007,11 +12007,11 @@
         <v>11.754</v>
       </c>
       <c r="I286" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.1882721434392831</v>
       </c>
       <c r="J286" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2843371788327378</v>
       </c>
     </row>
@@ -12032,11 +12032,11 @@
         <v>17.943000000000001</v>
       </c>
       <c r="I287" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.8082940278213573</v>
       </c>
       <c r="J287" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9928216240316559</v>
       </c>
     </row>
@@ -12057,11 +12057,11 @@
         <v>12.574999999999999</v>
       </c>
       <c r="I288" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.81030734760101986</v>
       </c>
       <c r="J288" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.83402051689860834</v>
       </c>
     </row>
@@ -12082,11 +12082,11 @@
         <v>11.189</v>
       </c>
       <c r="I289" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.7619165056698867</v>
       </c>
       <c r="J289" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.87466404504424</v>
       </c>
     </row>
@@ -12107,11 +12107,11 @@
         <v>15.411</v>
       </c>
       <c r="I290" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.6561499303532989</v>
       </c>
       <c r="J290" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.722161572902472</v>
       </c>
     </row>
@@ -12132,11 +12132,11 @@
         <v>25.521999999999998</v>
       </c>
       <c r="I291" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.2352303539754761</v>
       </c>
       <c r="J291" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.2874564689287675</v>
       </c>
     </row>
@@ -12221,11 +12221,11 @@
         <v>3.173</v>
       </c>
       <c r="I297" s="2">
-        <f t="shared" ref="I297:J311" si="17">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <f t="shared" ref="I297:J311" si="29">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
         <v>0.4885619103086779</v>
       </c>
       <c r="J297" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.52874932240781591</v>
       </c>
     </row>
@@ -12246,11 +12246,11 @@
         <v>3.9420000000000002</v>
       </c>
       <c r="I298" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.96531737629459158</v>
       </c>
       <c r="J298" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.85120324708269912</v>
       </c>
     </row>
@@ -12271,11 +12271,11 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="I299" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.5925216896060748</v>
       </c>
       <c r="J299" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.94960894297438792</v>
       </c>
     </row>
@@ -12296,11 +12296,11 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="I300" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.61443750228895799</v>
       </c>
       <c r="J300" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.63489937559129617</v>
       </c>
     </row>
@@ -12321,11 +12321,11 @@
         <v>12.397</v>
       </c>
       <c r="I301" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3171514033366045</v>
       </c>
       <c r="J301" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.54133148342340887</v>
       </c>
     </row>
@@ -12346,11 +12346,11 @@
         <v>14.587999999999999</v>
       </c>
       <c r="I302" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.1348453634483855</v>
       </c>
       <c r="J302" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.92005571702769406</v>
       </c>
     </row>
@@ -12371,11 +12371,11 @@
         <v>9.593</v>
       </c>
       <c r="I303" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.9524357237131542</v>
       </c>
       <c r="J303" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.798243052225581</v>
       </c>
     </row>
@@ -12396,11 +12396,11 @@
         <v>12.689</v>
       </c>
       <c r="I304" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.79872487502975487</v>
       </c>
       <c r="J304" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0577486641973362</v>
       </c>
     </row>
@@ -12421,11 +12421,11 @@
         <v>11.444000000000001</v>
       </c>
       <c r="I305" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.3856688233202989</v>
       </c>
       <c r="J305" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.345643621111499</v>
       </c>
     </row>
@@ -12446,11 +12446,11 @@
         <v>16.218</v>
       </c>
       <c r="I306" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.261670182260024</v>
       </c>
       <c r="J306" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.3103398199531386</v>
       </c>
     </row>
@@ -12471,11 +12471,11 @@
         <v>30.824999999999999</v>
       </c>
       <c r="I307" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.4042732443486257</v>
       </c>
       <c r="J307" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.4833473609083541</v>
       </c>
     </row>
@@ -12496,11 +12496,11 @@
         <v>56.017000000000003</v>
       </c>
       <c r="I308" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.89110163324923652</v>
       </c>
       <c r="J308" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.95840711212667573</v>
       </c>
     </row>
@@ -12521,11 +12521,11 @@
         <v>38.359000000000002</v>
       </c>
       <c r="I309" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.023605620698202</v>
       </c>
       <c r="J309" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.7991913866367732</v>
       </c>
     </row>
@@ -12546,11 +12546,11 @@
         <v>56.636000000000003</v>
       </c>
       <c r="I310" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.0216367597081666</v>
       </c>
       <c r="J310" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.7917290204110454</v>
       </c>
     </row>
@@ -12571,11 +12571,11 @@
         <v>112.19199999999999</v>
       </c>
       <c r="I311" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.9506666936485302</v>
       </c>
       <c r="J311" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.8282295493439826</v>
       </c>
     </row>
@@ -12596,11 +12596,11 @@
         <v>12.353999999999999</v>
       </c>
       <c r="I312" s="2">
-        <f t="shared" ref="I312:I317" si="18">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <f t="shared" ref="I312:I317" si="30">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
         <v>0.64127641212944875</v>
       </c>
       <c r="J312" s="2">
-        <f t="shared" ref="J312:J317" si="19">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
+        <f t="shared" ref="J312:J317" si="31">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
         <v>0.61111762991743568</v>
       </c>
     </row>
@@ -12621,11 +12621,11 @@
         <v>14.135999999999999</v>
       </c>
       <c r="I313" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.77832445360824754</v>
       </c>
       <c r="J313" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.0681589134125637</v>
       </c>
     </row>
@@ -12646,11 +12646,11 @@
         <v>16.105</v>
       </c>
       <c r="I314" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.1787020272707598</v>
       </c>
       <c r="J314" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.8751312511642346</v>
       </c>
     </row>
@@ -12671,11 +12671,11 @@
         <v>12.395</v>
       </c>
       <c r="I315" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.14498112685793293</v>
       </c>
       <c r="J315" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.1015160306575232</v>
       </c>
     </row>
@@ -12696,11 +12696,11 @@
         <v>12.340999999999999</v>
       </c>
       <c r="I316" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.28244471380471381</v>
       </c>
       <c r="J316" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.20392046025443644</v>
       </c>
     </row>
@@ -12721,11 +12721,11 @@
         <v>13.086</v>
       </c>
       <c r="I317" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.43873472803347285</v>
       </c>
       <c r="J317" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.38462209995414948</v>
       </c>
     </row>
@@ -12799,11 +12799,11 @@
         <v>391.86500000000001</v>
       </c>
       <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="20">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <f t="shared" ref="I322:I339" si="32">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
         <v>2.7556614629461151</v>
       </c>
       <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="21">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <f t="shared" ref="J322:J339" si="33">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
         <v>2.9140118765391141</v>
       </c>
     </row>
@@ -12824,11 +12824,11 @@
         <v>197.33500000000001</v>
       </c>
       <c r="I323" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.70311682187682</v>
       </c>
       <c r="J323" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.8933014011705982</v>
       </c>
     </row>
@@ -12849,11 +12849,11 @@
         <v>99.554000000000002</v>
       </c>
       <c r="I324" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.6653331257337043</v>
       </c>
       <c r="J324" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.8598906103622155</v>
       </c>
     </row>
@@ -12874,11 +12874,11 @@
         <v>529.28800000000001</v>
       </c>
       <c r="I325" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.8062127914621371</v>
       </c>
       <c r="J325" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.2822349118060488</v>
       </c>
     </row>
@@ -12899,11 +12899,11 @@
         <v>266.03199999999998</v>
       </c>
       <c r="I326" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.7662477889886827</v>
       </c>
       <c r="J326" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.2703275395441151</v>
       </c>
     </row>
@@ -12924,11 +12924,11 @@
         <v>134.517</v>
       </c>
       <c r="I327" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.7394851772560687</v>
       </c>
       <c r="J327" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.2449942237784071</v>
       </c>
     </row>
@@ -12949,11 +12949,11 @@
         <v>68.504000000000005</v>
       </c>
       <c r="I328" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.6292848680226979</v>
       </c>
       <c r="J328" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.1982992353147259</v>
       </c>
     </row>
@@ -12974,11 +12974,11 @@
         <v>369.03399999999999</v>
       </c>
       <c r="I329" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.193864876645454</v>
       </c>
       <c r="J329" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.8412321032750372</v>
       </c>
     </row>
@@ -12999,11 +12999,11 @@
         <v>185.78399999999999</v>
       </c>
       <c r="I330" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.1775325214716061</v>
       </c>
       <c r="J330" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.8286753649399301</v>
       </c>
     </row>
@@ -13024,11 +13024,11 @@
         <v>94.47</v>
       </c>
       <c r="I331" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.1424340631621432</v>
       </c>
       <c r="J331" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.7981296919657033</v>
       </c>
     </row>
@@ -13049,11 +13049,11 @@
         <v>48.908999999999999</v>
       </c>
       <c r="I332" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.0567222741708346</v>
       </c>
       <c r="J332" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.731954519290928</v>
       </c>
     </row>
@@ -13074,11 +13074,11 @@
         <v>695.00900000000001</v>
       </c>
       <c r="I333" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.6460445391522565</v>
       </c>
       <c r="J333" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.7157012355235688</v>
       </c>
     </row>
@@ -13099,11 +13099,11 @@
         <v>349.279</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.622598314255463</v>
       </c>
       <c r="J334" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.7019042083835556</v>
       </c>
     </row>
@@ -13124,11 +13124,11 @@
         <v>176.239</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.6051289978854615</v>
       </c>
       <c r="J335" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.6773824181934756</v>
       </c>
     </row>
@@ -13149,11 +13149,11 @@
         <v>89.552999999999997</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.5869132390773766</v>
       </c>
       <c r="J336" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.6274994070550401</v>
       </c>
     </row>
@@ -13174,11 +13174,11 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.39945752380952382</v>
       </c>
       <c r="J337" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.52428799999999998</v>
       </c>
     </row>
@@ -13199,11 +13199,11 @@
         <v>322.041</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4885808617298677</v>
       </c>
       <c r="J338" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.93773739368589715</v>
       </c>
     </row>
@@ -13224,11 +13224,11 @@
         <v>514.49199999999996</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.3504542521686003</v>
       </c>
       <c r="J339" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1739342419318475</v>
       </c>
     </row>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="H344" s="2"/>
       <c r="I344" s="2">
-        <f t="shared" ref="I344:I368" si="22">C344*4*D344/(G344/1000)/10^9</f>
+        <f t="shared" ref="I344:I368" si="34">C344*4*D344/(G344/1000)/10^9</f>
         <v>11.55067860236789</v>
       </c>
       <c r="J344" t="s">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>14.267879436418761</v>
       </c>
       <c r="J345" t="s">
@@ -13324,7 +13324,7 @@
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>11.474469305794607</v>
       </c>
       <c r="J346" t="s">
@@ -13350,7 +13350,7 @@
         <v>0.53879115384599996</v>
       </c>
       <c r="I347" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>11.878442981692457</v>
       </c>
       <c r="J347" t="s">
@@ -13374,7 +13374,7 @@
         <v>0.73525240000000003</v>
       </c>
       <c r="I348" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>17.408987716327072</v>
       </c>
       <c r="J348" t="s">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="H349" s="2"/>
       <c r="I349" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>20.562590238478517</v>
       </c>
       <c r="J349" t="s">
@@ -13421,7 +13421,7 @@
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>24.127194306243855</v>
       </c>
       <c r="J350" t="s">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>23.206146901967031</v>
       </c>
       <c r="J351" t="s">
@@ -13472,7 +13472,7 @@
         <v>27.527460769200001</v>
       </c>
       <c r="I352" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>7.201768505354277</v>
       </c>
       <c r="J352" t="s">
@@ -13496,7 +13496,7 @@
         <v>29.464853000000002</v>
       </c>
       <c r="I353" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>13.456466251503103</v>
       </c>
       <c r="J353" t="s">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="H354" s="2"/>
       <c r="I354" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>20.786777514836889</v>
       </c>
       <c r="J354" t="s">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>24.302478452958642</v>
       </c>
       <c r="J355" t="s">
@@ -13568,7 +13568,7 @@
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>23.348629362503086</v>
       </c>
       <c r="J356" t="s">
@@ -13594,7 +13594,7 @@
         <v>34.004162884599999</v>
       </c>
       <c r="I357" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>7.8941939229908398</v>
       </c>
       <c r="J357" t="s">
@@ -13619,7 +13619,7 @@
         <v>37.550554400000003</v>
       </c>
       <c r="I358" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>14.297283237980633</v>
       </c>
       <c r="J358" t="s">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>20.911128660428684</v>
       </c>
       <c r="J359" t="s">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>24.459207285213107</v>
       </c>
       <c r="J360" t="s">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>23.255178531825237</v>
       </c>
       <c r="J361" t="s">
@@ -13718,7 +13718,7 @@
         <v>47.726722352899998</v>
       </c>
       <c r="I362" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>8.7881668659049303</v>
       </c>
       <c r="J362" t="s">
@@ -13742,7 +13742,7 @@
         <v>55.967877399999999</v>
       </c>
       <c r="I363" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>14.988254673385203</v>
       </c>
       <c r="J363" t="s">
@@ -13754,7 +13754,7 @@
     </row>
     <row r="364" spans="3:15">
       <c r="C364">
-        <f t="shared" ref="C364:C366" si="23">4096*4096</f>
+        <f t="shared" ref="C364:C366" si="35">4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D364">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="H364" s="2"/>
       <c r="I364" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>21.099767021427109</v>
       </c>
       <c r="J364" t="s">
@@ -13779,7 +13779,7 @@
     </row>
     <row r="365" spans="3:15">
       <c r="C365">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>16777216</v>
       </c>
       <c r="D365">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>24.532711383904498</v>
       </c>
       <c r="J365" t="s">
@@ -13804,7 +13804,7 @@
     </row>
     <row r="366" spans="3:15">
       <c r="C366">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>16777216</v>
       </c>
       <c r="D366">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>23.335679574936407</v>
       </c>
       <c r="J366" t="s">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>9.1044242362871834</v>
       </c>
       <c r="J367" t="s">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>16.719425228325989</v>
       </c>
       <c r="J368" t="s">

--- a/results/train/DeepBench_NV_M40.xlsx
+++ b/results/train/DeepBench_NV_M40.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34720" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="1" r:id="rId1"/>
@@ -790,7 +790,7 @@
   <dimension ref="A1:AC376"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3107,11 +3107,11 @@
         <v>10</v>
       </c>
       <c r="I98" s="2">
-        <v>158.643</v>
+        <v>125.94</v>
       </c>
       <c r="J98" s="2">
         <f t="shared" si="3"/>
-        <v>3.8071631020593406</v>
+        <v>4.7957739876131491</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3233,11 +3233,11 @@
         <v>10</v>
       </c>
       <c r="I103" s="2">
-        <v>310.08300000000003</v>
+        <v>244.85</v>
       </c>
       <c r="J103" s="2">
         <f t="shared" si="3"/>
-        <v>3.8956007004576185</v>
+        <v>4.9334676414131104</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3359,11 +3359,11 @@
         <v>10</v>
       </c>
       <c r="I108" s="2">
-        <v>217.714</v>
+        <v>128.76</v>
       </c>
       <c r="J108" s="2">
         <f t="shared" si="3"/>
-        <v>2.7741889635025765</v>
+        <v>4.6907407269338313</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3485,11 +3485,11 @@
         <v>10</v>
       </c>
       <c r="I113" s="2">
-        <v>429.28199999999998</v>
+        <v>250.39</v>
       </c>
       <c r="J113" s="2">
         <f t="shared" si="3"/>
-        <v>2.8139068304750721</v>
+        <v>4.8243122808418866</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3589,11 +3589,11 @@
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="J117" s="2">
         <f t="shared" si="3"/>
-        <v>0.59213703529411754</v>
+        <v>0.7456540444444445</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3667,11 +3667,11 @@
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
-        <v>0.68500000000000005</v>
+        <v>0.54</v>
       </c>
       <c r="J120" s="2">
         <f t="shared" si="3"/>
-        <v>1.1756297343065694</v>
+        <v>1.491308088888889</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3745,11 +3745,11 @@
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="J123" s="2">
         <f t="shared" si="3"/>
-        <v>0.56552413483146069</v>
+        <v>0.66008718688524592</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3823,11 +3823,11 @@
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
-        <v>0.71799999999999997</v>
+        <v>0.61</v>
       </c>
       <c r="J126" s="2">
         <f t="shared" si="3"/>
-        <v>1.1215966128133703</v>
+        <v>1.3201743737704918</v>
       </c>
     </row>
     <row r="127" spans="1:10">

--- a/results/train/DeepBench_NV_M40.xlsx
+++ b/results/train/DeepBench_NV_M40.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34720" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="19280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="1" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
-  <si>
-    <t>OSU MPI</t>
-  </si>
-  <si>
-    <t>NCCL Single Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSU MPI </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="85">
   <si>
     <t>Selected Algorithm</t>
   </si>
@@ -273,6 +272,18 @@
   <si>
     <t>S (Filter width)</t>
   </si>
+  <si>
+    <t>NCCL 2.0 MPI</t>
+  </si>
+  <si>
+    <t>OSU Allreduce</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 Single</t>
+  </si>
+  <si>
+    <t>Baidu RingAllReduce</t>
+  </si>
 </sst>
 </file>
 
@@ -324,6 +335,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,6 +474,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -787,13 +804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="J378" sqref="J378"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
@@ -811,41 +828,41 @@
     <col min="22" max="22" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -856,10 +873,10 @@
         <v>1760</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <v>0.192</v>
@@ -870,7 +887,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -881,10 +898,10 @@
         <v>1760</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2">
         <v>0.192</v>
@@ -895,7 +912,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -906,10 +923,10 @@
         <v>1760</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2">
         <v>0.26100000000000001</v>
@@ -920,7 +937,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -931,10 +948,10 @@
         <v>1760</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" s="2">
         <v>0.33600000000000002</v>
@@ -945,7 +962,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -956,10 +973,10 @@
         <v>1760</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
         <v>13.548999999999999</v>
@@ -970,7 +987,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -981,10 +998,10 @@
         <v>2048</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I9" s="2">
         <v>0.221</v>
@@ -995,7 +1012,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1006,10 +1023,10 @@
         <v>2048</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="2">
         <v>0.223</v>
@@ -1020,7 +1037,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1031,10 +1048,10 @@
         <v>2048</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="2">
         <v>0.3</v>
@@ -1045,7 +1062,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1056,10 +1073,10 @@
         <v>2048</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I12" s="2">
         <v>0.35299999999999998</v>
@@ -1070,7 +1087,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1081,10 +1098,10 @@
         <v>2048</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" s="2">
         <v>13.573</v>
@@ -1095,7 +1112,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1106,10 +1123,10 @@
         <v>2560</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2">
         <v>0.372</v>
@@ -1120,7 +1137,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1131,10 +1148,10 @@
         <v>2560</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I15" s="2">
         <v>0.372</v>
@@ -1145,7 +1162,7 @@
       </c>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1156,10 +1173,10 @@
         <v>2560</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2">
         <v>0.38600000000000001</v>
@@ -1170,7 +1187,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1181,10 +1198,10 @@
         <v>2560</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" s="2">
         <v>0.443</v>
@@ -1195,7 +1212,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1206,10 +1223,10 @@
         <v>2560</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>21.047000000000001</v>
@@ -1220,7 +1237,7 @@
       </c>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1231,10 +1248,10 @@
         <v>4096</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I19" s="2">
         <v>0.78600000000000003</v>
@@ -1245,7 +1262,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1256,10 +1273,10 @@
         <v>4096</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I20" s="2">
         <v>0.78900000000000003</v>
@@ -1270,7 +1287,7 @@
       </c>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1281,10 +1298,10 @@
         <v>4096</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2">
         <v>0.70299999999999996</v>
@@ -1295,7 +1312,7 @@
       </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1306,10 +1323,10 @@
         <v>4096</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2">
         <v>1.012</v>
@@ -1320,7 +1337,7 @@
       </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1331,10 +1348,10 @@
         <v>4096</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I23" s="2">
         <v>53.625999999999998</v>
@@ -1345,7 +1362,7 @@
       </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1356,10 +1373,10 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2">
         <v>0.185</v>
@@ -1370,7 +1387,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1381,10 +1398,10 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I25" s="2">
         <v>0.186</v>
@@ -1395,7 +1412,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1406,10 +1423,10 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2">
         <v>0.317</v>
@@ -1420,7 +1437,7 @@
       </c>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1431,10 +1448,10 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I27" s="2">
         <v>0.35499999999999998</v>
@@ -1445,7 +1462,7 @@
       </c>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1456,10 +1473,10 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
         <v>15.186999999999999</v>
@@ -1470,7 +1487,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1481,10 +1498,10 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I29" s="2">
         <v>0.22</v>
@@ -1495,7 +1512,7 @@
       </c>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -1506,10 +1523,10 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I30" s="2">
         <v>0.221</v>
@@ -1520,7 +1537,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -1531,10 +1548,10 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" s="2">
         <v>0.42099999999999999</v>
@@ -1545,7 +1562,7 @@
       </c>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -1556,10 +1573,10 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2">
         <v>0.37</v>
@@ -1570,7 +1587,7 @@
       </c>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -1581,10 +1598,10 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I33" s="2">
         <v>14.875999999999999</v>
@@ -1595,7 +1612,7 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -1606,10 +1623,10 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I34" s="2">
         <v>0.37</v>
@@ -1620,7 +1637,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -1631,10 +1648,10 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2">
         <v>0.36499999999999999</v>
@@ -1645,7 +1662,7 @@
       </c>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -1656,10 +1673,10 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I36" s="2">
         <v>0.66800000000000004</v>
@@ -1670,7 +1687,7 @@
       </c>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -1681,10 +1698,10 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I37" s="2">
         <v>0.52600000000000002</v>
@@ -1695,7 +1712,7 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="3:11">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -1706,10 +1723,10 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I38" s="2">
         <v>26.082999999999998</v>
@@ -1720,7 +1737,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -1731,10 +1748,10 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I39" s="2">
         <v>0.8</v>
@@ -1745,7 +1762,7 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -1756,10 +1773,10 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I40" s="2">
         <v>0.80600000000000005</v>
@@ -1770,7 +1787,7 @@
       </c>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="3:11">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -1781,10 +1798,10 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I41" s="2">
         <v>0.89800000000000002</v>
@@ -1795,7 +1812,7 @@
       </c>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="3:11">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -1806,10 +1823,10 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I42" s="2">
         <v>1.206</v>
@@ -1820,7 +1837,7 @@
       </c>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -1831,10 +1848,10 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I43" s="2">
         <v>63.545999999999999</v>
@@ -1845,7 +1862,7 @@
       </c>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -1856,13 +1873,13 @@
         <v>1760</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I44" s="2">
         <v>13.733000000000001</v>
@@ -1873,7 +1890,7 @@
       </c>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -1884,10 +1901,10 @@
         <v>2048</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I45" s="2">
         <v>13.672000000000001</v>
@@ -1898,7 +1915,7 @@
       </c>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -1909,10 +1926,10 @@
         <v>2560</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I46" s="2">
         <v>21.148</v>
@@ -1923,7 +1940,7 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
         <v>4096</v>
       </c>
@@ -1934,10 +1951,10 @@
         <v>4096</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I47" s="2">
         <v>53.929000000000002</v>
@@ -1948,17 +1965,17 @@
       </c>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -1969,10 +1986,10 @@
         <v>1760</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I50" s="2">
         <v>36.457999999999998</v>
@@ -1983,7 +2000,7 @@
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="3:11">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>35</v>
       </c>
@@ -1994,10 +2011,10 @@
         <v>1760</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I51" s="2">
         <v>0.96699999999999997</v>
@@ -2008,7 +2025,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="3:11">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2019,10 +2036,10 @@
         <v>2048</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I52" s="2">
         <v>42.45</v>
@@ -2033,7 +2050,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="3:11">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2044,10 +2061,10 @@
         <v>2048</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I53" s="2">
         <v>0.85399999999999998</v>
@@ -2058,7 +2075,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="3:11">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2069,10 +2086,10 @@
         <v>2560</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I54" s="2">
         <v>53.197000000000003</v>
@@ -2083,7 +2100,7 @@
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="3:11">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2094,10 +2111,10 @@
         <v>2560</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I55" s="2">
         <v>1.3160000000000001</v>
@@ -2108,7 +2125,7 @@
       </c>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="3:11">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2119,10 +2136,10 @@
         <v>4096</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I56" s="2">
         <v>84.466999999999999</v>
@@ -2133,7 +2150,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="3:11">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2144,10 +2161,10 @@
         <v>4096</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I57" s="2">
         <v>1.6739999999999999</v>
@@ -2158,7 +2175,7 @@
       </c>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="3:11">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2169,10 +2186,10 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I58" s="2">
         <v>46.712000000000003</v>
@@ -2183,7 +2200,7 @@
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="3:11">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2194,10 +2211,10 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I59" s="2">
         <v>0.68500000000000005</v>
@@ -2208,7 +2225,7 @@
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="3:11">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2219,10 +2236,10 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I60" s="2">
         <v>53.628</v>
@@ -2233,7 +2250,7 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="3:11">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2244,10 +2261,10 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I61" s="2">
         <v>0.79</v>
@@ -2258,7 +2275,7 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="3:11">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2269,10 +2286,10 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I62" s="2">
         <v>71.004999999999995</v>
@@ -2283,7 +2300,7 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="3:11">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2294,10 +2311,10 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I63" s="2">
         <v>0.97799999999999998</v>
@@ -2308,7 +2325,7 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="3:11">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2319,10 +2336,10 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I64" s="2">
         <v>110.792</v>
@@ -2333,7 +2350,7 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="3:11">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2344,10 +2361,10 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I65" s="2">
         <v>1.5409999999999999</v>
@@ -2358,12 +2375,12 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="3:11">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="3:11">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2374,10 +2391,10 @@
         <v>2560</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I67" s="2">
         <v>0.89400000000000002</v>
@@ -2388,7 +2405,7 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2399,10 +2416,10 @@
         <v>2560</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I68" s="2">
         <v>0.88900000000000001</v>
@@ -2413,7 +2430,7 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="3:11">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2424,10 +2441,10 @@
         <v>2560</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I69" s="2">
         <v>0.64200000000000002</v>
@@ -2438,7 +2455,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="3:11">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -2449,10 +2466,10 @@
         <v>2560</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I70" s="2">
         <v>1.254</v>
@@ -2463,7 +2480,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="3:11">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -2474,10 +2491,10 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I71" s="2">
         <v>0.90100000000000002</v>
@@ -2488,7 +2505,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="3:11">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -2499,10 +2516,10 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I72" s="2">
         <v>0.90700000000000003</v>
@@ -2513,7 +2530,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="3:11">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -2524,10 +2541,10 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I73" s="2">
         <v>1.1619999999999999</v>
@@ -2538,7 +2555,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="3:11">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -2549,10 +2566,10 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I74" s="2">
         <v>1.885</v>
@@ -2563,7 +2580,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="3:11">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C75">
         <f t="shared" ref="C75:C82" si="2">3*1024</f>
         <v>3072</v>
@@ -2575,10 +2592,10 @@
         <v>1024</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I75" s="2">
         <v>0.19900000000000001</v>
@@ -2589,7 +2606,7 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="3:11">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C76">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2601,10 +2618,10 @@
         <v>1024</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I76" s="2">
         <v>0.20100000000000001</v>
@@ -2615,7 +2632,7 @@
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="3:11">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C77">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2627,10 +2644,10 @@
         <v>1024</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I77" s="2">
         <v>0.17599999999999999</v>
@@ -2641,7 +2658,7 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="3:11">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C78">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2653,10 +2670,10 @@
         <v>1024</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I78" s="2">
         <v>0.2</v>
@@ -2667,7 +2684,7 @@
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="3:11">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C79">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2679,10 +2696,10 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I79" s="2">
         <v>0.23100000000000001</v>
@@ -2693,7 +2710,7 @@
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="3:11">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C80">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2705,10 +2722,10 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I80" s="2">
         <v>0.23200000000000001</v>
@@ -2719,7 +2736,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2731,10 +2748,10 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I81" s="2">
         <v>0.254</v>
@@ -2745,7 +2762,7 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="3:11">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C82">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2757,10 +2774,10 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I82" s="2">
         <v>0.22600000000000001</v>
@@ -2771,12 +2788,12 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="3:11">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="3:11">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -2787,10 +2804,10 @@
         <v>1024</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I84" s="2">
         <v>9.9060000000000006</v>
@@ -2801,7 +2818,7 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="3:11">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -2812,10 +2829,10 @@
         <v>2560</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I85" s="2">
         <v>51.033999999999999</v>
@@ -2826,7 +2843,7 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="87" spans="3:11">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>512</v>
       </c>
@@ -2837,10 +2854,10 @@
         <v>500000</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I87" s="2">
         <v>5.1929999999999996</v>
@@ -2850,7 +2867,7 @@
         <v>0.78875409204698632</v>
       </c>
     </row>
-    <row r="88" spans="3:11">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -2861,10 +2878,10 @@
         <v>500000</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I88" s="2">
         <v>7.9690000000000003</v>
@@ -2874,7 +2891,7 @@
         <v>1.0279834358137783</v>
       </c>
     </row>
-    <row r="89" spans="3:11">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>512</v>
       </c>
@@ -2885,10 +2902,10 @@
         <v>500000</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I89" s="2">
         <v>10.574999999999999</v>
@@ -2898,7 +2915,7 @@
         <v>0.77465721040189139</v>
       </c>
     </row>
-    <row r="90" spans="3:11">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -2909,10 +2926,10 @@
         <v>500000</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I90" s="2">
         <v>21.018999999999998</v>
@@ -2922,7 +2939,7 @@
         <v>0.77948522765117267</v>
       </c>
     </row>
-    <row r="91" spans="3:11">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>512</v>
       </c>
@@ -2933,10 +2950,10 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I91" s="2">
         <v>17.867000000000001</v>
@@ -2946,7 +2963,7 @@
         <v>0.2292494543012257</v>
       </c>
     </row>
-    <row r="92" spans="3:11">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -2957,10 +2974,10 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I92" s="2">
         <v>33.555999999999997</v>
@@ -2970,7 +2987,7 @@
         <v>0.24412921683156519</v>
       </c>
     </row>
-    <row r="93" spans="3:11">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>512</v>
       </c>
@@ -2981,10 +2998,10 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I93" s="2">
         <v>18.971</v>
@@ -2994,7 +3011,7 @@
         <v>0.43181698381740546</v>
       </c>
     </row>
-    <row r="94" spans="3:11">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3005,10 +3022,10 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I94" s="2">
         <v>35.848999999999997</v>
@@ -3018,7 +3035,7 @@
         <v>0.45702809004435274</v>
       </c>
     </row>
-    <row r="95" spans="3:11">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3029,10 +3046,10 @@
         <v>512</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I95" s="2">
         <v>0.28799999999999998</v>
@@ -3042,7 +3059,7 @@
         <v>2.5486222222222228</v>
       </c>
     </row>
-    <row r="96" spans="3:11">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3053,10 +3070,10 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I96" s="2">
         <v>0.29199999999999998</v>
@@ -3066,7 +3083,7 @@
         <v>2.5137095890410959</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3077,10 +3094,10 @@
         <v>2560</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I97" s="2">
         <v>198.33</v>
@@ -3090,7 +3107,7 @@
         <v>4.7583240054454699</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3101,10 +3118,10 @@
         <v>2048</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I98" s="2">
         <v>125.94</v>
@@ -3114,7 +3131,7 @@
         <v>4.7957739876131491</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="C99" s="3">
         <v>4608</v>
@@ -3126,10 +3143,10 @@
         <v>1536</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2">
@@ -3140,7 +3157,7 @@
         <v>4.7480032423065097</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="C100" s="3">
         <v>8448</v>
@@ -3152,10 +3169,10 @@
         <v>2816</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2">
@@ -3166,7 +3183,7 @@
         <v>4.756724418895276</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="C101" s="3">
         <v>3072</v>
@@ -3178,10 +3195,10 @@
         <v>1024</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2">
@@ -3192,7 +3209,7 @@
         <v>4.7091736526946102</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3203,10 +3220,10 @@
         <v>2560</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I102" s="2">
         <v>386.86500000000001</v>
@@ -3216,7 +3233,7 @@
         <v>4.8787995812492726</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3227,10 +3244,10 @@
         <v>2048</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I103" s="2">
         <v>244.85</v>
@@ -3240,7 +3257,7 @@
         <v>4.9334676414131104</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="C104" s="3">
         <v>4608</v>
@@ -3252,10 +3269,10 @@
         <v>1536</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2">
@@ -3266,7 +3283,7 @@
         <v>4.8474880538770506</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="C105" s="3">
         <v>8448</v>
@@ -3278,10 +3295,10 @@
         <v>2816</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2">
@@ -3292,7 +3309,7 @@
         <v>4.8838560375688056</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="C106" s="3">
         <v>3072</v>
@@ -3304,10 +3321,10 @@
         <v>1024</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2">
@@ -3318,7 +3335,7 @@
         <v>4.8099816513761473</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3329,10 +3346,10 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I107" s="2">
         <v>280.71100000000001</v>
@@ -3342,7 +3359,7 @@
         <v>3.3618860678776397</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3353,10 +3370,10 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I108" s="2">
         <v>128.76</v>
@@ -3366,7 +3383,7 @@
         <v>4.6907407269338313</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="C109" s="3">
         <v>4608</v>
@@ -3378,10 +3395,10 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2">
@@ -3392,7 +3409,7 @@
         <v>3.6287169452603472</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="C110" s="3">
         <v>8448</v>
@@ -3404,10 +3421,10 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2">
@@ -3418,7 +3435,7 @@
         <v>3.3078107255520499</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="C111" s="3">
         <v>3072</v>
@@ -3430,10 +3447,10 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2">
@@ -3444,7 +3461,7 @@
         <v>4.5857485953776544</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -3455,10 +3472,10 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I112" s="2">
         <v>555.71199999999999</v>
@@ -3468,7 +3485,7 @@
         <v>3.3964298053668087</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -3479,10 +3496,10 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I113" s="2">
         <v>250.39</v>
@@ -3492,7 +3509,7 @@
         <v>4.8243122808418866</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="C114" s="3">
         <v>4608</v>
@@ -3504,10 +3521,10 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2">
@@ -3518,7 +3535,7 @@
         <v>3.6658749190728988</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="C115" s="3">
         <v>8448</v>
@@ -3530,10 +3547,10 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2">
@@ -3544,7 +3561,7 @@
         <v>3.342908979664128</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="C116" s="3">
         <v>3072</v>
@@ -3556,10 +3573,10 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2">
@@ -3570,7 +3587,7 @@
         <v>4.7060181078680401</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="C117" s="3">
         <v>6144</v>
@@ -3582,10 +3599,10 @@
         <v>2048</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
@@ -3596,7 +3613,7 @@
         <v>0.7456540444444445</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="C118" s="3">
         <v>4608</v>
@@ -3608,10 +3625,10 @@
         <v>1536</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2">
@@ -3622,7 +3639,7 @@
         <v>0.60397977599999997</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="C119" s="3">
         <v>8448</v>
@@ -3634,10 +3651,10 @@
         <v>2816</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2">
@@ -3648,7 +3665,7 @@
         <v>0.71212925724976628</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="C120" s="3">
         <v>6144</v>
@@ -3660,10 +3677,10 @@
         <v>2048</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
@@ -3674,7 +3691,7 @@
         <v>1.491308088888889</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="C121" s="3">
         <v>4608</v>
@@ -3686,10 +3703,10 @@
         <v>1536</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2">
@@ -3700,7 +3717,7 @@
         <v>1.1983725714285713</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="C122" s="3">
         <v>8448</v>
@@ -3712,10 +3729,10 @@
         <v>2816</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2">
@@ -3726,7 +3743,7 @@
         <v>1.4136790640668524</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="C123" s="3">
         <v>6144</v>
@@ -3738,10 +3755,10 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
@@ -3752,7 +3769,7 @@
         <v>0.66008718688524592</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="C124" s="3">
         <v>4608</v>
@@ -3764,10 +3781,10 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="2">
@@ -3778,7 +3795,7 @@
         <v>0.69476201226993861</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="C125" s="3">
         <v>8448</v>
@@ -3790,10 +3807,10 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2">
@@ -3804,7 +3821,7 @@
         <v>0.71013635820895515</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="C126" s="3">
         <v>6144</v>
@@ -3816,10 +3833,10 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
@@ -3830,7 +3847,7 @@
         <v>1.3201743737704918</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="C127" s="3">
         <v>4608</v>
@@ -3842,10 +3859,10 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2">
@@ -3856,7 +3873,7 @@
         <v>1.3810513170731706</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="C128" s="3">
         <v>8448</v>
@@ -3868,10 +3885,10 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2">
@@ -3882,7 +3899,7 @@
         <v>1.4123676734693877</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="3">
         <v>512</v>
       </c>
@@ -3894,10 +3911,10 @@
         <v>2816</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2">
@@ -3908,7 +3925,7 @@
         <v>4.6297843189724377</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="3">
         <v>512</v>
       </c>
@@ -3920,10 +3937,10 @@
         <v>2048</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2">
@@ -3934,7 +3951,7 @@
         <v>4.6435693329642955</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="3"/>
       <c r="C131" s="3">
         <v>512</v>
@@ -3947,10 +3964,10 @@
         <v>2560</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2">
@@ -3961,7 +3978,7 @@
         <v>4.6202952192112798</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="3"/>
       <c r="C132" s="3">
         <v>512</v>
@@ -3974,10 +3991,10 @@
         <v>1530</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2">
@@ -3988,7 +4005,7 @@
         <v>4.5939254734270003</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="3">
         <v>1024</v>
       </c>
@@ -4000,10 +4017,10 @@
         <v>2816</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2">
@@ -4014,7 +4031,7 @@
         <v>4.6873254089200449</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="3">
         <v>1024</v>
       </c>
@@ -4026,10 +4043,10 @@
         <v>2048</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2">
@@ -4040,7 +4057,7 @@
         <v>4.6887743257720427</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="3"/>
       <c r="C135" s="3">
         <v>1024</v>
@@ -4053,10 +4070,10 @@
         <v>2560</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2">
@@ -4067,7 +4084,7 @@
         <v>4.6888180056640332</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="3"/>
       <c r="C136" s="3">
         <v>1024</v>
@@ -4080,10 +4097,10 @@
         <v>1530</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="2">
@@ -4094,7 +4111,7 @@
         <v>4.65160883280757</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="3"/>
       <c r="C137" s="3">
         <v>512</v>
@@ -4106,10 +4123,10 @@
         <v>512</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2">
@@ -4120,7 +4137,7 @@
         <v>9.1180521739130438E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="3"/>
       <c r="C138" s="3">
         <v>1024</v>
@@ -4132,10 +4149,10 @@
         <v>512</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2">
@@ -4146,7 +4163,7 @@
         <v>0.18040017204301076</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="3">
         <v>512</v>
       </c>
@@ -4158,10 +4175,10 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2">
@@ -4172,7 +4189,7 @@
         <v>4.3586104043330396</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="3">
         <v>512</v>
       </c>
@@ -4184,10 +4201,10 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2">
@@ -4198,7 +4215,7 @@
         <v>4.641856312828553</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="3"/>
       <c r="C141" s="3">
         <v>512</v>
@@ -4211,10 +4228,10 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2">
@@ -4225,7 +4242,7 @@
         <v>4.2726356536502541</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="3"/>
       <c r="C142" s="3">
         <v>512</v>
@@ -4238,10 +4255,10 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2">
@@ -4252,7 +4269,7 @@
         <v>4.5693620123951888</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="3">
         <v>1024</v>
       </c>
@@ -4264,10 +4281,10 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2">
@@ -4278,7 +4295,7 @@
         <v>3.612476366958111</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="3">
         <v>1024</v>
       </c>
@@ -4290,10 +4307,10 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2">
@@ -4304,7 +4321,7 @@
         <v>4.642498547248997</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
       <c r="C145" s="3">
         <v>1024</v>
@@ -4317,10 +4334,10 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2">
@@ -4331,7 +4348,7 @@
         <v>3.7138549629585902</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
       <c r="C146" s="3">
         <v>1024</v>
@@ -4344,10 +4361,10 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2">
@@ -4358,7 +4375,7 @@
         <v>4.0944389394021883</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
       <c r="C147" s="3">
         <v>512</v>
@@ -4370,10 +4387,10 @@
         <v>512</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4384,7 +4401,7 @@
         <v>0.10485759999999998</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
       <c r="C148" s="3">
         <v>1024</v>
@@ -4396,10 +4413,10 @@
         <v>512</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4410,7 +4427,7 @@
         <v>0.20460019512195121</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="3">
         <v>512</v>
       </c>
@@ -4422,10 +4439,10 @@
         <v>2816</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2">
@@ -4436,7 +4453,7 @@
         <v>4.7890122482873156</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="3">
         <v>512</v>
       </c>
@@ -4448,10 +4465,10 @@
         <v>2048</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2">
@@ -4462,7 +4479,7 @@
         <v>4.79029675454459</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
       <c r="C151" s="3">
         <v>512</v>
@@ -4475,10 +4492,10 @@
         <v>2560</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2">
@@ -4489,7 +4506,7 @@
         <v>4.7916648895658787</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="C152" s="3">
         <v>512</v>
@@ -4502,10 +4519,10 @@
         <v>1530</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2">
@@ -4516,7 +4533,7 @@
         <v>4.7455392187795802</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="3">
         <v>1024</v>
       </c>
@@ -4528,10 +4545,10 @@
         <v>2816</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2">
@@ -4542,7 +4559,7 @@
         <v>4.8656108552747215</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="3">
         <v>1024</v>
       </c>
@@ -4554,10 +4571,10 @@
         <v>2048</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2">
@@ -4568,7 +4585,7 @@
         <v>4.8651939779125684</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="C155" s="3">
         <v>1024</v>
@@ -4581,10 +4598,10 @@
         <v>2560</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2">
@@ -4595,7 +4612,7 @@
         <v>4.8664405468644247</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
       <c r="C156" s="3">
         <v>1024</v>
@@ -4608,10 +4625,10 @@
         <v>1530</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2">
@@ -4622,7 +4639,7 @@
         <v>4.8268652118100128</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="C157" s="3">
         <v>512</v>
@@ -4634,10 +4651,10 @@
         <v>512</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2">
@@ -4648,7 +4665,7 @@
         <v>0.18040017204301076</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
       <c r="C158" s="3">
         <v>1024</v>
@@ -4660,10 +4677,10 @@
         <v>512</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2">
@@ -4674,7 +4691,7 @@
         <v>0.36080034408602152</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="3">
         <v>512</v>
       </c>
@@ -4686,10 +4703,10 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2">
@@ -4700,7 +4717,7 @@
         <v>4.6688265533292848</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="3">
         <v>512</v>
       </c>
@@ -4712,10 +4729,10 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2">
@@ -4726,7 +4743,7 @@
         <v>4.7444641561012393</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
       <c r="C161" s="3">
         <v>512</v>
@@ -4739,10 +4756,10 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2">
@@ -4753,7 +4770,7 @@
         <v>4.4558631679592047</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
       <c r="C162" s="3">
         <v>512</v>
@@ -4766,10 +4783,10 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2">
@@ -4780,7 +4797,7 @@
         <v>4.7048648648648639</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C163" s="3">
         <v>1024</v>
       </c>
@@ -4792,10 +4809,10 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2">
@@ -4806,7 +4823,7 @@
         <v>3.8316870691803011</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C164" s="3">
         <v>1024</v>
       </c>
@@ -4818,10 +4835,10 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2">
@@ -4832,7 +4849,7 @@
         <v>4.7655776168157926</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
       <c r="C165" s="3">
         <v>1024</v>
@@ -4845,10 +4862,10 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2">
@@ -4859,7 +4876,7 @@
         <v>3.8064288955440602</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
       <c r="C166" s="3">
         <v>1024</v>
@@ -4872,10 +4889,10 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2">
@@ -4886,7 +4903,7 @@
         <v>4.3002378774016465</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
       <c r="C167" s="3">
         <v>512</v>
@@ -4898,10 +4915,10 @@
         <v>512</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -4912,7 +4929,7 @@
         <v>0.2071261234567901</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
       <c r="C168" s="3">
         <v>1024</v>
@@ -4924,10 +4941,10 @@
         <v>512</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -4938,80 +4955,80 @@
         <v>0.40920039024390242</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="J171" s="1"/>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H174" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I174" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J174" t="s">
+        <v>35</v>
+      </c>
+      <c r="K174" t="s">
+        <v>34</v>
+      </c>
+      <c r="L174" t="s">
+        <v>36</v>
+      </c>
+      <c r="M174" t="s">
+        <v>37</v>
+      </c>
+      <c r="N174" t="s">
+        <v>19</v>
+      </c>
+      <c r="O174" t="s">
+        <v>18</v>
+      </c>
+      <c r="P174" t="s">
+        <v>17</v>
+      </c>
+      <c r="R174" t="s">
         <v>38</v>
       </c>
-      <c r="K174" t="s">
-        <v>37</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="S174" t="s">
         <v>39</v>
       </c>
-      <c r="M174" t="s">
+      <c r="T174" t="s">
+        <v>72</v>
+      </c>
+      <c r="U174" t="s">
         <v>40</v>
       </c>
-      <c r="N174" t="s">
-        <v>22</v>
-      </c>
-      <c r="O174" t="s">
-        <v>21</v>
-      </c>
-      <c r="P174" t="s">
-        <v>20</v>
-      </c>
-      <c r="R174" t="s">
+      <c r="V174" t="s">
         <v>41</v>
       </c>
-      <c r="S174" t="s">
+      <c r="W174" t="s">
         <v>42</v>
       </c>
-      <c r="T174" t="s">
-        <v>75</v>
-      </c>
-      <c r="U174" t="s">
-        <v>43</v>
-      </c>
-      <c r="V174" t="s">
-        <v>44</v>
-      </c>
-      <c r="W174" t="s">
-        <v>45</v>
-      </c>
       <c r="X174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5049,7 +5066,7 @@
         <v>0.224</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P175" s="2">
         <v>0.36899999999999999</v>
@@ -5071,19 +5088,19 @@
         <v>3.0787428571428572</v>
       </c>
       <c r="V175" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>1.8689387533875339</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AC175" s="2"/>
     </row>
-    <row r="176" spans="1:29">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5121,7 +5138,7 @@
         <v>0.42</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P176" s="2">
         <v>0.68799999999999994</v>
@@ -5143,19 +5160,19 @@
         <v>3.2839923809523812</v>
       </c>
       <c r="V176" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="10"/>
         <v>2.0047627906976744</v>
       </c>
       <c r="X176" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AC176" s="2"/>
     </row>
-    <row r="177" spans="3:29">
+    <row r="177" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5193,7 +5210,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P177" s="2">
         <v>1.329</v>
@@ -5215,19 +5232,19 @@
         <v>3.3847283435582822</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="10"/>
         <v>2.0756610985703539</v>
       </c>
       <c r="X177" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AC177" s="2"/>
     </row>
-    <row r="178" spans="3:29">
+    <row r="178" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5265,7 +5282,7 @@
         <v>1.607</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P178" s="2">
         <v>2.8780000000000001</v>
@@ -5287,19 +5304,19 @@
         <v>3.4331718730553829</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="10"/>
         <v>1.9169934676858931</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AC178" s="2"/>
     </row>
-    <row r="179" spans="3:29">
+    <row r="179" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5367,12 +5384,12 @@
         <v>3.2176298879202987</v>
       </c>
       <c r="X179" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AC179" s="2"/>
     </row>
-    <row r="180" spans="3:29">
+    <row r="180" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5440,12 +5457,12 @@
         <v>3.3210241645244212</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AC180" s="2"/>
     </row>
-    <row r="181" spans="3:29">
+    <row r="181" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5513,12 +5530,12 @@
         <v>3.4233279894004638</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AC181" s="2"/>
     </row>
-    <row r="182" spans="3:29">
+    <row r="182" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5586,12 +5603,12 @@
         <v>3.4605816842457724</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AC182" s="2"/>
     </row>
-    <row r="183" spans="3:29">
+    <row r="183" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5629,7 +5646,7 @@
         <v>0.247</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P183" s="2">
         <v>0.8</v>
@@ -5651,19 +5668,19 @@
         <v>0.42983125506072878</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W183" s="2">
         <f t="shared" si="10"/>
         <v>0.13271040000000001</v>
       </c>
       <c r="X183" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AC183" s="2"/>
     </row>
-    <row r="184" spans="3:29">
+    <row r="184" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5731,12 +5748,12 @@
         <v>0.90645310565635007</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AC184" s="2"/>
     </row>
-    <row r="185" spans="3:29">
+    <row r="185" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C185">
         <v>120</v>
       </c>
@@ -5804,12 +5821,12 @@
         <v>1.4694577162629758</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AC185" s="2"/>
     </row>
-    <row r="186" spans="3:29">
+    <row r="186" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C186">
         <v>60</v>
       </c>
@@ -5877,12 +5894,12 @@
         <v>2.2529086472148538</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AC186" s="2"/>
     </row>
-    <row r="187" spans="3:29">
+    <row r="187" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C187">
         <v>108</v>
       </c>
@@ -5920,7 +5937,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P187" s="2">
         <v>0.18099999999999999</v>
@@ -5942,19 +5959,19 @@
         <v>1.1355150422535212</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W187" s="2">
         <f t="shared" si="10"/>
         <v>0.44542302762430946</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AC187" s="2"/>
     </row>
-    <row r="188" spans="3:29">
+    <row r="188" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6022,12 +6039,12 @@
         <v>2.8954996363636361</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AC188" s="2"/>
     </row>
-    <row r="189" spans="3:29">
+    <row r="189" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6095,12 +6112,12 @@
         <v>3.2451448754716981</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AC189" s="2"/>
     </row>
-    <row r="190" spans="3:29">
+    <row r="190" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6168,12 +6185,12 @@
         <v>2.7607284537313435</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AC190" s="2"/>
     </row>
-    <row r="191" spans="3:29">
+    <row r="191" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6241,12 +6258,12 @@
         <v>1.951147746835443</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AC191" s="2"/>
     </row>
-    <row r="192" spans="3:29">
+    <row r="192" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6284,7 +6301,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P192" s="2">
         <v>1.651</v>
@@ -6306,19 +6323,19 @@
         <v>1.7877139793814434</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W192" s="2">
         <f t="shared" si="10"/>
         <v>0.84025805451241664</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AC192" s="2"/>
     </row>
-    <row r="193" spans="3:29">
+    <row r="193" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6386,12 +6403,12 @@
         <v>3.7903443934426231</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AC193" s="2"/>
     </row>
-    <row r="194" spans="3:29">
+    <row r="194" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6460,12 +6477,12 @@
         <v>4.1449592470588241</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AC194" s="2"/>
     </row>
-    <row r="195" spans="3:29">
+    <row r="195" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6534,12 +6551,12 @@
         <v>3.8767368383547289</v>
       </c>
       <c r="X195" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AC195" s="2"/>
     </row>
-    <row r="196" spans="3:29">
+    <row r="196" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6607,12 +6624,12 @@
         <v>3.2056985511265172</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AC196" s="2"/>
     </row>
-    <row r="197" spans="3:29">
+    <row r="197" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6680,12 +6697,12 @@
         <v>2.0947769694224236</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AC197" s="2"/>
     </row>
-    <row r="198" spans="3:29">
+    <row r="198" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6723,7 +6740,7 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P198" s="2">
         <v>3.2090000000000001</v>
@@ -6745,19 +6762,19 @@
         <v>1.8193653088524593</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W198" s="2">
         <f t="shared" si="10"/>
         <v>0.86460956559675917</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AC198" s="2"/>
     </row>
-    <row r="199" spans="3:29">
+    <row r="199" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C199">
         <v>112</v>
       </c>
@@ -6825,12 +6842,12 @@
         <v>3.8843692117075732</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AC199" s="2"/>
     </row>
-    <row r="200" spans="3:29">
+    <row r="200" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -6899,12 +6916,12 @@
         <v>4.3458163030837014</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AC200" s="2"/>
     </row>
-    <row r="201" spans="3:29">
+    <row r="201" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -6973,12 +6990,12 @@
         <v>4.145539854881636</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AC201" s="2"/>
     </row>
-    <row r="202" spans="3:29">
+    <row r="202" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7046,12 +7063,12 @@
         <v>3.847505073322933</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AC202" s="2"/>
     </row>
-    <row r="203" spans="3:29">
+    <row r="203" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7119,12 +7136,12 @@
         <v>1.3254661870297386</v>
       </c>
       <c r="X203" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AC203" s="2"/>
     </row>
-    <row r="204" spans="3:29">
+    <row r="204" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7162,7 +7179,7 @@
         <v>1.0820000000000001</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P204" s="2">
         <v>2.4</v>
@@ -7184,19 +7201,19 @@
         <v>3.4902462698706098</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W204" s="2">
         <f t="shared" si="10"/>
         <v>1.5735193600000001</v>
       </c>
       <c r="X204" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AC204" s="2"/>
     </row>
-    <row r="205" spans="3:29">
+    <row r="205" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7264,12 +7281,12 @@
         <v>3.0680866242038216</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="3:29">
+    <row r="206" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7337,12 +7354,12 @@
         <v>1.3701393066666667</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AC206" s="2"/>
     </row>
-    <row r="207" spans="3:29">
+    <row r="207" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7410,12 +7427,12 @@
         <v>1.8108631578947367</v>
       </c>
       <c r="X207" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AC207" s="2"/>
     </row>
-    <row r="208" spans="3:29">
+    <row r="208" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7483,12 +7500,12 @@
         <v>1.8740507234042552</v>
       </c>
       <c r="X208" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AC208" s="2"/>
     </row>
-    <row r="209" spans="2:29">
+    <row r="209" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7556,12 +7573,12 @@
         <v>1.4457638787878786</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AC209" s="2"/>
     </row>
-    <row r="210" spans="2:29">
+    <row r="210" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7629,12 +7646,12 @@
         <v>2.8930306306306304</v>
       </c>
       <c r="X210" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AC210" s="2"/>
     </row>
-    <row r="211" spans="2:29">
+    <row r="211" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7702,10 +7719,10 @@
         <v>2.9978736855753643</v>
       </c>
       <c r="X211" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="212" spans="2:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C212">
         <v>56</v>
       </c>
@@ -7773,10 +7790,10 @@
         <v>1.1354745635359116</v>
       </c>
       <c r="X212" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C213">
         <v>28</v>
       </c>
@@ -7844,10 +7861,10 @@
         <v>2.8856288049921996</v>
       </c>
       <c r="X213" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="2:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B214" s="3"/>
       <c r="C214" s="3">
         <v>28</v>
@@ -7916,10 +7933,10 @@
         <v>1.4173854896551723</v>
       </c>
       <c r="X214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C215">
         <v>14</v>
       </c>
@@ -7987,10 +8004,10 @@
         <v>1.4575950070921988</v>
       </c>
       <c r="X215" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8058,10 +8075,10 @@
         <v>4.0036538181818182</v>
       </c>
       <c r="X216" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="2:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B217" s="3"/>
       <c r="C217" s="3">
         <v>14</v>
@@ -8130,10 +8147,10 @@
         <v>1.2925842515723269</v>
       </c>
       <c r="X217" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B218" s="3"/>
       <c r="C218">
         <v>7</v>
@@ -8202,10 +8219,10 @@
         <v>1.3981013333333334</v>
       </c>
       <c r="X218" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B219" s="3"/>
       <c r="C219">
         <v>7</v>
@@ -8274,10 +8291,10 @@
         <v>1.7091134802494803</v>
       </c>
       <c r="X219" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8345,10 +8362,10 @@
         <v>3.236549543307087</v>
       </c>
       <c r="X220" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="2:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8416,10 +8433,10 @@
         <v>1.2125126607669616</v>
       </c>
       <c r="X221" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8487,10 +8504,10 @@
         <v>3.8415120747663551</v>
       </c>
       <c r="X222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="2:29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C223" s="3">
         <v>28</v>
       </c>
@@ -8558,10 +8575,10 @@
         <v>1.764127862660944</v>
       </c>
       <c r="X223" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="2:29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B224" s="3"/>
       <c r="C224">
         <v>14</v>
@@ -8630,10 +8647,10 @@
         <v>1.9667071387559809</v>
       </c>
       <c r="X224" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8701,10 +8718,10 @@
         <v>5.5297102062780272</v>
       </c>
       <c r="X225" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="2:24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C226" s="3">
         <v>14</v>
       </c>
@@ -8772,10 +8789,10 @@
         <v>1.8942018064516131</v>
       </c>
       <c r="X226" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" s="3"/>
       <c r="C227">
         <v>7</v>
@@ -8844,10 +8861,10 @@
         <v>1.9857091400966185</v>
       </c>
       <c r="X227" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" s="3"/>
       <c r="C228">
         <v>7</v>
@@ -8916,10 +8933,10 @@
         <v>1.8920220575373994</v>
       </c>
       <c r="X228" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="229" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" s="3"/>
       <c r="C229">
         <v>700</v>
@@ -8958,7 +8975,7 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P229" s="2">
         <v>1.845</v>
@@ -8980,17 +8997,17 @@
         <v>1.9213763440860214</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W229" s="2">
         <f t="shared" si="21"/>
         <v>0.77479891598915995</v>
       </c>
       <c r="X229" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" s="3"/>
       <c r="C230">
         <v>350</v>
@@ -9059,10 +9076,10 @@
         <v>3.0183810655213379</v>
       </c>
       <c r="X230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="2:24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" s="3"/>
       <c r="C231">
         <v>350</v>
@@ -9131,10 +9148,10 @@
         <v>4.1785896457765661</v>
       </c>
       <c r="X231" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" s="3"/>
       <c r="C232">
         <v>175</v>
@@ -9203,10 +9220,10 @@
         <v>4.222183816950019</v>
       </c>
       <c r="X232" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="233" spans="2:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" s="3"/>
       <c r="C233">
         <v>175</v>
@@ -9275,10 +9292,10 @@
         <v>4.3207102602452885</v>
       </c>
       <c r="X233" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" s="3"/>
       <c r="C234">
         <v>84</v>
@@ -9347,10 +9364,10 @@
         <v>4.7589581629896438</v>
       </c>
       <c r="X234" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="235" spans="2:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" s="3"/>
       <c r="C235">
         <v>84</v>
@@ -9419,10 +9436,10 @@
         <v>4.2929606568290248</v>
       </c>
       <c r="X235" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" s="3"/>
       <c r="C236">
         <v>42</v>
@@ -9491,10 +9508,10 @@
         <v>10.332009853372433</v>
       </c>
       <c r="X236" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="237" spans="2:24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
       <c r="C237">
         <v>112</v>
@@ -9563,10 +9580,10 @@
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="238" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" s="3"/>
       <c r="C238">
         <v>56</v>
@@ -9635,10 +9652,10 @@
         <v>1.4839053862815883</v>
       </c>
       <c r="X238" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="239" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" s="3"/>
       <c r="C239">
         <v>56</v>
@@ -9707,10 +9724,10 @@
         <v>1.4575950070921988</v>
       </c>
       <c r="X239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" s="3"/>
       <c r="C240">
         <v>56</v>
@@ -9779,10 +9796,10 @@
         <v>1.5394823670411983</v>
       </c>
       <c r="X240" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="241" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" s="3"/>
       <c r="C241" s="3">
         <v>28</v>
@@ -9851,10 +9868,10 @@
         <v>2.3759641156069367</v>
       </c>
       <c r="X241" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" s="3"/>
       <c r="C242" s="3">
         <v>28</v>
@@ -9923,10 +9940,10 @@
         <v>2.4108022991202342</v>
       </c>
       <c r="X242" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="243" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
       <c r="C243" s="3">
         <v>28</v>
@@ -9995,10 +10012,10 @@
         <v>1.6709015934959348</v>
       </c>
       <c r="X243" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="244" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" s="3"/>
       <c r="C244" s="3">
         <v>14</v>
@@ -10067,10 +10084,10 @@
         <v>2.4321999526627218</v>
       </c>
       <c r="X244" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="245" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" s="3"/>
       <c r="C245" s="3">
         <v>28</v>
@@ -10139,10 +10156,10 @@
         <v>2.5490963844961234</v>
       </c>
       <c r="X245" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" s="3"/>
       <c r="C246" s="3">
         <v>14</v>
@@ -10211,10 +10228,10 @@
         <v>2.4108022991202342</v>
       </c>
       <c r="X246" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" s="3"/>
       <c r="C247" s="3">
         <v>14</v>
@@ -10283,10 +10300,10 @@
         <v>2.4321999526627218</v>
       </c>
       <c r="X247" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" s="3"/>
       <c r="C248" s="3">
         <v>14</v>
@@ -10355,10 +10372,10 @@
         <v>1.6056319999999999</v>
       </c>
       <c r="X248" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="249" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" s="3"/>
       <c r="C249" s="3">
         <v>7</v>
@@ -10427,10 +10444,10 @@
         <v>3.0776839667221298</v>
       </c>
       <c r="X249" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="2:24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" s="3"/>
       <c r="C250" s="3">
         <v>7</v>
@@ -10499,10 +10516,10 @@
         <v>1.705567601659751</v>
       </c>
       <c r="X250" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" s="3"/>
       <c r="C251" s="3">
         <v>14</v>
@@ -10571,10 +10588,10 @@
         <v>1.6845975081967215</v>
       </c>
       <c r="X251" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" s="3"/>
       <c r="C252" s="3">
         <v>7</v>
@@ -10643,10 +10660,10 @@
         <v>1.6607749171717172</v>
       </c>
       <c r="X252" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="253" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
       <c r="C253">
         <v>112</v>
@@ -10715,10 +10732,10 @@
         <v>0.98453123832335343</v>
       </c>
       <c r="X253" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
       <c r="C254">
         <v>56</v>
@@ -10787,10 +10804,10 @@
         <v>1.6458129809809807</v>
       </c>
       <c r="X254" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="255" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
       <c r="C255">
         <v>56</v>
@@ -10859,10 +10876,10 @@
         <v>1.588567312077295</v>
       </c>
       <c r="X255" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="256" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" s="3"/>
       <c r="C256">
         <v>56</v>
@@ -10931,10 +10948,10 @@
         <v>1.6709015934959348</v>
       </c>
       <c r="X256" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" s="3"/>
       <c r="C257" s="3">
         <v>28</v>
@@ -11003,10 +11020,10 @@
         <v>2.618100585987261</v>
       </c>
       <c r="X257" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="258" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" s="3"/>
       <c r="C258" s="3">
         <v>28</v>
@@ -11075,10 +11092,10 @@
         <v>2.6306674688</v>
       </c>
       <c r="X258" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="259" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" s="3"/>
       <c r="C259" s="3">
         <v>28</v>
@@ -11147,10 +11164,10 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X259" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="260" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" s="3"/>
       <c r="C260" s="3">
         <v>14</v>
@@ -11219,10 +11236,10 @@
         <v>2.8445798754325264</v>
       </c>
       <c r="X260" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="261" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" s="3"/>
       <c r="C261" s="3">
         <v>28</v>
@@ -11291,10 +11308,10 @@
         <v>3.005790069469835</v>
       </c>
       <c r="X261" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="262" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" s="3"/>
       <c r="C262" s="3">
         <v>14</v>
@@ -11363,10 +11380,10 @@
         <v>2.7867240135593221</v>
       </c>
       <c r="X262" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" s="3"/>
       <c r="C263" s="3">
         <v>14</v>
@@ -11435,10 +11452,10 @@
         <v>2.9785637101449272</v>
       </c>
       <c r="X263" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="264" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" s="3"/>
       <c r="C264" s="3">
         <v>14</v>
@@ -11507,10 +11524,10 @@
         <v>2.0248364137931034</v>
       </c>
       <c r="X264" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="265" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" s="3"/>
       <c r="C265" s="3">
         <v>7</v>
@@ -11579,10 +11596,10 @@
         <v>5.2324980594059411</v>
       </c>
       <c r="X265" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="2:24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" s="3"/>
       <c r="C266" s="3">
         <v>7</v>
@@ -11651,10 +11668,10 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X266" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="267" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" s="3"/>
       <c r="C267" s="3">
         <v>14</v>
@@ -11723,10 +11740,10 @@
         <v>2.0399096377171215</v>
       </c>
       <c r="X267" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="268" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" s="3"/>
       <c r="C268" s="3">
         <v>7</v>
@@ -11795,10 +11812,10 @@
         <v>2.3092235505617977</v>
       </c>
       <c r="X268" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="269" spans="2:24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -11806,41 +11823,41 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="271" spans="2:24">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+      <c r="G278" t="s">
         <v>11</v>
       </c>
-      <c r="D278" t="s">
+      <c r="H278" t="s">
         <v>10</v>
       </c>
-      <c r="E278" t="s">
-        <v>9</v>
-      </c>
-      <c r="G278" t="s">
-        <v>14</v>
-      </c>
-      <c r="H278" t="s">
-        <v>13</v>
-      </c>
       <c r="I278" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J278" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>1760</v>
       </c>
@@ -11865,7 +11882,7 @@
         <v>0.66544536912751673</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>1760</v>
       </c>
@@ -11890,7 +11907,7 @@
         <v>0.99699708396178977</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>1760</v>
       </c>
@@ -11915,7 +11932,7 @@
         <v>1.5538530010970066</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C283">
         <v>1760</v>
       </c>
@@ -11940,7 +11957,7 @@
         <v>2.4792488591610926</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>2048</v>
       </c>
@@ -11965,7 +11982,7 @@
         <v>0.81512140862173654</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>2048</v>
       </c>
@@ -11990,7 +12007,7 @@
         <v>1.5247075070982394</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>2048</v>
       </c>
@@ -12015,7 +12032,7 @@
         <v>2.2843371788327378</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C287">
         <v>2048</v>
       </c>
@@ -12040,7 +12057,7 @@
         <v>2.9928216240316559</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C288">
         <v>2560</v>
       </c>
@@ -12065,7 +12082,7 @@
         <v>0.83402051689860834</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C289">
         <v>2560</v>
       </c>
@@ -12090,7 +12107,7 @@
         <v>1.87466404504424</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C290">
         <v>2560</v>
       </c>
@@ -12115,7 +12132,7 @@
         <v>2.722161572902472</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>2560</v>
       </c>
@@ -12140,46 +12157,46 @@
         <v>3.2874564689287675</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D295" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E295" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I295" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J295" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>512</v>
       </c>
@@ -12204,7 +12221,7 @@
         <v>0.27603185258308655</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>512</v>
       </c>
@@ -12229,7 +12246,7 @@
         <v>0.52874932240781591</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>512</v>
       </c>
@@ -12254,7 +12271,7 @@
         <v>0.85120324708269912</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>512</v>
       </c>
@@ -12279,7 +12296,7 @@
         <v>0.94960894297438792</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>1024</v>
       </c>
@@ -12304,7 +12321,7 @@
         <v>0.63489937559129617</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>1024</v>
       </c>
@@ -12329,7 +12346,7 @@
         <v>0.54133148342340887</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>1024</v>
       </c>
@@ -12354,7 +12371,7 @@
         <v>0.92005571702769406</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>1024</v>
       </c>
@@ -12379,7 +12396,7 @@
         <v>2.798243052225581</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>2048</v>
       </c>
@@ -12404,7 +12421,7 @@
         <v>1.0577486641973362</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>2048</v>
       </c>
@@ -12429,7 +12446,7 @@
         <v>2.345643621111499</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>2048</v>
       </c>
@@ -12454,7 +12471,7 @@
         <v>3.3103398199531386</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>2048</v>
       </c>
@@ -12479,7 +12496,7 @@
         <v>3.4833473609083541</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>4096</v>
       </c>
@@ -12504,7 +12521,7 @@
         <v>0.95840711212667573</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>4096</v>
       </c>
@@ -12529,7 +12546,7 @@
         <v>2.7991913866367732</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>4096</v>
       </c>
@@ -12554,7 +12571,7 @@
         <v>3.7917290204110454</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>4096</v>
       </c>
@@ -12579,7 +12596,7 @@
         <v>3.8282295493439826</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>1536</v>
       </c>
@@ -12604,7 +12621,7 @@
         <v>0.61111762991743568</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C313">
         <v>1536</v>
       </c>
@@ -12629,7 +12646,7 @@
         <v>1.0681589134125637</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C314">
         <v>1536</v>
       </c>
@@ -12654,7 +12671,7 @@
         <v>1.8751312511642346</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C315">
         <v>256</v>
       </c>
@@ -12679,7 +12696,7 @@
         <v>0.1015160306575232</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>256</v>
       </c>
@@ -12704,7 +12721,7 @@
         <v>0.20392046025443644</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>256</v>
       </c>
@@ -12729,35 +12746,35 @@
         <v>0.38462209995414948</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C320" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D320" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E320" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>2816</v>
       </c>
@@ -12782,7 +12799,7 @@
         <v>2.923434247648502</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322">
         <v>2816</v>
       </c>
@@ -12807,7 +12824,7 @@
         <v>2.9140118765391141</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>2816</v>
       </c>
@@ -12832,7 +12849,7 @@
         <v>2.8933014011705982</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>2816</v>
       </c>
@@ -12857,7 +12874,7 @@
         <v>2.8598906103622155</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325">
         <v>2048</v>
       </c>
@@ -12882,7 +12899,7 @@
         <v>2.2822349118060488</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>2048</v>
       </c>
@@ -12907,7 +12924,7 @@
         <v>2.2703275395441151</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327">
         <v>2048</v>
       </c>
@@ -12932,7 +12949,7 @@
         <v>2.2449942237784071</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>2048</v>
       </c>
@@ -12957,7 +12974,7 @@
         <v>2.1982992353147259</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329">
         <v>1536</v>
       </c>
@@ -12982,7 +12999,7 @@
         <v>1.8412321032750372</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>1536</v>
       </c>
@@ -13007,7 +13024,7 @@
         <v>1.8286753649399301</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331">
         <v>1536</v>
       </c>
@@ -13032,7 +13049,7 @@
         <v>1.7981296919657033</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>1536</v>
       </c>
@@ -13057,7 +13074,7 @@
         <v>1.731954519290928</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333">
         <v>2560</v>
       </c>
@@ -13082,7 +13099,7 @@
         <v>2.7157012355235688</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>2560</v>
       </c>
@@ -13107,7 +13124,7 @@
         <v>2.7019042083835556</v>
       </c>
     </row>
-    <row r="335" spans="3:10">
+    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C335">
         <v>2560</v>
       </c>
@@ -13132,7 +13149,7 @@
         <v>2.6773824181934756</v>
       </c>
     </row>
-    <row r="336" spans="3:10">
+    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C336">
         <v>2560</v>
       </c>
@@ -13157,7 +13174,7 @@
         <v>2.6274994070550401</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C337">
         <v>512</v>
       </c>
@@ -13182,7 +13199,7 @@
         <v>0.52428799999999998</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C338">
         <v>1024</v>
       </c>
@@ -13207,7 +13224,7 @@
         <v>0.93773739368589715</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C339">
         <v>1024</v>
       </c>
@@ -13232,39 +13249,39 @@
         <v>1.1739342419318475</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D342" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I342" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J342" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K342" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="344" spans="1:15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C344">
         <v>100000</v>
       </c>
@@ -13272,23 +13289,22 @@
         <v>2</v>
       </c>
       <c r="G344" s="2">
-        <v>6.9260000000000002E-2</v>
+        <v>0.10978269999999998</v>
       </c>
       <c r="H344" s="2"/>
       <c r="I344" s="2">
-        <f t="shared" ref="I344:I368" si="34">C344*4*D344/(G344/1000)/10^9</f>
-        <v>11.55067860236789</v>
+        <v>7.2871226522940331</v>
       </c>
       <c r="J344" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K344" s="2">
-        <v>1.1280070921800001E-3</v>
+        <v>2.2696037238156561E-3</v>
       </c>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C345">
         <v>100000</v>
       </c>
@@ -13296,23 +13312,22 @@
         <v>4</v>
       </c>
       <c r="G345" s="2">
-        <v>0.11214</v>
+        <v>0.17807330000000002</v>
       </c>
       <c r="H345" s="2"/>
       <c r="I345" s="2">
-        <f t="shared" si="34"/>
-        <v>14.267879436418761</v>
+        <v>8.9850640157732791</v>
       </c>
       <c r="J345" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K345" s="2">
-        <v>0</v>
+        <v>3.3197148910553633E-3</v>
       </c>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C346">
         <v>100000</v>
       </c>
@@ -13320,23 +13335,22 @@
         <v>8</v>
       </c>
       <c r="G346" s="2">
-        <v>0.27888000000000002</v>
+        <v>0.24926260000000006</v>
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2">
-        <f t="shared" si="34"/>
-        <v>11.474469305794607</v>
+        <v>12.837866571238521</v>
       </c>
       <c r="J346" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K346" s="2">
-        <v>3.53632577685E-3</v>
+        <v>2.9536964601914262E-3</v>
       </c>
       <c r="N346" s="2"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C347">
         <v>100000</v>
       </c>
@@ -13347,20 +13361,19 @@
         <v>2</v>
       </c>
       <c r="G347" s="2">
-        <v>0.53879115384599996</v>
+        <v>0.46330629999999989</v>
       </c>
       <c r="I347" s="2">
-        <f t="shared" si="34"/>
-        <v>11.878442981692457</v>
+        <v>13.813755608330821</v>
       </c>
       <c r="J347" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="K347" s="2">
-        <v>5.2251169020899997E-2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15">
+        <v>4.2256619923609828E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C348">
         <v>100000</v>
       </c>
@@ -13371,20 +13384,19 @@
         <v>4</v>
       </c>
       <c r="G348" s="2">
-        <v>0.73525240000000003</v>
+        <v>0.75471904999999995</v>
       </c>
       <c r="I348" s="2">
-        <f t="shared" si="34"/>
-        <v>17.408987716327072</v>
+        <v>16.959953508527445</v>
       </c>
       <c r="J348" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="K348" s="2">
-        <v>3.71166395871E-2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15">
+        <v>2.0141545112619435E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C349">
         <v>3097600</v>
       </c>
@@ -13392,73 +13404,68 @@
         <v>2</v>
       </c>
       <c r="G349" s="2">
-        <v>1.2051400000000001</v>
+        <v>2.0499735000000001</v>
       </c>
       <c r="H349" s="2"/>
       <c r="I349" s="2">
-        <f t="shared" si="34"/>
-        <v>20.562590238478517</v>
+        <v>12.088351386005721</v>
       </c>
       <c r="J349" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K349" s="2">
-        <v>4.8621394467899997E-3</v>
+        <v>6.3579813767297266E-2</v>
       </c>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C350">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D350">
         <v>4</v>
       </c>
       <c r="G350" s="2">
-        <v>2.0541800000000001</v>
+        <v>3.1284599999999996</v>
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2">
-        <f t="shared" si="34"/>
-        <v>24.127194306243855</v>
+        <v>15.84217154766243</v>
       </c>
       <c r="J350" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K350" s="2">
-        <v>3.6534367382000002E-3</v>
+        <v>6.0916603907136165E-3</v>
       </c>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C351">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D351">
         <v>8</v>
       </c>
       <c r="G351" s="2">
-        <v>4.27142</v>
+        <v>3.6682700000000006</v>
       </c>
       <c r="H351" s="2"/>
       <c r="I351" s="2">
-        <f t="shared" si="34"/>
-        <v>23.206146901967031</v>
+        <v>27.021784110766109</v>
       </c>
       <c r="J351" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K351" s="2">
-        <v>5.1428042933800003E-2</v>
+        <v>4.3355543565900849E-3</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C352">
         <v>3097600</v>
       </c>
@@ -13469,20 +13476,19 @@
         <v>2</v>
       </c>
       <c r="G352" s="2">
-        <v>27.527460769200001</v>
+        <v>5.776419999999999</v>
       </c>
       <c r="I352" s="2">
-        <f t="shared" si="34"/>
-        <v>7.201768505354277</v>
+        <v>34.319942109472656</v>
       </c>
       <c r="J352" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K352" s="2">
-        <v>2.5815552561000001</v>
-      </c>
-    </row>
-    <row r="353" spans="3:15">
+        <v>4.6878417208775329E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C353">
         <v>3097600</v>
       </c>
@@ -13493,20 +13499,19 @@
         <v>4</v>
       </c>
       <c r="G353" s="2">
-        <v>29.464853000000002</v>
+        <v>5.621681999999999</v>
       </c>
       <c r="I353" s="2">
-        <f t="shared" si="34"/>
-        <v>13.456466251503103</v>
+        <v>70.529211719908758</v>
       </c>
       <c r="J353" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K353" s="2">
-        <v>1.4753345498899999</v>
-      </c>
-    </row>
-    <row r="354" spans="3:15">
+        <v>9.5289644878405987E-3</v>
+      </c>
+    </row>
+    <row r="354" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C354">
         <v>4194304</v>
       </c>
@@ -13514,73 +13519,68 @@
         <v>2</v>
       </c>
       <c r="G354" s="2">
-        <v>1.61422</v>
+        <v>2.7555604999999996</v>
       </c>
       <c r="H354" s="2"/>
       <c r="I354" s="2">
-        <f t="shared" si="34"/>
-        <v>20.786777514836889</v>
+        <v>12.176989763062725</v>
       </c>
       <c r="J354" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K354" s="2">
-        <v>7.1478388342199996E-3</v>
+        <v>9.6685842183249451E-2</v>
       </c>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="3:15">
+    <row r="355" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C355">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D355">
         <v>4</v>
       </c>
       <c r="G355" s="2">
-        <v>2.7614000000000001</v>
+        <v>4.218324</v>
       </c>
       <c r="H355" s="2"/>
       <c r="I355" s="2">
-        <f t="shared" si="34"/>
-        <v>24.302478452958642</v>
+        <v>15.908892726115869</v>
       </c>
       <c r="J355" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K355" s="2">
-        <v>3.86781592116E-3</v>
+        <v>6.1311726361877074E-3</v>
       </c>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="3:15">
+    <row r="356" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C356">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D356">
         <v>8</v>
       </c>
       <c r="G356" s="2">
-        <v>5.7484200000000003</v>
+        <v>4.7618644999999997</v>
       </c>
       <c r="H356" s="2"/>
       <c r="I356" s="2">
-        <f t="shared" si="34"/>
-        <v>23.348629362503086</v>
+        <v>28.185961192301878</v>
       </c>
       <c r="J356" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K356" s="2">
-        <v>5.6394357873799997E-2</v>
+        <v>3.6067560508754861E-3</v>
       </c>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="3:15">
+    <row r="357" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C357">
         <v>4194304</v>
       </c>
@@ -13591,21 +13591,20 @@
         <v>2</v>
       </c>
       <c r="G357" s="2">
-        <v>34.004162884599999</v>
+        <v>7.9331619999999985</v>
       </c>
       <c r="I357" s="2">
-        <f t="shared" si="34"/>
-        <v>7.8941939229908398</v>
+        <v>33.837132785136625</v>
       </c>
       <c r="J357" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K357" s="2">
-        <v>3.6075336384900001</v>
+        <v>2.7993788709565332E-2</v>
       </c>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="3:15">
+    <row r="358" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C358">
         <v>4194304</v>
       </c>
@@ -13616,21 +13615,20 @@
         <v>4</v>
       </c>
       <c r="G358" s="2">
-        <v>37.550554400000003</v>
+        <v>7.8508410000000008</v>
       </c>
       <c r="I358" s="2">
-        <f t="shared" si="34"/>
-        <v>14.297283237980633</v>
+        <v>68.383872759618995</v>
       </c>
       <c r="J358" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K358" s="2">
-        <v>2.3116346773899998</v>
+        <v>1.3483624337067398E-2</v>
       </c>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="3:15">
+    <row r="359" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C359">
         <v>6553600</v>
       </c>
@@ -13638,73 +13636,68 @@
         <v>2</v>
       </c>
       <c r="G359" s="2">
-        <v>2.5072199999999998</v>
+        <v>4.3164745</v>
       </c>
       <c r="H359" s="2"/>
       <c r="I359" s="2">
-        <f t="shared" si="34"/>
-        <v>20.911128660428684</v>
+        <v>12.146208670988328</v>
       </c>
       <c r="J359" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K359" s="2">
-        <v>1.089089528E-2</v>
+        <v>0.13576660508988064</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="3:15">
+    <row r="360" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C360">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D360">
         <v>4</v>
       </c>
       <c r="G360" s="2">
-        <v>4.2870400000000002</v>
+        <v>6.6090249999999999</v>
       </c>
       <c r="H360" s="2"/>
       <c r="I360" s="2">
-        <f t="shared" si="34"/>
-        <v>24.459207285213107</v>
+        <v>15.865819844833391</v>
       </c>
       <c r="J360" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K360" s="2">
-        <v>5.91256289607E-3</v>
+        <v>1.1830816361919905E-2</v>
       </c>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="3:15">
+    <row r="361" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C361">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D361">
         <v>8</v>
       </c>
       <c r="G361" s="2">
-        <v>9.0180000000000007</v>
+        <v>7.4917929999999995</v>
       </c>
       <c r="H361" s="2"/>
       <c r="I361" s="2">
-        <f t="shared" si="34"/>
-        <v>23.255178531825237</v>
+        <v>27.992658099336172</v>
       </c>
       <c r="J361" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K361" s="2">
-        <v>0.10097979996000001</v>
+        <v>7.3726115490124478E-3</v>
       </c>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="3:15">
+    <row r="362" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C362">
         <v>6553600</v>
       </c>
@@ -13715,20 +13708,19 @@
         <v>2</v>
       </c>
       <c r="G362" s="2">
-        <v>47.726722352899998</v>
+        <v>10.902235000000001</v>
       </c>
       <c r="I362" s="2">
-        <f t="shared" si="34"/>
-        <v>8.7881668659049303</v>
+        <v>38.471964693477979</v>
       </c>
       <c r="J362" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K362" s="2">
-        <v>4.5960374827999999</v>
-      </c>
-    </row>
-    <row r="363" spans="3:15">
+        <v>5.9074175273215068E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C363">
         <v>6553600</v>
       </c>
@@ -13739,95 +13731,88 @@
         <v>4</v>
       </c>
       <c r="G363" s="2">
-        <v>55.967877399999999</v>
+        <v>12.412265</v>
       </c>
       <c r="I363" s="2">
-        <f t="shared" si="34"/>
-        <v>14.988254673385203</v>
+        <v>67.583217084069659</v>
       </c>
       <c r="J363" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K363" s="2">
-        <v>3.62380978284</v>
-      </c>
-    </row>
-    <row r="364" spans="3:15">
+        <v>1.2376857648981601E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C364">
-        <f t="shared" ref="C364:C366" si="35">4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D364">
         <v>2</v>
       </c>
       <c r="G364" s="2">
-        <v>6.3611000000000004</v>
+        <v>13.737549999999999</v>
       </c>
       <c r="H364" s="2"/>
       <c r="I364" s="2">
-        <f t="shared" si="34"/>
-        <v>21.099767021427109</v>
+        <v>9.7701357228909096</v>
       </c>
       <c r="J364" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="K364" s="2">
-        <v>2.8210104572699998E-2</v>
+        <v>0.52290056164477483</v>
       </c>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="3:15">
+    <row r="365" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C365">
-        <f t="shared" si="35"/>
         <v>16777216</v>
       </c>
       <c r="D365">
         <v>4</v>
       </c>
       <c r="G365" s="2">
-        <v>10.941940000000001</v>
+        <v>19.364249999999998</v>
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2">
-        <f t="shared" si="34"/>
-        <v>24.532711383904498</v>
+        <v>13.862424622693881</v>
       </c>
       <c r="J365" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="K365" s="2">
-        <v>1.26101704985E-2</v>
+        <v>0.10638553275209651</v>
       </c>
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="3:15">
+    <row r="366" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C366">
-        <f t="shared" si="35"/>
         <v>16777216</v>
       </c>
       <c r="D366">
         <v>8</v>
       </c>
       <c r="G366" s="2">
-        <v>23.006440000000001</v>
+        <v>22.91695</v>
       </c>
       <c r="H366" s="2"/>
       <c r="I366" s="2">
-        <f t="shared" si="34"/>
-        <v>23.335679574936407</v>
+        <v>23.426804701323697</v>
       </c>
       <c r="J366" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="K366" s="2">
-        <v>0.30328634390600001</v>
+        <v>0.45263677490897697</v>
       </c>
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="3:15">
+    <row r="367" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C367">
         <v>16777216</v>
       </c>
@@ -13838,22 +13823,21 @@
         <v>2</v>
       </c>
       <c r="G367" s="2">
-        <v>117.93626879999999</v>
+        <v>50.328490000000002</v>
       </c>
       <c r="H367" s="2"/>
       <c r="I367" s="2">
-        <f t="shared" si="34"/>
-        <v>9.1044242362871834</v>
+        <v>21.334671952208382</v>
       </c>
       <c r="J367" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K367" s="2">
-        <v>7.7301964745499996</v>
+        <v>0.24557020413294217</v>
       </c>
       <c r="N367" s="2"/>
     </row>
-    <row r="368" spans="3:15">
+    <row r="368" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C368">
         <v>16777216</v>
       </c>
@@ -13864,45 +13848,240 @@
         <v>4</v>
       </c>
       <c r="G368" s="2">
-        <v>128.44243259999999</v>
+        <v>52.995055000000001</v>
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2">
-        <f t="shared" si="34"/>
-        <v>16.719425228325989</v>
+        <v>40.522340207024982</v>
       </c>
       <c r="J368" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K368" s="2">
-        <v>6.3795176004399998</v>
+        <v>9.69673492253421E-2</v>
       </c>
       <c r="N368" s="2"/>
     </row>
-    <row r="369" spans="7:16">
-      <c r="I369" s="2"/>
-      <c r="J369" s="2"/>
-      <c r="K369" s="2"/>
+    <row r="369" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <v>38360000</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="G369" s="2">
+        <v>26.103570000000001</v>
+      </c>
+      <c r="I369" s="2">
+        <v>11.756246367833979</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K369" s="2">
+        <v>1.2326501890343085</v>
+      </c>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
       <c r="O369" s="2"/>
       <c r="P369" s="2"/>
     </row>
-    <row r="370" spans="7:16">
-      <c r="G370" s="1"/>
-    </row>
-    <row r="376" spans="7:16">
-      <c r="G376" s="1"/>
+    <row r="370" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>38360000</v>
+      </c>
+      <c r="D370">
+        <v>4</v>
+      </c>
+      <c r="G370" s="2">
+        <v>38.538440000000001</v>
+      </c>
+      <c r="I370" s="2">
+        <v>15.925917084344878</v>
+      </c>
+      <c r="J370" t="s">
+        <v>81</v>
+      </c>
+      <c r="K370" s="2">
+        <v>8.0857186641504208E-2</v>
+      </c>
+    </row>
+    <row r="371" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>38360000</v>
+      </c>
+      <c r="D371">
+        <v>8</v>
+      </c>
+      <c r="G371" s="2">
+        <v>43.627705000000006</v>
+      </c>
+      <c r="I371" s="2">
+        <v>28.136249660622759</v>
+      </c>
+      <c r="J371" t="s">
+        <v>81</v>
+      </c>
+      <c r="K371" s="2">
+        <v>8.7409264082065966E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>38360000</v>
+      </c>
+      <c r="D372">
+        <v>16</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="G372" s="2">
+        <v>71.435010000000005</v>
+      </c>
+      <c r="I372" s="2">
+        <v>34.367462116964774</v>
+      </c>
+      <c r="J372" t="s">
+        <v>81</v>
+      </c>
+      <c r="K372" s="2">
+        <v>0.16647151455397538</v>
+      </c>
+    </row>
+    <row r="373" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>38360000</v>
+      </c>
+      <c r="D373">
+        <v>32</v>
+      </c>
+      <c r="E373">
+        <v>4</v>
+      </c>
+      <c r="G373" s="2">
+        <v>72.511695000000003</v>
+      </c>
+      <c r="I373" s="2">
+        <v>67.714318359266045</v>
+      </c>
+      <c r="J373" t="s">
+        <v>81</v>
+      </c>
+      <c r="K373" s="2">
+        <v>0.1073846479030543</v>
+      </c>
+    </row>
+    <row r="374" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>64500000</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+      <c r="G374" s="2">
+        <v>43.206569999999999</v>
+      </c>
+      <c r="I374" s="2">
+        <v>11.94262816974363</v>
+      </c>
+      <c r="J374" t="s">
+        <v>81</v>
+      </c>
+      <c r="K374" s="2">
+        <v>1.7852796682283356</v>
+      </c>
+    </row>
+    <row r="375" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>64500000</v>
+      </c>
+      <c r="D375">
+        <v>4</v>
+      </c>
+      <c r="G375" s="2">
+        <v>64.767275000000012</v>
+      </c>
+      <c r="I375" s="2">
+        <v>15.933972828098755</v>
+      </c>
+      <c r="J375" t="s">
+        <v>81</v>
+      </c>
+      <c r="K375" s="2">
+        <v>0.14894533393161236</v>
+      </c>
+    </row>
+    <row r="376" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>64500000</v>
+      </c>
+      <c r="D376">
+        <v>8</v>
+      </c>
+      <c r="G376" s="2">
+        <v>73.171104999999983</v>
+      </c>
+      <c r="I376" s="2">
+        <v>28.207856092920839</v>
+      </c>
+      <c r="J376" t="s">
+        <v>81</v>
+      </c>
+      <c r="K376" s="2">
+        <v>0.23929681079758283</v>
+      </c>
+    </row>
+    <row r="377" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>64500000</v>
+      </c>
+      <c r="D377">
+        <v>16</v>
+      </c>
+      <c r="E377">
+        <v>2</v>
+      </c>
+      <c r="G377" s="2">
+        <v>119.6215</v>
+      </c>
+      <c r="I377" s="2">
+        <v>34.508846653820598</v>
+      </c>
+      <c r="J377" t="s">
+        <v>81</v>
+      </c>
+      <c r="K377" s="2">
+        <v>0.35306127394249198</v>
+      </c>
+    </row>
+    <row r="378" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>64500000</v>
+      </c>
+      <c r="D378">
+        <v>32</v>
+      </c>
+      <c r="E378">
+        <v>4</v>
+      </c>
+      <c r="G378" s="2">
+        <v>120.48264999999999</v>
+      </c>
+      <c r="I378" s="2">
+        <v>68.524389196286776</v>
+      </c>
+      <c r="J378" t="s">
+        <v>81</v>
+      </c>
+      <c r="K378" s="2">
+        <v>0.25136182245813254</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13914,113 +14093,108 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8">
         <v>352.99</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B12" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_NV_M40.xlsx
+++ b/results/train/DeepBench_NV_M40.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E08D1DD4-FDF1-9841-A874-762A301E42C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34720" windowHeight="19280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="1" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="91">
   <si>
     <t>Selected Algorithm</t>
   </si>
@@ -40,9 +41,6 @@
   </si>
   <si>
     <t>All-Reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Backward (msec) </t>
   </si>
   <si>
     <t xml:space="preserve">Time Forward (msec) </t>
@@ -58,9 +56,6 @@
   </si>
   <si>
     <t>Recurrent Layers - LSTM</t>
-  </si>
-  <si>
-    <t>Time Backward (msec)</t>
   </si>
   <si>
     <t>Time Forward (msec)</t>
@@ -160,9 +155,6 @@
   </si>
   <si>
     <t>TERAFLOPS FWD</t>
-  </si>
-  <si>
-    <t>TERAFLOPS BWD</t>
   </si>
   <si>
     <t>Gigabytes/sec</t>
@@ -284,11 +276,38 @@
   <si>
     <t>Baidu RingAllReduce</t>
   </si>
+  <si>
+    <t>Time Backward wrt inputs (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt weights (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Params</t>
+  </si>
+  <si>
+    <t>DeepSpeech</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Modelling</t>
+  </si>
+  <si>
+    <t>Speaker ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -404,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -422,6 +441,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -477,6 +497,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,24 +826,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC378"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="J378" sqref="J378"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="24.1640625" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" customWidth="1"/>
     <col min="14" max="14" width="20.1640625" customWidth="1"/>
     <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -830,36 +854,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -873,10 +897,10 @@
         <v>1760</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="2">
         <v>0.192</v>
@@ -898,10 +922,10 @@
         <v>1760</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="2">
         <v>0.192</v>
@@ -923,10 +947,10 @@
         <v>1760</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2">
         <v>0.26100000000000001</v>
@@ -948,10 +972,10 @@
         <v>1760</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
         <v>0.33600000000000002</v>
@@ -973,10 +997,10 @@
         <v>1760</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="2">
         <v>13.548999999999999</v>
@@ -998,10 +1022,10 @@
         <v>2048</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I9" s="2">
         <v>0.221</v>
@@ -1023,10 +1047,10 @@
         <v>2048</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
         <v>0.223</v>
@@ -1048,10 +1072,10 @@
         <v>2048</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2">
         <v>0.3</v>
@@ -1073,10 +1097,10 @@
         <v>2048</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="2">
         <v>0.35299999999999998</v>
@@ -1098,10 +1122,10 @@
         <v>2048</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="2">
         <v>13.573</v>
@@ -1123,10 +1147,10 @@
         <v>2560</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2">
         <v>0.372</v>
@@ -1148,10 +1172,10 @@
         <v>2560</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="2">
         <v>0.372</v>
@@ -1173,10 +1197,10 @@
         <v>2560</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="2">
         <v>0.38600000000000001</v>
@@ -1198,10 +1222,10 @@
         <v>2560</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>0.443</v>
@@ -1223,10 +1247,10 @@
         <v>2560</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="2">
         <v>21.047000000000001</v>
@@ -1248,10 +1272,10 @@
         <v>4096</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="2">
         <v>0.78600000000000003</v>
@@ -1273,10 +1297,10 @@
         <v>4096</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2">
         <v>0.78900000000000003</v>
@@ -1298,10 +1322,10 @@
         <v>4096</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="2">
         <v>0.70299999999999996</v>
@@ -1323,10 +1347,10 @@
         <v>4096</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="2">
         <v>1.012</v>
@@ -1348,10 +1372,10 @@
         <v>4096</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
         <v>53.625999999999998</v>
@@ -1373,10 +1397,10 @@
         <v>1760</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
         <v>0.185</v>
@@ -1398,10 +1422,10 @@
         <v>1760</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="2">
         <v>0.186</v>
@@ -1423,10 +1447,10 @@
         <v>1760</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2">
         <v>0.317</v>
@@ -1448,10 +1472,10 @@
         <v>1760</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2">
         <v>0.35499999999999998</v>
@@ -1473,10 +1497,10 @@
         <v>1760</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="2">
         <v>15.186999999999999</v>
@@ -1498,10 +1522,10 @@
         <v>2048</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
         <v>0.22</v>
@@ -1523,10 +1547,10 @@
         <v>2048</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2">
         <v>0.221</v>
@@ -1548,10 +1572,10 @@
         <v>2048</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="2">
         <v>0.42099999999999999</v>
@@ -1573,10 +1597,10 @@
         <v>2048</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2">
         <v>0.37</v>
@@ -1598,10 +1622,10 @@
         <v>2048</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2">
         <v>14.875999999999999</v>
@@ -1623,10 +1647,10 @@
         <v>2560</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34" s="2">
         <v>0.37</v>
@@ -1648,10 +1672,10 @@
         <v>2560</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2">
         <v>0.36499999999999999</v>
@@ -1673,10 +1697,10 @@
         <v>2560</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2">
         <v>0.66800000000000004</v>
@@ -1698,10 +1722,10 @@
         <v>2560</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="2">
         <v>0.52600000000000002</v>
@@ -1723,10 +1747,10 @@
         <v>2560</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="2">
         <v>26.082999999999998</v>
@@ -1748,10 +1772,10 @@
         <v>4096</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="2">
         <v>0.8</v>
@@ -1773,10 +1797,10 @@
         <v>4096</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2">
         <v>0.80600000000000005</v>
@@ -1798,10 +1822,10 @@
         <v>4096</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="2">
         <v>0.89800000000000002</v>
@@ -1823,10 +1847,10 @@
         <v>4096</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="2">
         <v>1.206</v>
@@ -1848,10 +1872,10 @@
         <v>4096</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="2">
         <v>63.545999999999999</v>
@@ -1873,13 +1897,13 @@
         <v>1760</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I44" s="2">
         <v>13.733000000000001</v>
@@ -1901,10 +1925,10 @@
         <v>2048</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I45" s="2">
         <v>13.672000000000001</v>
@@ -1926,10 +1950,10 @@
         <v>2560</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I46" s="2">
         <v>21.148</v>
@@ -1951,10 +1975,10 @@
         <v>4096</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I47" s="2">
         <v>53.929000000000002</v>
@@ -1986,10 +2010,10 @@
         <v>1760</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I50" s="2">
         <v>36.457999999999998</v>
@@ -2011,10 +2035,10 @@
         <v>1760</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I51" s="2">
         <v>0.96699999999999997</v>
@@ -2036,10 +2060,10 @@
         <v>2048</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I52" s="2">
         <v>42.45</v>
@@ -2061,10 +2085,10 @@
         <v>2048</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I53" s="2">
         <v>0.85399999999999998</v>
@@ -2086,10 +2110,10 @@
         <v>2560</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54" s="2">
         <v>53.197000000000003</v>
@@ -2111,10 +2135,10 @@
         <v>2560</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I55" s="2">
         <v>1.3160000000000001</v>
@@ -2136,10 +2160,10 @@
         <v>4096</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I56" s="2">
         <v>84.466999999999999</v>
@@ -2161,10 +2185,10 @@
         <v>4096</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I57" s="2">
         <v>1.6739999999999999</v>
@@ -2186,10 +2210,10 @@
         <v>1760</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I58" s="2">
         <v>46.712000000000003</v>
@@ -2211,10 +2235,10 @@
         <v>1760</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I59" s="2">
         <v>0.68500000000000005</v>
@@ -2236,10 +2260,10 @@
         <v>2048</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I60" s="2">
         <v>53.628</v>
@@ -2261,10 +2285,10 @@
         <v>2048</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I61" s="2">
         <v>0.79</v>
@@ -2286,10 +2310,10 @@
         <v>2560</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62" s="2">
         <v>71.004999999999995</v>
@@ -2311,10 +2335,10 @@
         <v>2560</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I63" s="2">
         <v>0.97799999999999998</v>
@@ -2336,10 +2360,10 @@
         <v>4096</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I64" s="2">
         <v>110.792</v>
@@ -2361,10 +2385,10 @@
         <v>4096</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I65" s="2">
         <v>1.5409999999999999</v>
@@ -2391,10 +2415,10 @@
         <v>2560</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I67" s="2">
         <v>0.89400000000000002</v>
@@ -2416,10 +2440,10 @@
         <v>2560</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I68" s="2">
         <v>0.88900000000000001</v>
@@ -2441,10 +2465,10 @@
         <v>2560</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I69" s="2">
         <v>0.64200000000000002</v>
@@ -2466,10 +2490,10 @@
         <v>2560</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>1.254</v>
@@ -2491,10 +2515,10 @@
         <v>2560</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I71" s="2">
         <v>0.90100000000000002</v>
@@ -2516,10 +2540,10 @@
         <v>2560</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I72" s="2">
         <v>0.90700000000000003</v>
@@ -2541,10 +2565,10 @@
         <v>2560</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I73" s="2">
         <v>1.1619999999999999</v>
@@ -2566,10 +2590,10 @@
         <v>2560</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I74" s="2">
         <v>1.885</v>
@@ -2592,10 +2616,10 @@
         <v>1024</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I75" s="2">
         <v>0.19900000000000001</v>
@@ -2618,10 +2642,10 @@
         <v>1024</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I76" s="2">
         <v>0.20100000000000001</v>
@@ -2644,10 +2668,10 @@
         <v>1024</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I77" s="2">
         <v>0.17599999999999999</v>
@@ -2670,10 +2694,10 @@
         <v>1024</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I78" s="2">
         <v>0.2</v>
@@ -2696,10 +2720,10 @@
         <v>1024</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I79" s="2">
         <v>0.23100000000000001</v>
@@ -2722,10 +2746,10 @@
         <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I80" s="2">
         <v>0.23200000000000001</v>
@@ -2748,10 +2772,10 @@
         <v>1024</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I81" s="2">
         <v>0.254</v>
@@ -2774,10 +2798,10 @@
         <v>1024</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I82" s="2">
         <v>0.22600000000000001</v>
@@ -2804,10 +2828,10 @@
         <v>1024</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I84" s="2">
         <v>9.9060000000000006</v>
@@ -2829,10 +2853,10 @@
         <v>2560</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I85" s="2">
         <v>51.033999999999999</v>
@@ -2854,10 +2878,10 @@
         <v>500000</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I87" s="2">
         <v>5.1929999999999996</v>
@@ -2878,10 +2902,10 @@
         <v>500000</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2">
         <v>7.9690000000000003</v>
@@ -2902,10 +2926,10 @@
         <v>500000</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I89" s="2">
         <v>10.574999999999999</v>
@@ -2926,10 +2950,10 @@
         <v>500000</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I90" s="2">
         <v>21.018999999999998</v>
@@ -2950,10 +2974,10 @@
         <v>500000</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I91" s="2">
         <v>17.867000000000001</v>
@@ -2974,10 +2998,10 @@
         <v>500000</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2">
         <v>33.555999999999997</v>
@@ -2998,10 +3022,10 @@
         <v>500000</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I93" s="2">
         <v>18.971</v>
@@ -3022,10 +3046,10 @@
         <v>500000</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2">
         <v>35.848999999999997</v>
@@ -3046,10 +3070,10 @@
         <v>512</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2">
         <v>0.28799999999999998</v>
@@ -3070,10 +3094,10 @@
         <v>512</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I96" s="2">
         <v>0.29199999999999998</v>
@@ -3094,10 +3118,10 @@
         <v>2560</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I97" s="2">
         <v>198.33</v>
@@ -3118,10 +3142,10 @@
         <v>2048</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I98" s="2">
         <v>125.94</v>
@@ -3143,10 +3167,10 @@
         <v>1536</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="2">
@@ -3169,10 +3193,10 @@
         <v>2816</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="2">
@@ -3195,10 +3219,10 @@
         <v>1024</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="2">
@@ -3220,10 +3244,10 @@
         <v>2560</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102" s="2">
         <v>386.86500000000001</v>
@@ -3244,10 +3268,10 @@
         <v>2048</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I103" s="2">
         <v>244.85</v>
@@ -3269,10 +3293,10 @@
         <v>1536</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="2">
@@ -3295,10 +3319,10 @@
         <v>2816</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="2">
@@ -3321,10 +3345,10 @@
         <v>1024</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="2">
@@ -3346,10 +3370,10 @@
         <v>2560</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I107" s="2">
         <v>280.71100000000001</v>
@@ -3370,10 +3394,10 @@
         <v>2048</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I108" s="2">
         <v>128.76</v>
@@ -3395,10 +3419,10 @@
         <v>1536</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="2">
@@ -3421,10 +3445,10 @@
         <v>2816</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="2">
@@ -3447,10 +3471,10 @@
         <v>1024</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="2">
@@ -3472,10 +3496,10 @@
         <v>2560</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I112" s="2">
         <v>555.71199999999999</v>
@@ -3496,10 +3520,10 @@
         <v>2048</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I113" s="2">
         <v>250.39</v>
@@ -3521,10 +3545,10 @@
         <v>1536</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="2">
@@ -3547,10 +3571,10 @@
         <v>2816</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="2">
@@ -3573,10 +3597,10 @@
         <v>1024</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="2">
@@ -3599,10 +3623,10 @@
         <v>2048</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="2">
@@ -3625,10 +3649,10 @@
         <v>1536</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="2">
@@ -3651,10 +3675,10 @@
         <v>2816</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="2">
@@ -3677,10 +3701,10 @@
         <v>2048</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="2">
@@ -3703,10 +3727,10 @@
         <v>1536</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="2">
@@ -3729,10 +3753,10 @@
         <v>2816</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="2">
@@ -3755,10 +3779,10 @@
         <v>2048</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="2">
@@ -3781,10 +3805,10 @@
         <v>1536</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="2">
@@ -3807,10 +3831,10 @@
         <v>2816</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="2">
@@ -3833,10 +3857,10 @@
         <v>2048</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="2">
@@ -3859,10 +3883,10 @@
         <v>1536</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="2">
@@ -3885,10 +3909,10 @@
         <v>2816</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="2">
@@ -3911,10 +3935,10 @@
         <v>2816</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="2">
@@ -3937,10 +3961,10 @@
         <v>2048</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="2">
@@ -3964,10 +3988,10 @@
         <v>2560</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="2">
@@ -3991,10 +4015,10 @@
         <v>1530</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="2">
@@ -4017,10 +4041,10 @@
         <v>2816</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="2">
@@ -4043,10 +4067,10 @@
         <v>2048</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="2">
@@ -4070,10 +4094,10 @@
         <v>2560</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="2">
@@ -4097,10 +4121,10 @@
         <v>1530</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="2">
@@ -4123,10 +4147,10 @@
         <v>512</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="2">
@@ -4149,10 +4173,10 @@
         <v>512</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="2">
@@ -4175,10 +4199,10 @@
         <v>2816</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="2">
@@ -4201,10 +4225,10 @@
         <v>2048</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="2">
@@ -4228,10 +4252,10 @@
         <v>2560</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="2">
@@ -4255,10 +4279,10 @@
         <v>1530</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="2">
@@ -4281,10 +4305,10 @@
         <v>2816</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="2">
@@ -4307,10 +4331,10 @@
         <v>2048</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="2">
@@ -4334,10 +4358,10 @@
         <v>2560</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="2">
@@ -4361,10 +4385,10 @@
         <v>1530</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="2">
@@ -4387,10 +4411,10 @@
         <v>512</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="2">
@@ -4413,10 +4437,10 @@
         <v>512</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="2">
@@ -4439,10 +4463,10 @@
         <v>2816</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="2">
@@ -4465,10 +4489,10 @@
         <v>2048</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H150" s="3"/>
       <c r="I150" s="2">
@@ -4492,10 +4516,10 @@
         <v>2560</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H151" s="3"/>
       <c r="I151" s="2">
@@ -4519,10 +4543,10 @@
         <v>1530</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H152" s="3"/>
       <c r="I152" s="2">
@@ -4545,10 +4569,10 @@
         <v>2816</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H153" s="3"/>
       <c r="I153" s="2">
@@ -4571,10 +4595,10 @@
         <v>2048</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H154" s="3"/>
       <c r="I154" s="2">
@@ -4598,10 +4622,10 @@
         <v>2560</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H155" s="3"/>
       <c r="I155" s="2">
@@ -4625,10 +4649,10 @@
         <v>1530</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H156" s="3"/>
       <c r="I156" s="2">
@@ -4651,10 +4675,10 @@
         <v>512</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H157" s="3"/>
       <c r="I157" s="2">
@@ -4677,10 +4701,10 @@
         <v>512</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="2">
@@ -4703,10 +4727,10 @@
         <v>2816</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H159" s="3"/>
       <c r="I159" s="2">
@@ -4729,10 +4753,10 @@
         <v>2048</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="2">
@@ -4756,10 +4780,10 @@
         <v>2560</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="2">
@@ -4783,10 +4807,10 @@
         <v>1530</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H162" s="3"/>
       <c r="I162" s="2">
@@ -4809,10 +4833,10 @@
         <v>2816</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H163" s="3"/>
       <c r="I163" s="2">
@@ -4835,10 +4859,10 @@
         <v>2048</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H164" s="3"/>
       <c r="I164" s="2">
@@ -4862,10 +4886,10 @@
         <v>2560</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H165" s="3"/>
       <c r="I165" s="2">
@@ -4889,10 +4913,10 @@
         <v>1530</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H166" s="3"/>
       <c r="I166" s="2">
@@ -4915,10 +4939,10 @@
         <v>512</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H167" s="3"/>
       <c r="I167" s="2">
@@ -4941,10 +4965,10 @@
         <v>512</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H168" s="3"/>
       <c r="I168" s="2">
@@ -4960,72 +4984,72 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E174" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G174" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H174" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I174" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J174" t="s">
+        <v>33</v>
+      </c>
+      <c r="K174" t="s">
+        <v>32</v>
+      </c>
+      <c r="L174" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" t="s">
         <v>35</v>
       </c>
-      <c r="K174" t="s">
-        <v>34</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="N174" t="s">
+        <v>17</v>
+      </c>
+      <c r="O174" t="s">
+        <v>16</v>
+      </c>
+      <c r="P174" t="s">
+        <v>15</v>
+      </c>
+      <c r="R174" t="s">
         <v>36</v>
       </c>
-      <c r="M174" t="s">
+      <c r="S174" t="s">
         <v>37</v>
       </c>
-      <c r="N174" t="s">
-        <v>19</v>
-      </c>
-      <c r="O174" t="s">
-        <v>18</v>
-      </c>
-      <c r="P174" t="s">
-        <v>17</v>
-      </c>
-      <c r="R174" t="s">
+      <c r="T174" t="s">
+        <v>69</v>
+      </c>
+      <c r="U174" t="s">
         <v>38</v>
       </c>
-      <c r="S174" t="s">
+      <c r="V174" t="s">
         <v>39</v>
       </c>
-      <c r="T174" t="s">
-        <v>72</v>
-      </c>
-      <c r="U174" t="s">
+      <c r="W174" t="s">
         <v>40</v>
       </c>
-      <c r="V174" t="s">
-        <v>41</v>
-      </c>
-      <c r="W174" t="s">
-        <v>42</v>
-      </c>
       <c r="X174" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.2">
@@ -5066,7 +5090,7 @@
         <v>0.224</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P175" s="2">
         <v>0.36899999999999999</v>
@@ -5088,14 +5112,14 @@
         <v>3.0787428571428572</v>
       </c>
       <c r="V175" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W175" s="2">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>1.8689387533875339</v>
       </c>
       <c r="X175" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA175" s="2"/>
       <c r="AC175" s="2"/>
@@ -5138,7 +5162,7 @@
         <v>0.42</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P176" s="2">
         <v>0.68799999999999994</v>
@@ -5160,14 +5184,14 @@
         <v>3.2839923809523812</v>
       </c>
       <c r="V176" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W176" s="2">
         <f t="shared" si="10"/>
         <v>2.0047627906976744</v>
       </c>
       <c r="X176" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA176" s="2"/>
       <c r="AC176" s="2"/>
@@ -5210,7 +5234,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P177" s="2">
         <v>1.329</v>
@@ -5232,14 +5256,14 @@
         <v>3.3847283435582822</v>
       </c>
       <c r="V177" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W177" s="2">
         <f t="shared" si="10"/>
         <v>2.0756610985703539</v>
       </c>
       <c r="X177" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA177" s="2"/>
       <c r="AC177" s="2"/>
@@ -5282,7 +5306,7 @@
         <v>1.607</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P178" s="2">
         <v>2.8780000000000001</v>
@@ -5304,14 +5328,14 @@
         <v>3.4331718730553829</v>
       </c>
       <c r="V178" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W178" s="2">
         <f t="shared" si="10"/>
         <v>1.9169934676858931</v>
       </c>
       <c r="X178" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA178" s="2"/>
       <c r="AC178" s="2"/>
@@ -5384,7 +5408,7 @@
         <v>3.2176298879202987</v>
       </c>
       <c r="X179" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA179" s="2"/>
       <c r="AC179" s="2"/>
@@ -5457,7 +5481,7 @@
         <v>3.3210241645244212</v>
       </c>
       <c r="X180" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA180" s="2"/>
       <c r="AC180" s="2"/>
@@ -5530,7 +5554,7 @@
         <v>3.4233279894004638</v>
       </c>
       <c r="X181" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA181" s="2"/>
       <c r="AC181" s="2"/>
@@ -5603,7 +5627,7 @@
         <v>3.4605816842457724</v>
       </c>
       <c r="X182" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA182" s="2"/>
       <c r="AC182" s="2"/>
@@ -5646,7 +5670,7 @@
         <v>0.247</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P183" s="2">
         <v>0.8</v>
@@ -5668,14 +5692,14 @@
         <v>0.42983125506072878</v>
       </c>
       <c r="V183" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W183" s="2">
         <f t="shared" si="10"/>
         <v>0.13271040000000001</v>
       </c>
       <c r="X183" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA183" s="2"/>
       <c r="AC183" s="2"/>
@@ -5748,7 +5772,7 @@
         <v>0.90645310565635007</v>
       </c>
       <c r="X184" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA184" s="2"/>
       <c r="AC184" s="2"/>
@@ -5821,7 +5845,7 @@
         <v>1.4694577162629758</v>
       </c>
       <c r="X185" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA185" s="2"/>
       <c r="AC185" s="2"/>
@@ -5894,7 +5918,7 @@
         <v>2.2529086472148538</v>
       </c>
       <c r="X186" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA186" s="2"/>
       <c r="AC186" s="2"/>
@@ -5937,7 +5961,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P187" s="2">
         <v>0.18099999999999999</v>
@@ -5959,14 +5983,14 @@
         <v>1.1355150422535212</v>
       </c>
       <c r="V187" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W187" s="2">
         <f t="shared" si="10"/>
         <v>0.44542302762430946</v>
       </c>
       <c r="X187" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA187" s="2"/>
       <c r="AC187" s="2"/>
@@ -6039,7 +6063,7 @@
         <v>2.8954996363636361</v>
       </c>
       <c r="X188" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA188" s="2"/>
       <c r="AC188" s="2"/>
@@ -6112,7 +6136,7 @@
         <v>3.2451448754716981</v>
       </c>
       <c r="X189" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA189" s="2"/>
       <c r="AC189" s="2"/>
@@ -6185,7 +6209,7 @@
         <v>2.7607284537313435</v>
       </c>
       <c r="X190" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA190" s="2"/>
       <c r="AC190" s="2"/>
@@ -6258,7 +6282,7 @@
         <v>1.951147746835443</v>
       </c>
       <c r="X191" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA191" s="2"/>
       <c r="AC191" s="2"/>
@@ -6301,7 +6325,7 @@
         <v>0.77600000000000002</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P192" s="2">
         <v>1.651</v>
@@ -6323,14 +6347,14 @@
         <v>1.7877139793814434</v>
       </c>
       <c r="V192" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W192" s="2">
         <f t="shared" si="10"/>
         <v>0.84025805451241664</v>
       </c>
       <c r="X192" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA192" s="2"/>
       <c r="AC192" s="2"/>
@@ -6403,7 +6427,7 @@
         <v>3.7903443934426231</v>
       </c>
       <c r="X193" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA193" s="2"/>
       <c r="AC193" s="2"/>
@@ -6477,7 +6501,7 @@
         <v>4.1449592470588241</v>
       </c>
       <c r="X194" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA194" s="2"/>
       <c r="AC194" s="2"/>
@@ -6551,7 +6575,7 @@
         <v>3.8767368383547289</v>
       </c>
       <c r="X195" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA195" s="2"/>
       <c r="AC195" s="2"/>
@@ -6624,7 +6648,7 @@
         <v>3.2056985511265172</v>
       </c>
       <c r="X196" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA196" s="2"/>
       <c r="AC196" s="2"/>
@@ -6697,7 +6721,7 @@
         <v>2.0947769694224236</v>
       </c>
       <c r="X197" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA197" s="2"/>
       <c r="AC197" s="2"/>
@@ -6740,7 +6764,7 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P198" s="2">
         <v>3.2090000000000001</v>
@@ -6762,14 +6786,14 @@
         <v>1.8193653088524593</v>
       </c>
       <c r="V198" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W198" s="2">
         <f t="shared" si="10"/>
         <v>0.86460956559675917</v>
       </c>
       <c r="X198" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA198" s="2"/>
       <c r="AC198" s="2"/>
@@ -6842,7 +6866,7 @@
         <v>3.8843692117075732</v>
       </c>
       <c r="X199" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA199" s="2"/>
       <c r="AC199" s="2"/>
@@ -6916,7 +6940,7 @@
         <v>4.3458163030837014</v>
       </c>
       <c r="X200" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA200" s="2"/>
       <c r="AC200" s="2"/>
@@ -6990,7 +7014,7 @@
         <v>4.145539854881636</v>
       </c>
       <c r="X201" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA201" s="2"/>
       <c r="AC201" s="2"/>
@@ -7063,7 +7087,7 @@
         <v>3.847505073322933</v>
       </c>
       <c r="X202" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA202" s="2"/>
       <c r="AC202" s="2"/>
@@ -7136,7 +7160,7 @@
         <v>1.3254661870297386</v>
       </c>
       <c r="X203" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA203" s="2"/>
       <c r="AC203" s="2"/>
@@ -7179,7 +7203,7 @@
         <v>1.0820000000000001</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P204" s="2">
         <v>2.4</v>
@@ -7201,14 +7225,14 @@
         <v>3.4902462698706098</v>
       </c>
       <c r="V204" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W204" s="2">
         <f t="shared" si="10"/>
         <v>1.5735193600000001</v>
       </c>
       <c r="X204" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA204" s="2"/>
       <c r="AC204" s="2"/>
@@ -7281,7 +7305,7 @@
         <v>3.0680866242038216</v>
       </c>
       <c r="X205" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA205" s="2"/>
       <c r="AC205" s="2"/>
@@ -7354,7 +7378,7 @@
         <v>1.3701393066666667</v>
       </c>
       <c r="X206" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA206" s="2"/>
       <c r="AC206" s="2"/>
@@ -7427,7 +7451,7 @@
         <v>1.8108631578947367</v>
       </c>
       <c r="X207" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA207" s="2"/>
       <c r="AC207" s="2"/>
@@ -7500,7 +7524,7 @@
         <v>1.8740507234042552</v>
       </c>
       <c r="X208" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA208" s="2"/>
       <c r="AC208" s="2"/>
@@ -7573,7 +7597,7 @@
         <v>1.4457638787878786</v>
       </c>
       <c r="X209" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA209" s="2"/>
       <c r="AC209" s="2"/>
@@ -7646,7 +7670,7 @@
         <v>2.8930306306306304</v>
       </c>
       <c r="X210" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA210" s="2"/>
       <c r="AC210" s="2"/>
@@ -7719,7 +7743,7 @@
         <v>2.9978736855753643</v>
       </c>
       <c r="X211" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="2:29" x14ac:dyDescent="0.2">
@@ -7790,7 +7814,7 @@
         <v>1.1354745635359116</v>
       </c>
       <c r="X212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="2:29" x14ac:dyDescent="0.2">
@@ -7861,7 +7885,7 @@
         <v>2.8856288049921996</v>
       </c>
       <c r="X213" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="2:29" x14ac:dyDescent="0.2">
@@ -7933,7 +7957,7 @@
         <v>1.4173854896551723</v>
       </c>
       <c r="X214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="2:29" x14ac:dyDescent="0.2">
@@ -8004,7 +8028,7 @@
         <v>1.4575950070921988</v>
       </c>
       <c r="X215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="2:29" x14ac:dyDescent="0.2">
@@ -8075,7 +8099,7 @@
         <v>4.0036538181818182</v>
       </c>
       <c r="X216" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="2:29" x14ac:dyDescent="0.2">
@@ -8147,7 +8171,7 @@
         <v>1.2925842515723269</v>
       </c>
       <c r="X217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="2:29" x14ac:dyDescent="0.2">
@@ -8219,7 +8243,7 @@
         <v>1.3981013333333334</v>
       </c>
       <c r="X218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="2:29" x14ac:dyDescent="0.2">
@@ -8291,7 +8315,7 @@
         <v>1.7091134802494803</v>
       </c>
       <c r="X219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="2:29" x14ac:dyDescent="0.2">
@@ -8362,7 +8386,7 @@
         <v>3.236549543307087</v>
       </c>
       <c r="X220" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="2:29" x14ac:dyDescent="0.2">
@@ -8433,7 +8457,7 @@
         <v>1.2125126607669616</v>
       </c>
       <c r="X221" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="2:29" x14ac:dyDescent="0.2">
@@ -8504,7 +8528,7 @@
         <v>3.8415120747663551</v>
       </c>
       <c r="X222" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="2:29" x14ac:dyDescent="0.2">
@@ -8575,7 +8599,7 @@
         <v>1.764127862660944</v>
       </c>
       <c r="X223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="2:29" x14ac:dyDescent="0.2">
@@ -8647,7 +8671,7 @@
         <v>1.9667071387559809</v>
       </c>
       <c r="X224" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.2">
@@ -8718,7 +8742,7 @@
         <v>5.5297102062780272</v>
       </c>
       <c r="X225" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
@@ -8789,7 +8813,7 @@
         <v>1.8942018064516131</v>
       </c>
       <c r="X226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
@@ -8861,7 +8885,7 @@
         <v>1.9857091400966185</v>
       </c>
       <c r="X227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="2:24" x14ac:dyDescent="0.2">
@@ -8933,7 +8957,7 @@
         <v>1.8920220575373994</v>
       </c>
       <c r="X228" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.2">
@@ -8975,7 +8999,7 @@
         <v>0.74399999999999999</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P229" s="2">
         <v>1.845</v>
@@ -8997,14 +9021,14 @@
         <v>1.9213763440860214</v>
       </c>
       <c r="V229" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="W229" s="2">
         <f t="shared" si="21"/>
         <v>0.77479891598915995</v>
       </c>
       <c r="X229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="2:24" x14ac:dyDescent="0.2">
@@ -9076,7 +9100,7 @@
         <v>3.0183810655213379</v>
       </c>
       <c r="X230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.2">
@@ -9148,7 +9172,7 @@
         <v>4.1785896457765661</v>
       </c>
       <c r="X231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
@@ -9220,7 +9244,7 @@
         <v>4.222183816950019</v>
       </c>
       <c r="X232" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
@@ -9292,7 +9316,7 @@
         <v>4.3207102602452885</v>
       </c>
       <c r="X233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
@@ -9364,7 +9388,7 @@
         <v>4.7589581629896438</v>
       </c>
       <c r="X234" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
@@ -9436,7 +9460,7 @@
         <v>4.2929606568290248</v>
       </c>
       <c r="X235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="2:24" x14ac:dyDescent="0.2">
@@ -9508,7 +9532,7 @@
         <v>10.332009853372433</v>
       </c>
       <c r="X236" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.2">
@@ -9580,7 +9604,7 @@
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="2:24" x14ac:dyDescent="0.2">
@@ -9652,7 +9676,7 @@
         <v>1.4839053862815883</v>
       </c>
       <c r="X238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.2">
@@ -9724,7 +9748,7 @@
         <v>1.4575950070921988</v>
       </c>
       <c r="X239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="2:24" x14ac:dyDescent="0.2">
@@ -9796,7 +9820,7 @@
         <v>1.5394823670411983</v>
       </c>
       <c r="X240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.2">
@@ -9868,7 +9892,7 @@
         <v>2.3759641156069367</v>
       </c>
       <c r="X241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="2:24" x14ac:dyDescent="0.2">
@@ -9940,7 +9964,7 @@
         <v>2.4108022991202342</v>
       </c>
       <c r="X242" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.2">
@@ -10012,7 +10036,7 @@
         <v>1.6709015934959348</v>
       </c>
       <c r="X243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="2:24" x14ac:dyDescent="0.2">
@@ -10084,7 +10108,7 @@
         <v>2.4321999526627218</v>
       </c>
       <c r="X244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.2">
@@ -10156,7 +10180,7 @@
         <v>2.5490963844961234</v>
       </c>
       <c r="X245" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="2:24" x14ac:dyDescent="0.2">
@@ -10228,7 +10252,7 @@
         <v>2.4108022991202342</v>
       </c>
       <c r="X246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.2">
@@ -10300,7 +10324,7 @@
         <v>2.4321999526627218</v>
       </c>
       <c r="X247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="2:24" x14ac:dyDescent="0.2">
@@ -10372,7 +10396,7 @@
         <v>1.6056319999999999</v>
       </c>
       <c r="X248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.2">
@@ -10444,7 +10468,7 @@
         <v>3.0776839667221298</v>
       </c>
       <c r="X249" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.2">
@@ -10516,7 +10540,7 @@
         <v>1.705567601659751</v>
       </c>
       <c r="X250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.2">
@@ -10588,7 +10612,7 @@
         <v>1.6845975081967215</v>
       </c>
       <c r="X251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.2">
@@ -10660,7 +10684,7 @@
         <v>1.6607749171717172</v>
       </c>
       <c r="X252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.2">
@@ -10732,7 +10756,7 @@
         <v>0.98453123832335343</v>
       </c>
       <c r="X253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.2">
@@ -10804,7 +10828,7 @@
         <v>1.6458129809809807</v>
       </c>
       <c r="X254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.2">
@@ -10876,7 +10900,7 @@
         <v>1.588567312077295</v>
       </c>
       <c r="X255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.2">
@@ -10948,7 +10972,7 @@
         <v>1.6709015934959348</v>
       </c>
       <c r="X256" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
@@ -11020,7 +11044,7 @@
         <v>2.618100585987261</v>
       </c>
       <c r="X257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
@@ -11092,7 +11116,7 @@
         <v>2.6306674688</v>
       </c>
       <c r="X258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
@@ -11164,7 +11188,7 @@
         <v>2.2218475243243243</v>
       </c>
       <c r="X259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="2:24" x14ac:dyDescent="0.2">
@@ -11236,7 +11260,7 @@
         <v>2.8445798754325264</v>
       </c>
       <c r="X260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.2">
@@ -11308,7 +11332,7 @@
         <v>3.005790069469835</v>
       </c>
       <c r="X261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.2">
@@ -11380,7 +11404,7 @@
         <v>2.7867240135593221</v>
       </c>
       <c r="X262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.2">
@@ -11452,7 +11476,7 @@
         <v>2.9785637101449272</v>
       </c>
       <c r="X263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="2:24" x14ac:dyDescent="0.2">
@@ -11524,7 +11548,7 @@
         <v>2.0248364137931034</v>
       </c>
       <c r="X264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="2:24" x14ac:dyDescent="0.2">
@@ -11596,7 +11620,7 @@
         <v>5.2324980594059411</v>
       </c>
       <c r="X265" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="2:24" x14ac:dyDescent="0.2">
@@ -11668,7 +11692,7 @@
         <v>2.4178928941176472</v>
       </c>
       <c r="X266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="2:24" x14ac:dyDescent="0.2">
@@ -11740,7 +11764,7 @@
         <v>2.0399096377171215</v>
       </c>
       <c r="X267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="2:24" x14ac:dyDescent="0.2">
@@ -11812,7 +11836,7 @@
         <v>2.3092235505617977</v>
       </c>
       <c r="X268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="2:24" x14ac:dyDescent="0.2">
@@ -11825,1257 +11849,2109 @@
     </row>
     <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L277" s="1"/>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>12</v>
-      </c>
-      <c r="C278" t="s">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" s="3"/>
+      <c r="G278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1760</v>
+      </c>
+      <c r="D280" s="3">
+        <v>16</v>
+      </c>
+      <c r="E280" s="3">
+        <v>50</v>
+      </c>
+      <c r="F280" s="3"/>
+      <c r="G280" s="2">
+        <v>7.6870000000000003</v>
+      </c>
+      <c r="H280" s="2">
+        <v>7.3879999999999999</v>
+      </c>
+      <c r="I280" s="2">
+        <v>1.542</v>
+      </c>
+      <c r="J280" s="2">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <v>0.64492884090022118</v>
+      </c>
+      <c r="K280" s="2">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
+        <v>0.67102977801840835</v>
+      </c>
+      <c r="L280" s="2">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(I280/1000)/10^12</f>
+        <v>3.2150246433203633</v>
+      </c>
+      <c r="M280" s="10">
+        <f>G280+H280+I280</f>
+        <v>16.617000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1760</v>
+      </c>
+      <c r="D281" s="3">
+        <v>32</v>
+      </c>
+      <c r="E281" s="3">
+        <v>50</v>
+      </c>
+      <c r="F281" s="3"/>
+      <c r="G281" s="2">
+        <v>10.707000000000001</v>
+      </c>
+      <c r="H281" s="2">
+        <v>10.259</v>
+      </c>
+      <c r="I281" s="2">
+        <v>2.581</v>
+      </c>
+      <c r="J281" s="2">
+        <f t="shared" ref="J281:M291" si="27">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>0.92604240216680667</v>
+      </c>
+      <c r="K281" s="2">
+        <f t="shared" si="27"/>
+        <v>0.96648172336485039</v>
+      </c>
+      <c r="L281" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8415869817900039</v>
+      </c>
+      <c r="M281" s="10">
+        <f t="shared" ref="M281:M291" si="28">G281+H281+I281</f>
+        <v>23.547000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1760</v>
+      </c>
+      <c r="D282" s="3">
+        <v>64</v>
+      </c>
+      <c r="E282" s="3">
+        <v>50</v>
+      </c>
+      <c r="F282" s="3"/>
+      <c r="G282" s="2">
+        <v>12.842000000000001</v>
+      </c>
+      <c r="H282" s="2">
+        <v>12.516999999999999</v>
+      </c>
+      <c r="I282" s="2">
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="J282" s="2">
+        <f t="shared" si="27"/>
+        <v>1.5441731817473914</v>
+      </c>
+      <c r="K282" s="2">
+        <f t="shared" si="27"/>
+        <v>1.5842671566669331</v>
+      </c>
+      <c r="L282" s="2">
+        <f t="shared" si="27"/>
+        <v>4.0929353973168219</v>
+      </c>
+      <c r="M282" s="10">
+        <f t="shared" si="28"/>
+        <v>30.204000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C283" s="3">
+        <v>1760</v>
+      </c>
+      <c r="D283" s="3">
+        <v>128</v>
+      </c>
+      <c r="E283" s="3">
+        <v>50</v>
+      </c>
+      <c r="F283" s="3"/>
+      <c r="G283" s="2">
+        <v>16.585999999999999</v>
+      </c>
+      <c r="H283" s="2">
+        <v>16.175999999999998</v>
+      </c>
+      <c r="I283" s="2">
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="J283" s="2">
+        <f t="shared" si="27"/>
+        <v>2.391206077414687</v>
+      </c>
+      <c r="K283" s="2">
+        <f t="shared" si="27"/>
+        <v>2.4518140454995052</v>
+      </c>
+      <c r="L283" s="2">
+        <f t="shared" si="27"/>
+        <v>3.9823821668842254</v>
+      </c>
+      <c r="M283" s="10">
+        <f t="shared" si="28"/>
+        <v>42.721000000000004</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D284" s="3">
+        <v>16</v>
+      </c>
+      <c r="E284" s="3">
+        <v>50</v>
+      </c>
+      <c r="F284" s="3"/>
+      <c r="G284" s="2">
+        <v>8.8460000000000001</v>
+      </c>
+      <c r="H284" s="2">
+        <v>8.516</v>
+      </c>
+      <c r="I284" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="J284" s="2">
+        <f t="shared" si="27"/>
+        <v>0.75882034817996835</v>
+      </c>
+      <c r="K284" s="2">
+        <f t="shared" si="27"/>
+        <v>0.78822508219821519</v>
+      </c>
+      <c r="L284" s="2">
+        <f t="shared" si="27"/>
+        <v>3.4961066666666669</v>
+      </c>
+      <c r="M284" s="10">
+        <f t="shared" si="28"/>
+        <v>19.282000000000004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C285" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D285" s="3">
+        <v>32</v>
+      </c>
+      <c r="E285" s="3">
+        <v>50</v>
+      </c>
+      <c r="F285" s="3"/>
+      <c r="G285" s="2">
+        <v>9.2469999999999999</v>
+      </c>
+      <c r="H285" s="2">
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="I285" s="2">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="J285" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4518275765113011</v>
+      </c>
+      <c r="K285" s="2">
+        <f t="shared" si="27"/>
+        <v>1.49549399576696</v>
+      </c>
+      <c r="L285" s="2">
+        <f t="shared" si="27"/>
+        <v>4.0134677428998504</v>
+      </c>
+      <c r="M285" s="10">
+        <f t="shared" si="28"/>
+        <v>21.568999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C286" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D286" s="3">
+        <v>64</v>
+      </c>
+      <c r="E286" s="3">
+        <v>50</v>
+      </c>
+      <c r="F286" s="3"/>
+      <c r="G286" s="2">
+        <v>12.215</v>
+      </c>
+      <c r="H286" s="2">
+        <v>11.792</v>
+      </c>
+      <c r="I286" s="2">
+        <v>6.2039999999999997</v>
+      </c>
+      <c r="J286" s="2">
+        <f t="shared" si="27"/>
+        <v>2.1981251903397463</v>
+      </c>
+      <c r="K286" s="2">
+        <f t="shared" si="27"/>
+        <v>2.2769758480325644</v>
+      </c>
+      <c r="L286" s="2">
+        <f t="shared" si="27"/>
+        <v>4.3278689877498397</v>
+      </c>
+      <c r="M286" s="10">
+        <f t="shared" si="28"/>
+        <v>30.210999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C287" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D287" s="3">
+        <v>128</v>
+      </c>
+      <c r="E287" s="3">
+        <v>50</v>
+      </c>
+      <c r="F287" s="3"/>
+      <c r="G287" s="2">
+        <v>18.635000000000002</v>
+      </c>
+      <c r="H287" s="2">
+        <v>18.117999999999999</v>
+      </c>
+      <c r="I287" s="2">
+        <v>12.137</v>
+      </c>
+      <c r="J287" s="2">
+        <f t="shared" si="27"/>
+        <v>2.8816849154816202</v>
+      </c>
+      <c r="K287" s="2">
+        <f t="shared" si="27"/>
+        <v>2.9639142510210839</v>
+      </c>
+      <c r="L287" s="2">
+        <f t="shared" si="27"/>
+        <v>4.4245034522534397</v>
+      </c>
+      <c r="M287" s="10">
+        <f t="shared" si="28"/>
+        <v>48.89</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C288" s="3">
+        <v>2560</v>
+      </c>
+      <c r="D288" s="3">
+        <v>16</v>
+      </c>
+      <c r="E288" s="3">
+        <v>50</v>
+      </c>
+      <c r="F288" s="3"/>
+      <c r="G288" s="2">
+        <v>12.896000000000001</v>
+      </c>
+      <c r="H288" s="2">
+        <v>12.432</v>
+      </c>
+      <c r="I288" s="2">
+        <v>2.6920000000000002</v>
+      </c>
+      <c r="J288" s="2">
+        <f t="shared" si="27"/>
+        <v>0.81326054590570718</v>
+      </c>
+      <c r="K288" s="2">
+        <f t="shared" si="27"/>
+        <v>0.84361389961389954</v>
+      </c>
+      <c r="L288" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8959167904903413</v>
+      </c>
+      <c r="M288" s="10">
+        <f t="shared" si="28"/>
+        <v>28.020000000000003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C289" s="3">
+        <v>2560</v>
+      </c>
+      <c r="D289" s="3">
+        <v>32</v>
+      </c>
+      <c r="E289" s="3">
+        <v>50</v>
+      </c>
+      <c r="F289" s="3"/>
+      <c r="G289" s="2">
+        <v>11.906000000000001</v>
+      </c>
+      <c r="H289" s="2">
+        <v>11.43</v>
+      </c>
+      <c r="I289" s="2">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="J289" s="2">
+        <f t="shared" si="27"/>
+        <v>1.7617685200739124</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="27"/>
+        <v>1.8351370078740159</v>
+      </c>
+      <c r="L289" s="2">
+        <f t="shared" si="27"/>
+        <v>4.2851105209397353</v>
+      </c>
+      <c r="M289" s="10">
+        <f t="shared" si="28"/>
+        <v>28.230999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C290" s="3">
+        <v>2560</v>
+      </c>
+      <c r="D290" s="3">
+        <v>64</v>
+      </c>
+      <c r="E290" s="3">
+        <v>50</v>
+      </c>
+      <c r="F290" s="3"/>
+      <c r="G290" s="2">
+        <v>16.07</v>
+      </c>
+      <c r="H290" s="2">
+        <v>15.675000000000001</v>
+      </c>
+      <c r="I290" s="2">
+        <v>9.2070000000000007</v>
+      </c>
+      <c r="J290" s="2">
+        <f t="shared" si="27"/>
+        <v>2.6105309271935284</v>
+      </c>
+      <c r="K290" s="2">
+        <f t="shared" si="27"/>
+        <v>2.6763146411483252</v>
+      </c>
+      <c r="L290" s="2">
+        <f t="shared" si="27"/>
+        <v>4.5564496578690123</v>
+      </c>
+      <c r="M290" s="10">
+        <f t="shared" si="28"/>
+        <v>40.951999999999998</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C291" s="3">
+        <v>2560</v>
+      </c>
+      <c r="D291" s="3">
+        <v>128</v>
+      </c>
+      <c r="E291" s="3">
+        <v>50</v>
+      </c>
+      <c r="F291" s="3"/>
+      <c r="G291" s="2">
+        <v>26.047999999999998</v>
+      </c>
+      <c r="H291" s="2">
+        <v>25.771999999999998</v>
+      </c>
+      <c r="I291" s="2">
+        <v>18.105</v>
+      </c>
+      <c r="J291" s="2">
+        <f t="shared" si="27"/>
+        <v>3.2210712530712535</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" si="27"/>
+        <v>3.2555666614930932</v>
+      </c>
+      <c r="L291" s="2">
+        <f t="shared" si="27"/>
+        <v>4.6342150787075393</v>
+      </c>
+      <c r="M291" s="10">
+        <f t="shared" si="28"/>
+        <v>69.924999999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D278" t="s">
+      <c r="B295" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E278" t="s">
-        <v>6</v>
-      </c>
-      <c r="G278" t="s">
-        <v>11</v>
-      </c>
-      <c r="H278" t="s">
-        <v>10</v>
-      </c>
-      <c r="I278" t="s">
-        <v>43</v>
-      </c>
-      <c r="J278" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C280">
-        <v>1760</v>
-      </c>
-      <c r="D280">
+      <c r="D295" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C296" s="3">
+        <v>512</v>
+      </c>
+      <c r="D296" s="3">
         <v>16</v>
       </c>
-      <c r="E280">
+      <c r="E296" s="3">
+        <v>25</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="G296" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H296" s="2">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="I296" s="2">
+        <v>0.442</v>
+      </c>
+      <c r="J296" s="2">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>0.34239216326530608</v>
+      </c>
+      <c r="K296" s="2">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.28757655125128556</v>
+      </c>
+      <c r="L296" s="2">
+        <f>(8*$E296*$D296*$C296*$C296)/(I296/1000)/10^12</f>
+        <v>1.8978751131221718</v>
+      </c>
+      <c r="M296" s="10">
+        <f t="shared" ref="M296:M317" si="29">G296+H296+I296</f>
+        <v>5.8090000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C297" s="3">
+        <v>512</v>
+      </c>
+      <c r="D297" s="3">
+        <v>32</v>
+      </c>
+      <c r="E297" s="3">
+        <v>25</v>
+      </c>
+      <c r="F297" s="3"/>
+      <c r="G297" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="H297" s="2">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="I297" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J297" s="2">
+        <f t="shared" ref="J297:J317" si="30">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>0.50994577507598782</v>
+      </c>
+      <c r="K297" s="2">
+        <f t="shared" ref="K297:K317" si="31">(8*$E297*$D297*$C297*$C297)/(H297/1000)/10^12</f>
+        <v>0.55315581932080449</v>
+      </c>
+      <c r="L297" s="2">
+        <f t="shared" ref="L297:L317" si="32">(8*$E297*$D297*$C297*$C297)/(I297/1000)/10^12</f>
+        <v>2.5575024390243901</v>
+      </c>
+      <c r="M297" s="10">
+        <f t="shared" si="29"/>
+        <v>6.9790000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C298" s="3">
+        <v>512</v>
+      </c>
+      <c r="D298" s="3">
+        <v>64</v>
+      </c>
+      <c r="E298" s="3">
+        <v>25</v>
+      </c>
+      <c r="F298" s="3"/>
+      <c r="G298" s="2">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="H298" s="2">
+        <v>4.0250000000000004</v>
+      </c>
+      <c r="I298" s="2">
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="J298" s="2">
+        <f t="shared" si="30"/>
+        <v>0.99361658276576859</v>
+      </c>
+      <c r="K298" s="2">
+        <f t="shared" si="31"/>
+        <v>0.8336504844720497</v>
+      </c>
+      <c r="L298" s="2">
+        <f t="shared" si="32"/>
+        <v>3.1625289349670127</v>
+      </c>
+      <c r="M298" s="10">
+        <f t="shared" si="29"/>
+        <v>8.463000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C299" s="3">
+        <v>512</v>
+      </c>
+      <c r="D299" s="3">
+        <v>128</v>
+      </c>
+      <c r="E299" s="3">
+        <v>25</v>
+      </c>
+      <c r="F299" s="3"/>
+      <c r="G299" s="2">
+        <v>4.0549999999999997</v>
+      </c>
+      <c r="H299" s="2">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="I299" s="2">
+        <v>2.117</v>
+      </c>
+      <c r="J299" s="2">
+        <f t="shared" si="30"/>
+        <v>1.6549658199753394</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="31"/>
+        <v>0.95924619782732978</v>
+      </c>
+      <c r="L299" s="2">
+        <f t="shared" si="32"/>
+        <v>3.169998299480397</v>
+      </c>
+      <c r="M299" s="10">
+        <f t="shared" si="29"/>
+        <v>13.167999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D300" s="3">
+        <v>16</v>
+      </c>
+      <c r="E300" s="3">
+        <v>25</v>
+      </c>
+      <c r="F300" s="3"/>
+      <c r="G300" s="2">
+        <v>5.35</v>
+      </c>
+      <c r="H300" s="2">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="I300" s="2">
+        <v>1.163</v>
+      </c>
+      <c r="J300" s="2">
+        <f t="shared" si="30"/>
+        <v>0.6271856448598131</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" si="31"/>
+        <v>0.65857570166830226</v>
+      </c>
+      <c r="L300" s="2">
+        <f t="shared" si="32"/>
+        <v>2.8851618228718832</v>
+      </c>
+      <c r="M300" s="10">
+        <f t="shared" si="29"/>
+        <v>11.608000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C301" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D301" s="3">
+        <v>32</v>
+      </c>
+      <c r="E301" s="3">
+        <v>25</v>
+      </c>
+      <c r="F301" s="3"/>
+      <c r="G301" s="2">
+        <v>5.1059999999999999</v>
+      </c>
+      <c r="H301" s="2">
+        <v>12.412000000000001</v>
+      </c>
+      <c r="I301" s="2">
+        <v>1.883</v>
+      </c>
+      <c r="J301" s="2">
+        <f t="shared" si="30"/>
+        <v>1.3143138268703487</v>
+      </c>
+      <c r="K301" s="2">
+        <f t="shared" si="31"/>
+        <v>0.5406772800515629</v>
+      </c>
+      <c r="L301" s="2">
+        <f t="shared" si="32"/>
+        <v>3.5639332979288367</v>
+      </c>
+      <c r="M301" s="10">
+        <f t="shared" si="29"/>
+        <v>19.401</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C302" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D302" s="3">
+        <v>64</v>
+      </c>
+      <c r="E302" s="3">
+        <v>25</v>
+      </c>
+      <c r="F302" s="3"/>
+      <c r="G302" s="2">
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="H302" s="2">
+        <v>14.401999999999999</v>
+      </c>
+      <c r="I302" s="2">
+        <v>3.3479999999999999</v>
+      </c>
+      <c r="J302" s="2">
+        <f t="shared" si="30"/>
+        <v>2.0955148790007807</v>
+      </c>
+      <c r="K302" s="2">
+        <f t="shared" si="31"/>
+        <v>0.93193811970559648</v>
+      </c>
+      <c r="L302" s="2">
+        <f t="shared" si="32"/>
+        <v>4.0088927120669053</v>
+      </c>
+      <c r="M302" s="10">
+        <f t="shared" si="29"/>
+        <v>24.154999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="3"/>
+      <c r="B303" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C303" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D303" s="3">
+        <v>128</v>
+      </c>
+      <c r="E303" s="3">
+        <v>25</v>
+      </c>
+      <c r="F303" s="3"/>
+      <c r="G303" s="2">
+        <v>9.2119999999999997</v>
+      </c>
+      <c r="H303" s="2">
+        <v>9.5879999999999992</v>
+      </c>
+      <c r="I303" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="J303" s="2">
+        <f t="shared" si="30"/>
+        <v>2.9139758575770731</v>
+      </c>
+      <c r="K303" s="2">
+        <f t="shared" si="31"/>
+        <v>2.7997022945348355</v>
+      </c>
+      <c r="L303" s="2">
+        <f t="shared" si="32"/>
+        <v>4.2541276703645012</v>
+      </c>
+      <c r="M303" s="10">
+        <f t="shared" si="29"/>
+        <v>25.109999999999996</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="3"/>
+      <c r="B304" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C304" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D304" s="3">
+        <v>16</v>
+      </c>
+      <c r="E304" s="3">
+        <v>25</v>
+      </c>
+      <c r="F304" s="3"/>
+      <c r="G304" s="2">
+        <v>16.757999999999999</v>
+      </c>
+      <c r="H304" s="2">
+        <v>12.609</v>
+      </c>
+      <c r="I304" s="2">
+        <v>3.6560000000000001</v>
+      </c>
+      <c r="J304" s="2">
+        <f t="shared" si="30"/>
+        <v>0.80091734097147627</v>
+      </c>
+      <c r="K304" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0644597351098422</v>
+      </c>
+      <c r="L304" s="2">
+        <f t="shared" si="32"/>
+        <v>3.671163238512035</v>
+      </c>
+      <c r="M304" s="10">
+        <f t="shared" si="29"/>
+        <v>33.022999999999996</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C305" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D305" s="3">
+        <v>32</v>
+      </c>
+      <c r="E305" s="3">
+        <v>25</v>
+      </c>
+      <c r="F305" s="3"/>
+      <c r="G305" s="2">
+        <v>11.106999999999999</v>
+      </c>
+      <c r="H305" s="2">
+        <v>11.542</v>
+      </c>
+      <c r="I305" s="2">
+        <v>6.2519999999999998</v>
+      </c>
+      <c r="J305" s="2">
+        <f t="shared" si="30"/>
+        <v>2.4168133249302248</v>
+      </c>
+      <c r="K305" s="2">
+        <f t="shared" si="31"/>
+        <v>2.3257273955986832</v>
+      </c>
+      <c r="L305" s="2">
+        <f t="shared" si="32"/>
+        <v>4.2935933461292386</v>
+      </c>
+      <c r="M305" s="10">
+        <f t="shared" si="29"/>
+        <v>28.901</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C306" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D306" s="3">
+        <v>64</v>
+      </c>
+      <c r="E306" s="3">
+        <v>25</v>
+      </c>
+      <c r="F306" s="3"/>
+      <c r="G306" s="2">
+        <v>16.327000000000002</v>
+      </c>
+      <c r="H306" s="2">
+        <v>16.146000000000001</v>
+      </c>
+      <c r="I306" s="2">
+        <v>11.58</v>
+      </c>
+      <c r="J306" s="2">
+        <f t="shared" si="30"/>
+        <v>3.2882397991057752</v>
+      </c>
+      <c r="K306" s="2">
+        <f t="shared" si="31"/>
+        <v>3.3251016474668647</v>
+      </c>
+      <c r="L306" s="2">
+        <f t="shared" si="32"/>
+        <v>4.6361909499136447</v>
+      </c>
+      <c r="M306" s="10">
+        <f t="shared" si="29"/>
+        <v>44.052999999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C307" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D307" s="3">
+        <v>128</v>
+      </c>
+      <c r="E307" s="3">
+        <v>25</v>
+      </c>
+      <c r="F307" s="3"/>
+      <c r="G307" s="2">
+        <v>31.882999999999999</v>
+      </c>
+      <c r="H307" s="2">
+        <v>30.561</v>
+      </c>
+      <c r="I307" s="2">
+        <v>22.446999999999999</v>
+      </c>
+      <c r="J307" s="2">
+        <f t="shared" si="30"/>
+        <v>3.3677565599222152</v>
+      </c>
+      <c r="K307" s="2">
+        <f t="shared" si="31"/>
+        <v>3.5134381204803504</v>
+      </c>
+      <c r="L307" s="2">
+        <f t="shared" si="32"/>
+        <v>4.783453575087985</v>
+      </c>
+      <c r="M307" s="10">
+        <f t="shared" si="29"/>
+        <v>84.891000000000005</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C308" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D308" s="3">
+        <v>16</v>
+      </c>
+      <c r="E308" s="3">
+        <v>25</v>
+      </c>
+      <c r="F308" s="3"/>
+      <c r="G308" s="2">
+        <v>60.246000000000002</v>
+      </c>
+      <c r="H308" s="2">
+        <v>56.241</v>
+      </c>
+      <c r="I308" s="2">
+        <v>13.574999999999999</v>
+      </c>
+      <c r="J308" s="2">
+        <f t="shared" si="30"/>
+        <v>0.89113121535039674</v>
+      </c>
+      <c r="K308" s="2">
+        <f t="shared" si="31"/>
+        <v>0.95458991127469284</v>
+      </c>
+      <c r="L308" s="2">
+        <f t="shared" si="32"/>
+        <v>3.9548501804788216</v>
+      </c>
+      <c r="M308" s="10">
+        <f t="shared" si="29"/>
+        <v>130.06199999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C309" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D309" s="3">
+        <v>32</v>
+      </c>
+      <c r="E309" s="3">
+        <v>25</v>
+      </c>
+      <c r="F309" s="3"/>
+      <c r="G309" s="2">
+        <v>104.464</v>
+      </c>
+      <c r="H309" s="2">
+        <v>38.665999999999997</v>
+      </c>
+      <c r="I309" s="2">
+        <v>23.704999999999998</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" si="30"/>
+        <v>1.0278582325011487</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="31"/>
+        <v>2.7769663890756737</v>
+      </c>
+      <c r="L309" s="2">
+        <f t="shared" si="32"/>
+        <v>4.5296006074667794</v>
+      </c>
+      <c r="M309" s="10">
+        <f t="shared" si="29"/>
+        <v>166.83499999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C310" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D310" s="3">
+        <v>64</v>
+      </c>
+      <c r="E310" s="3">
+        <v>25</v>
+      </c>
+      <c r="F310" s="3"/>
+      <c r="G310" s="2">
+        <v>105.71599999999999</v>
+      </c>
+      <c r="H310" s="2">
+        <v>56.155999999999999</v>
+      </c>
+      <c r="I310" s="2">
+        <v>44.673999999999999</v>
+      </c>
+      <c r="J310" s="2">
+        <f t="shared" si="30"/>
+        <v>2.0313705096674108</v>
+      </c>
+      <c r="K310" s="2">
+        <f t="shared" si="31"/>
+        <v>3.8241392691787168</v>
+      </c>
+      <c r="L310" s="2">
+        <f t="shared" si="32"/>
+        <v>4.8070100013430634</v>
+      </c>
+      <c r="M310" s="10">
+        <f t="shared" si="29"/>
+        <v>206.54599999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C311" s="3">
+        <v>4096</v>
+      </c>
+      <c r="D311" s="3">
+        <v>128</v>
+      </c>
+      <c r="E311" s="3">
+        <v>25</v>
+      </c>
+      <c r="F311" s="3"/>
+      <c r="G311" s="2">
+        <v>108.265</v>
+      </c>
+      <c r="H311" s="2">
+        <v>109.566</v>
+      </c>
+      <c r="I311" s="2">
+        <v>87.448999999999998</v>
+      </c>
+      <c r="J311" s="2">
+        <f t="shared" si="30"/>
+        <v>3.9670875130466907</v>
+      </c>
+      <c r="K311" s="2">
+        <f t="shared" si="31"/>
+        <v>3.9199818337805521</v>
+      </c>
+      <c r="L311" s="2">
+        <f t="shared" si="32"/>
+        <v>4.9113966952166406</v>
+      </c>
+      <c r="M311" s="10">
+        <f t="shared" si="29"/>
+        <v>305.28000000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C312" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D312" s="3">
+        <v>8</v>
+      </c>
+      <c r="E312" s="3">
         <v>50</v>
       </c>
-      <c r="G280" s="2">
-        <v>7.7089999999999996</v>
-      </c>
-      <c r="H280" s="2">
-        <v>7.45</v>
-      </c>
-      <c r="I280" s="2">
-        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
-        <v>0.64308833830587619</v>
-      </c>
-      <c r="J280" s="2">
-        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
-        <v>0.66544536912751673</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C281">
-        <v>1760</v>
-      </c>
-      <c r="D281">
+      <c r="F312" s="3"/>
+      <c r="G312" s="2">
+        <v>11.661</v>
+      </c>
+      <c r="H312" s="2">
+        <v>12.688000000000001</v>
+      </c>
+      <c r="I312" s="2">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="J312" s="2">
+        <f t="shared" si="30"/>
+        <v>0.64743565731926944</v>
+      </c>
+      <c r="K312" s="2">
+        <f t="shared" si="31"/>
+        <v>0.59503051702395959</v>
+      </c>
+      <c r="L312" s="2">
+        <f t="shared" si="32"/>
+        <v>3.439520364464693</v>
+      </c>
+      <c r="M312" s="10">
+        <f t="shared" si="29"/>
+        <v>26.544</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C313" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D313" s="3">
+        <v>16</v>
+      </c>
+      <c r="E313" s="3">
+        <v>50</v>
+      </c>
+      <c r="F313" s="3"/>
+      <c r="G313" s="2">
+        <v>19.552</v>
+      </c>
+      <c r="H313" s="2">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="I313" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="J313" s="2">
+        <f t="shared" si="30"/>
+        <v>0.77227364975450086</v>
+      </c>
+      <c r="K313" s="2">
+        <f t="shared" si="31"/>
+        <v>1.0311749231714813</v>
+      </c>
+      <c r="L313" s="2">
+        <f t="shared" si="32"/>
+        <v>4.0372979679144381</v>
+      </c>
+      <c r="M313" s="10">
+        <f t="shared" si="29"/>
+        <v>37.935000000000002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C314" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D314" s="3">
         <v>32</v>
       </c>
-      <c r="E281">
+      <c r="E314" s="3">
         <v>50</v>
       </c>
-      <c r="G281" s="2">
-        <v>10.538</v>
-      </c>
-      <c r="H281" s="2">
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="I281" s="2">
-        <f t="shared" ref="I281:I291" si="27">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
-        <v>0.94089352818371608</v>
-      </c>
-      <c r="J281" s="2">
-        <f t="shared" ref="J281:J291" si="28">(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
-        <v>0.99699708396178977</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C282">
-        <v>1760</v>
-      </c>
-      <c r="D282">
+      <c r="F314" s="3"/>
+      <c r="G314" s="2">
+        <v>13.766999999999999</v>
+      </c>
+      <c r="H314" s="2">
+        <v>16.338000000000001</v>
+      </c>
+      <c r="I314" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="J314" s="2">
+        <f t="shared" si="30"/>
+        <v>2.1935780344301592</v>
+      </c>
+      <c r="K314" s="2">
+        <f t="shared" si="31"/>
+        <v>1.8483895703268451</v>
+      </c>
+      <c r="L314" s="2">
+        <f t="shared" si="32"/>
+        <v>4.4805621364985155</v>
+      </c>
+      <c r="M314" s="10">
+        <f t="shared" si="29"/>
+        <v>36.844999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C315" s="3">
+        <v>256</v>
+      </c>
+      <c r="D315" s="3">
+        <v>16</v>
+      </c>
+      <c r="E315" s="3">
+        <v>150</v>
+      </c>
+      <c r="F315" s="3"/>
+      <c r="G315" s="2">
+        <v>9.0660000000000007</v>
+      </c>
+      <c r="H315" s="2">
+        <v>12.378</v>
+      </c>
+      <c r="I315" s="2">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J315" s="2">
+        <f t="shared" si="30"/>
+        <v>0.13879232296492389</v>
+      </c>
+      <c r="K315" s="2">
+        <f t="shared" si="31"/>
+        <v>0.10165545322346098</v>
+      </c>
+      <c r="L315" s="2">
+        <f t="shared" si="32"/>
+        <v>1.95690699844479</v>
+      </c>
+      <c r="M315" s="10">
+        <f t="shared" si="29"/>
+        <v>22.087000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C316" s="3">
+        <v>256</v>
+      </c>
+      <c r="D316" s="3">
+        <v>32</v>
+      </c>
+      <c r="E316" s="3">
+        <v>150</v>
+      </c>
+      <c r="F316" s="3"/>
+      <c r="G316" s="2">
+        <v>8.8049999999999997</v>
+      </c>
+      <c r="H316" s="2">
+        <v>13</v>
+      </c>
+      <c r="I316" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="J316" s="2">
+        <f t="shared" si="30"/>
+        <v>0.28581287904599656</v>
+      </c>
+      <c r="K316" s="2">
+        <f t="shared" si="31"/>
+        <v>0.19358326153846156</v>
+      </c>
+      <c r="L316" s="2">
+        <f t="shared" si="32"/>
+        <v>2.3301688888888887</v>
+      </c>
+      <c r="M316" s="10">
+        <f t="shared" si="29"/>
+        <v>22.884999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C317" s="3">
+        <v>256</v>
+      </c>
+      <c r="D317" s="3">
         <v>64</v>
       </c>
-      <c r="E282">
-        <v>50</v>
-      </c>
-      <c r="G282" s="2">
-        <v>13.161</v>
-      </c>
-      <c r="H282" s="2">
-        <v>12.762</v>
-      </c>
-      <c r="I282" s="2">
-        <f t="shared" si="27"/>
-        <v>1.506745080161082</v>
-      </c>
-      <c r="J282" s="2">
-        <f t="shared" si="28"/>
-        <v>1.5538530010970066</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C283">
-        <v>1760</v>
-      </c>
-      <c r="D283">
-        <v>128</v>
-      </c>
-      <c r="E283">
-        <v>50</v>
-      </c>
-      <c r="G283" s="2">
-        <v>16.603999999999999</v>
-      </c>
-      <c r="H283" s="2">
-        <v>15.997</v>
-      </c>
-      <c r="I283" s="2">
-        <f t="shared" si="27"/>
-        <v>2.3886138279932543</v>
-      </c>
-      <c r="J283" s="2">
-        <f t="shared" si="28"/>
-        <v>2.4792488591610926</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C284">
+      <c r="E317" s="3">
+        <v>150</v>
+      </c>
+      <c r="F317" s="3"/>
+      <c r="G317" s="2">
+        <v>11.512</v>
+      </c>
+      <c r="H317" s="2">
+        <v>13.552</v>
+      </c>
+      <c r="I317" s="2">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="J317" s="2">
+        <f t="shared" si="30"/>
+        <v>0.43721028492008335</v>
+      </c>
+      <c r="K317" s="2">
+        <f t="shared" si="31"/>
+        <v>0.37139645808736721</v>
+      </c>
+      <c r="L317" s="2">
+        <f t="shared" si="32"/>
+        <v>2.5997752066115702</v>
+      </c>
+      <c r="M317" s="10">
+        <f t="shared" si="29"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3"/>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C321" s="3">
+        <v>2816</v>
+      </c>
+      <c r="D321" s="3">
+        <v>32</v>
+      </c>
+      <c r="E321" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F321" s="3"/>
+      <c r="G321" s="2">
+        <v>819.94399999999996</v>
+      </c>
+      <c r="H321" s="2">
+        <v>781.30899999999997</v>
+      </c>
+      <c r="I321" s="2">
+        <v>474.255</v>
+      </c>
+      <c r="J321" s="2">
+        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
+        <v>2.7853103724156774</v>
+      </c>
+      <c r="K321" s="2">
+        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
+        <v>2.9230413677559071</v>
+      </c>
+      <c r="L321" s="2">
+        <f>(6*$E321*$D321*$C321*$C321)/(I321/1000)/10^12</f>
+        <v>4.8155497105987282</v>
+      </c>
+      <c r="M321" s="10">
+        <f t="shared" ref="M321:M339" si="33">G321+H321+I321</f>
+        <v>2075.5079999999998</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C322" s="3">
+        <v>2816</v>
+      </c>
+      <c r="D322" s="3">
+        <v>32</v>
+      </c>
+      <c r="E322" s="3">
+        <v>750</v>
+      </c>
+      <c r="F322" s="3"/>
+      <c r="G322" s="2">
+        <v>408.06900000000002</v>
+      </c>
+      <c r="H322" s="2">
+        <v>393.27699999999999</v>
+      </c>
+      <c r="I322" s="2">
+        <v>237.495</v>
+      </c>
+      <c r="J322" s="2">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>2.7982994640612247</v>
+      </c>
+      <c r="K322" s="2">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>2.9035495693874798</v>
+      </c>
+      <c r="L322" s="2">
+        <f>(6*$E322*$D322*$C322*$C322)/(I322/1000)/10^12</f>
+        <v>4.8080981241710354</v>
+      </c>
+      <c r="M322" s="10">
+        <f t="shared" si="33"/>
+        <v>1038.8409999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C323" s="3">
+        <v>2816</v>
+      </c>
+      <c r="D323" s="3">
+        <v>32</v>
+      </c>
+      <c r="E323" s="3">
+        <v>375</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="G323" s="2">
+        <v>205.29900000000001</v>
+      </c>
+      <c r="H323" s="2">
+        <v>198.13499999999999</v>
+      </c>
+      <c r="I323" s="2">
+        <v>119.187</v>
+      </c>
+      <c r="J323" s="2">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>2.7810638726929988</v>
+      </c>
+      <c r="K323" s="2">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>2.8816192595957304</v>
+      </c>
+      <c r="L323" s="2">
+        <f>(6*$E323*$D323*$C323*$C323)/(I323/1000)/10^12</f>
+        <v>4.7903683455410402</v>
+      </c>
+      <c r="M323" s="10">
+        <f t="shared" si="33"/>
+        <v>522.62099999999998</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C324" s="3">
+        <v>2816</v>
+      </c>
+      <c r="D324" s="3">
+        <v>32</v>
+      </c>
+      <c r="E324" s="3">
+        <v>187</v>
+      </c>
+      <c r="F324" s="3"/>
+      <c r="G324" s="2">
+        <v>102.889</v>
+      </c>
+      <c r="H324" s="2">
+        <v>99.608000000000004</v>
+      </c>
+      <c r="I324" s="2">
+        <v>59.811</v>
+      </c>
+      <c r="J324" s="2">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>2.7671913404153994</v>
+      </c>
+      <c r="K324" s="2">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>2.8583401917918239</v>
+      </c>
+      <c r="L324" s="2">
+        <f>(6*$E324*$D324*$C324*$C324)/(I324/1000)/10^12</f>
+        <v>4.7602205250539198</v>
+      </c>
+      <c r="M324" s="10">
+        <f t="shared" si="33"/>
+        <v>262.30799999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C325" s="3">
         <v>2048</v>
       </c>
-      <c r="D284">
-        <v>16</v>
-      </c>
-      <c r="E284">
-        <v>50</v>
-      </c>
-      <c r="G284" s="2">
-        <v>8.7390000000000008</v>
-      </c>
-      <c r="H284" s="2">
-        <v>8.2349999999999994</v>
-      </c>
-      <c r="I284" s="2">
-        <f t="shared" si="27"/>
-        <v>0.76811131708433456</v>
-      </c>
-      <c r="J284" s="2">
-        <f t="shared" si="28"/>
-        <v>0.81512140862173654</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C285">
+      <c r="D325" s="3">
+        <v>32</v>
+      </c>
+      <c r="E325" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F325" s="3"/>
+      <c r="G325" s="2">
+        <v>430.68900000000002</v>
+      </c>
+      <c r="H325" s="2">
+        <v>531.63900000000001</v>
+      </c>
+      <c r="I325" s="2">
+        <v>254.03700000000001</v>
+      </c>
+      <c r="J325" s="2">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>2.8047141951617056</v>
+      </c>
+      <c r="K325" s="2">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>2.2721424726176971</v>
+      </c>
+      <c r="L325" s="2">
+        <f>(6*$E325*$D325*$C325*$C325)/(I325/1000)/10^12</f>
+        <v>4.7550536024279921</v>
+      </c>
+      <c r="M325" s="10">
+        <f t="shared" si="33"/>
+        <v>1216.365</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C326" s="3">
         <v>2048</v>
       </c>
-      <c r="D285">
+      <c r="D326" s="3">
         <v>32</v>
       </c>
-      <c r="E285">
-        <v>50</v>
-      </c>
-      <c r="G285" s="2">
-        <v>9.202</v>
-      </c>
-      <c r="H285" s="2">
-        <v>8.8049999999999997</v>
-      </c>
-      <c r="I285" s="2">
-        <f t="shared" si="27"/>
-        <v>1.4589273636166049</v>
-      </c>
-      <c r="J285" s="2">
-        <f t="shared" si="28"/>
-        <v>1.5247075070982394</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C286">
+      <c r="E326" s="3">
+        <v>750</v>
+      </c>
+      <c r="F326" s="3"/>
+      <c r="G326" s="2">
+        <v>217.14</v>
+      </c>
+      <c r="H326" s="2">
+        <v>268.05399999999997</v>
+      </c>
+      <c r="I326" s="2">
+        <v>127.342</v>
+      </c>
+      <c r="J326" s="2">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>2.7815224095053881</v>
+      </c>
+      <c r="K326" s="2">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>2.2532018772336917</v>
+      </c>
+      <c r="L326" s="2">
+        <f>(6*$E326*$D326*$C326*$C326)/(I326/1000)/10^12</f>
+        <v>4.7429738499473855</v>
+      </c>
+      <c r="M326" s="10">
+        <f t="shared" si="33"/>
+        <v>612.53599999999994</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C327" s="3">
         <v>2048</v>
       </c>
-      <c r="D286">
-        <v>64</v>
-      </c>
-      <c r="E286">
-        <v>50</v>
-      </c>
-      <c r="G286" s="2">
-        <v>12.27</v>
-      </c>
-      <c r="H286" s="2">
-        <v>11.754</v>
-      </c>
-      <c r="I286" s="2">
-        <f t="shared" si="27"/>
-        <v>2.1882721434392831</v>
-      </c>
-      <c r="J286" s="2">
-        <f t="shared" si="28"/>
-        <v>2.2843371788327378</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C287">
+      <c r="D327" s="3">
+        <v>32</v>
+      </c>
+      <c r="E327" s="3">
+        <v>375</v>
+      </c>
+      <c r="F327" s="3"/>
+      <c r="G327" s="2">
+        <v>111.374</v>
+      </c>
+      <c r="H327" s="2">
+        <v>135.17599999999999</v>
+      </c>
+      <c r="I327" s="2">
+        <v>64.012</v>
+      </c>
+      <c r="J327" s="2">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>2.7114935981467845</v>
+      </c>
+      <c r="K327" s="2">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>2.2340495946025922</v>
+      </c>
+      <c r="L327" s="2">
+        <f>(6*$E327*$D327*$C327*$C327)/(I327/1000)/10^12</f>
+        <v>4.7177074298569019</v>
+      </c>
+      <c r="M327" s="10">
+        <f t="shared" si="33"/>
+        <v>310.56200000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C328" s="3">
         <v>2048</v>
       </c>
-      <c r="D287">
-        <v>128</v>
-      </c>
-      <c r="E287">
-        <v>50</v>
-      </c>
-      <c r="G287" s="2">
-        <v>19.122</v>
-      </c>
-      <c r="H287" s="2">
-        <v>17.943000000000001</v>
-      </c>
-      <c r="I287" s="2">
-        <f t="shared" si="27"/>
-        <v>2.8082940278213573</v>
-      </c>
-      <c r="J287" s="2">
-        <f t="shared" si="28"/>
-        <v>2.9928216240316559</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C288">
-        <v>2560</v>
-      </c>
-      <c r="D288">
-        <v>16</v>
-      </c>
-      <c r="E288">
-        <v>50</v>
-      </c>
-      <c r="G288" s="2">
-        <v>12.943</v>
-      </c>
-      <c r="H288" s="2">
-        <v>12.574999999999999</v>
-      </c>
-      <c r="I288" s="2">
-        <f t="shared" si="27"/>
-        <v>0.81030734760101986</v>
-      </c>
-      <c r="J288" s="2">
-        <f t="shared" si="28"/>
-        <v>0.83402051689860834</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C289">
-        <v>2560</v>
-      </c>
-      <c r="D289">
+      <c r="D328" s="3">
         <v>32</v>
       </c>
-      <c r="E289">
-        <v>50</v>
-      </c>
-      <c r="G289" s="2">
-        <v>11.904999999999999</v>
-      </c>
-      <c r="H289" s="2">
-        <v>11.189</v>
-      </c>
-      <c r="I289" s="2">
-        <f t="shared" si="27"/>
-        <v>1.7619165056698867</v>
-      </c>
-      <c r="J289" s="2">
-        <f t="shared" si="28"/>
-        <v>1.87466404504424</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C290">
-        <v>2560</v>
-      </c>
-      <c r="D290">
-        <v>64</v>
-      </c>
-      <c r="E290">
-        <v>50</v>
-      </c>
-      <c r="G290" s="2">
-        <v>15.794</v>
-      </c>
-      <c r="H290" s="2">
-        <v>15.411</v>
-      </c>
-      <c r="I290" s="2">
-        <f t="shared" si="27"/>
-        <v>2.6561499303532989</v>
-      </c>
-      <c r="J290" s="2">
-        <f t="shared" si="28"/>
-        <v>2.722161572902472</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C291">
-        <v>2560</v>
-      </c>
-      <c r="D291">
-        <v>128</v>
-      </c>
-      <c r="E291">
-        <v>50</v>
-      </c>
-      <c r="G291" s="2">
-        <v>25.934000000000001</v>
-      </c>
-      <c r="H291" s="2">
-        <v>25.521999999999998</v>
-      </c>
-      <c r="I291" s="2">
-        <f t="shared" si="27"/>
-        <v>3.2352303539754761</v>
-      </c>
-      <c r="J291" s="2">
-        <f t="shared" si="28"/>
-        <v>3.2874564689287675</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="1"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>9</v>
-      </c>
-      <c r="C295" t="s">
-        <v>8</v>
-      </c>
-      <c r="D295" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" t="s">
-        <v>6</v>
-      </c>
-      <c r="G295" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H295" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I295" t="s">
-        <v>43</v>
-      </c>
-      <c r="J295" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C296">
-        <v>512</v>
-      </c>
-      <c r="D296">
-        <v>16</v>
-      </c>
-      <c r="E296">
-        <v>25</v>
-      </c>
-      <c r="G296" s="2">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="H296" s="2">
-        <v>3.0390000000000001</v>
-      </c>
-      <c r="I296" s="2">
-        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
-        <v>0.32091078806426937</v>
-      </c>
-      <c r="J296" s="2">
-        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
-        <v>0.27603185258308655</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C297">
-        <v>512</v>
-      </c>
-      <c r="D297">
+      <c r="E328" s="3">
+        <v>187</v>
+      </c>
+      <c r="F328" s="3"/>
+      <c r="G328" s="2">
+        <v>58.258000000000003</v>
+      </c>
+      <c r="H328" s="2">
+        <v>68.963999999999999</v>
+      </c>
+      <c r="I328" s="2">
+        <v>32.284999999999997</v>
+      </c>
+      <c r="J328" s="2">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.5849203682927664</v>
+      </c>
+      <c r="K328" s="2">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>2.1836362568296503</v>
+      </c>
+      <c r="L328" s="2">
+        <f>(6*$E328*$D328*$C328*$C328)/(I328/1000)/10^12</f>
+        <v>4.6644661860306647</v>
+      </c>
+      <c r="M328" s="10">
+        <f t="shared" si="33"/>
+        <v>159.50700000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C329" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D329" s="3">
         <v>32</v>
       </c>
-      <c r="E297">
-        <v>25</v>
-      </c>
-      <c r="G297" s="2">
-        <v>3.4340000000000002</v>
-      </c>
-      <c r="H297" s="2">
-        <v>3.173</v>
-      </c>
-      <c r="I297" s="2">
-        <f t="shared" ref="I297:J311" si="29">(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
-        <v>0.4885619103086779</v>
-      </c>
-      <c r="J297" s="2">
-        <f t="shared" si="29"/>
-        <v>0.52874932240781591</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C298">
-        <v>512</v>
-      </c>
-      <c r="D298">
-        <v>64</v>
-      </c>
-      <c r="E298">
-        <v>25</v>
-      </c>
-      <c r="G298" s="2">
-        <v>3.476</v>
-      </c>
-      <c r="H298" s="2">
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="I298" s="2">
-        <f t="shared" si="29"/>
-        <v>0.96531737629459158</v>
-      </c>
-      <c r="J298" s="2">
-        <f t="shared" si="29"/>
-        <v>0.85120324708269912</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C299">
-        <v>512</v>
-      </c>
-      <c r="D299">
-        <v>128</v>
-      </c>
-      <c r="E299">
-        <v>25</v>
-      </c>
-      <c r="G299" s="2">
-        <v>4.2140000000000004</v>
-      </c>
-      <c r="H299" s="2">
-        <v>7.0670000000000002</v>
-      </c>
-      <c r="I299" s="2">
-        <f t="shared" si="29"/>
-        <v>1.5925216896060748</v>
-      </c>
-      <c r="J299" s="2">
-        <f t="shared" si="29"/>
-        <v>0.94960894297438792</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C300">
-        <v>1024</v>
-      </c>
-      <c r="D300">
-        <v>16</v>
-      </c>
-      <c r="E300">
-        <v>25</v>
-      </c>
-      <c r="G300" s="2">
-        <v>5.4610000000000003</v>
-      </c>
-      <c r="H300" s="2">
-        <v>5.2850000000000001</v>
-      </c>
-      <c r="I300" s="2">
-        <f t="shared" si="29"/>
-        <v>0.61443750228895799</v>
-      </c>
-      <c r="J300" s="2">
-        <f t="shared" si="29"/>
-        <v>0.63489937559129617</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C301">
-        <v>1024</v>
-      </c>
-      <c r="D301">
+      <c r="E329" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F329" s="3"/>
+      <c r="G329" s="2">
+        <v>308.98599999999999</v>
+      </c>
+      <c r="H329" s="2">
+        <v>373.56299999999999</v>
+      </c>
+      <c r="I329" s="2">
+        <v>144.65899999999999</v>
+      </c>
+      <c r="J329" s="2">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>2.1990551287113336</v>
+      </c>
+      <c r="K329" s="2">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>1.8189093887777967</v>
+      </c>
+      <c r="L329" s="2">
+        <f>(6*$E329*$D329*$C329*$C329)/(I329/1000)/10^12</f>
+        <v>4.697096260861751</v>
+      </c>
+      <c r="M329" s="10">
+        <f t="shared" si="33"/>
+        <v>827.20799999999997</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C330" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D330" s="3">
         <v>32</v>
       </c>
-      <c r="E301">
-        <v>25</v>
-      </c>
-      <c r="G301" s="2">
-        <v>5.0949999999999998</v>
-      </c>
-      <c r="H301" s="2">
-        <v>12.397</v>
-      </c>
-      <c r="I301" s="2">
-        <f t="shared" si="29"/>
-        <v>1.3171514033366045</v>
-      </c>
-      <c r="J301" s="2">
-        <f t="shared" si="29"/>
-        <v>0.54133148342340887</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C302">
-        <v>1024</v>
-      </c>
-      <c r="D302">
-        <v>64</v>
-      </c>
-      <c r="E302">
-        <v>25</v>
-      </c>
-      <c r="G302" s="2">
-        <v>6.2869999999999999</v>
-      </c>
-      <c r="H302" s="2">
-        <v>14.587999999999999</v>
-      </c>
-      <c r="I302" s="2">
-        <f t="shared" si="29"/>
-        <v>2.1348453634483855</v>
-      </c>
-      <c r="J302" s="2">
-        <f t="shared" si="29"/>
-        <v>0.92005571702769406</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C303">
-        <v>1024</v>
-      </c>
-      <c r="D303">
-        <v>128</v>
-      </c>
-      <c r="E303">
-        <v>25</v>
-      </c>
-      <c r="G303" s="2">
-        <v>9.0920000000000005</v>
-      </c>
-      <c r="H303" s="2">
-        <v>9.593</v>
-      </c>
-      <c r="I303" s="2">
-        <f t="shared" si="29"/>
-        <v>2.9524357237131542</v>
-      </c>
-      <c r="J303" s="2">
-        <f t="shared" si="29"/>
-        <v>2.798243052225581</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C304">
-        <v>2048</v>
-      </c>
-      <c r="D304">
-        <v>16</v>
-      </c>
-      <c r="E304">
-        <v>25</v>
-      </c>
-      <c r="G304" s="2">
-        <v>16.803999999999998</v>
-      </c>
-      <c r="H304" s="2">
-        <v>12.689</v>
-      </c>
-      <c r="I304" s="2">
-        <f t="shared" si="29"/>
-        <v>0.79872487502975487</v>
-      </c>
-      <c r="J304" s="2">
-        <f t="shared" si="29"/>
-        <v>1.0577486641973362</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C305">
-        <v>2048</v>
-      </c>
-      <c r="D305">
+      <c r="E330" s="3">
+        <v>750</v>
+      </c>
+      <c r="F330" s="3"/>
+      <c r="G330" s="2">
+        <v>156.85400000000001</v>
+      </c>
+      <c r="H330" s="2">
+        <v>187.863</v>
+      </c>
+      <c r="I330" s="2">
+        <v>72.507000000000005</v>
+      </c>
+      <c r="J330" s="2">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>2.1659544799622577</v>
+      </c>
+      <c r="K330" s="2">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>1.8084381916609444</v>
+      </c>
+      <c r="L330" s="2">
+        <f>(6*$E330*$D330*$C330*$C330)/(I330/1000)/10^12</f>
+        <v>4.6855975836815755</v>
+      </c>
+      <c r="M330" s="10">
+        <f t="shared" si="33"/>
+        <v>417.22399999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C331" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D331" s="3">
         <v>32</v>
       </c>
-      <c r="E305">
-        <v>25</v>
-      </c>
-      <c r="G305" s="2">
-        <v>11.252000000000001</v>
-      </c>
-      <c r="H305" s="2">
-        <v>11.444000000000001</v>
-      </c>
-      <c r="I305" s="2">
-        <f t="shared" si="29"/>
-        <v>2.3856688233202989</v>
-      </c>
-      <c r="J305" s="2">
-        <f t="shared" si="29"/>
-        <v>2.345643621111499</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C306">
-        <v>2048</v>
-      </c>
-      <c r="D306">
-        <v>64</v>
-      </c>
-      <c r="E306">
-        <v>25</v>
-      </c>
-      <c r="G306" s="2">
-        <v>16.46</v>
-      </c>
-      <c r="H306" s="2">
-        <v>16.218</v>
-      </c>
-      <c r="I306" s="2">
-        <f t="shared" si="29"/>
-        <v>3.261670182260024</v>
-      </c>
-      <c r="J306" s="2">
-        <f t="shared" si="29"/>
-        <v>3.3103398199531386</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C307">
-        <v>2048</v>
-      </c>
-      <c r="D307">
-        <v>128</v>
-      </c>
-      <c r="E307">
-        <v>25</v>
-      </c>
-      <c r="G307" s="2">
-        <v>31.541</v>
-      </c>
-      <c r="H307" s="2">
-        <v>30.824999999999999</v>
-      </c>
-      <c r="I307" s="2">
-        <f t="shared" si="29"/>
-        <v>3.4042732443486257</v>
-      </c>
-      <c r="J307" s="2">
-        <f t="shared" si="29"/>
-        <v>3.4833473609083541</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C308">
-        <v>4096</v>
-      </c>
-      <c r="D308">
-        <v>16</v>
-      </c>
-      <c r="E308">
-        <v>25</v>
-      </c>
-      <c r="G308" s="2">
-        <v>60.247999999999998</v>
-      </c>
-      <c r="H308" s="2">
-        <v>56.017000000000003</v>
-      </c>
-      <c r="I308" s="2">
-        <f t="shared" si="29"/>
-        <v>0.89110163324923652</v>
-      </c>
-      <c r="J308" s="2">
-        <f t="shared" si="29"/>
-        <v>0.95840711212667573</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C309">
-        <v>4096</v>
-      </c>
-      <c r="D309">
+      <c r="E331" s="3">
+        <v>375</v>
+      </c>
+      <c r="F331" s="3"/>
+      <c r="G331" s="2">
+        <v>79.66</v>
+      </c>
+      <c r="H331" s="2">
+        <v>95.177000000000007</v>
+      </c>
+      <c r="I331" s="2">
+        <v>36.475000000000001</v>
+      </c>
+      <c r="J331" s="2">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>2.1324292242028622</v>
+      </c>
+      <c r="K331" s="2">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>1.7847727076919842</v>
+      </c>
+      <c r="L331" s="2">
+        <f>(6*$E331*$D331*$C331*$C331)/(I331/1000)/10^12</f>
+        <v>4.6571435777930086</v>
+      </c>
+      <c r="M331" s="10">
+        <f t="shared" si="33"/>
+        <v>211.31199999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1536</v>
+      </c>
+      <c r="D332" s="3">
         <v>32</v>
       </c>
-      <c r="E309">
-        <v>25</v>
-      </c>
-      <c r="G309" s="2">
-        <v>104.898</v>
-      </c>
-      <c r="H309" s="2">
-        <v>38.359000000000002</v>
-      </c>
-      <c r="I309" s="2">
-        <f t="shared" si="29"/>
-        <v>1.023605620698202</v>
-      </c>
-      <c r="J309" s="2">
-        <f t="shared" si="29"/>
-        <v>2.7991913866367732</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C310">
-        <v>4096</v>
-      </c>
-      <c r="D310">
-        <v>64</v>
-      </c>
-      <c r="E310">
-        <v>25</v>
-      </c>
-      <c r="G310" s="2">
-        <v>106.22499999999999</v>
-      </c>
-      <c r="H310" s="2">
-        <v>56.636000000000003</v>
-      </c>
-      <c r="I310" s="2">
-        <f t="shared" si="29"/>
-        <v>2.0216367597081666</v>
-      </c>
-      <c r="J310" s="2">
-        <f t="shared" si="29"/>
-        <v>3.7917290204110454</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C311">
-        <v>4096</v>
-      </c>
-      <c r="D311">
-        <v>128</v>
-      </c>
-      <c r="E311">
-        <v>25</v>
-      </c>
-      <c r="G311" s="2">
-        <v>108.715</v>
-      </c>
-      <c r="H311" s="2">
-        <v>112.19199999999999</v>
-      </c>
-      <c r="I311" s="2">
-        <f t="shared" si="29"/>
-        <v>3.9506666936485302</v>
-      </c>
-      <c r="J311" s="2">
-        <f t="shared" si="29"/>
-        <v>3.8282295493439826</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C312">
-        <v>1536</v>
-      </c>
-      <c r="D312">
-        <v>8</v>
-      </c>
-      <c r="E312">
-        <v>50</v>
-      </c>
-      <c r="G312" s="2">
-        <v>11.773</v>
-      </c>
-      <c r="H312" s="2">
-        <v>12.353999999999999</v>
-      </c>
-      <c r="I312" s="2">
-        <f t="shared" ref="I312:I317" si="30">(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
-        <v>0.64127641212944875</v>
-      </c>
-      <c r="J312" s="2">
-        <f t="shared" ref="J312:J317" si="31">(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
-        <v>0.61111762991743568</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C313">
-        <v>1536</v>
-      </c>
-      <c r="D313">
-        <v>16</v>
-      </c>
-      <c r="E313">
-        <v>50</v>
-      </c>
-      <c r="G313" s="2">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="H313" s="2">
-        <v>14.135999999999999</v>
-      </c>
-      <c r="I313" s="2">
-        <f t="shared" si="30"/>
-        <v>0.77832445360824754</v>
-      </c>
-      <c r="J313" s="2">
-        <f t="shared" si="31"/>
-        <v>1.0681589134125637</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C314">
-        <v>1536</v>
-      </c>
-      <c r="D314">
-        <v>32</v>
-      </c>
-      <c r="E314">
-        <v>50</v>
-      </c>
-      <c r="G314" s="2">
-        <v>13.861000000000001</v>
-      </c>
-      <c r="H314" s="2">
-        <v>16.105</v>
-      </c>
-      <c r="I314" s="2">
-        <f t="shared" si="30"/>
-        <v>2.1787020272707598</v>
-      </c>
-      <c r="J314" s="2">
-        <f t="shared" si="31"/>
-        <v>1.8751312511642346</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C315">
-        <v>256</v>
-      </c>
-      <c r="D315">
-        <v>16</v>
-      </c>
-      <c r="E315">
-        <v>150</v>
-      </c>
-      <c r="G315" s="2">
-        <v>8.6790000000000003</v>
-      </c>
-      <c r="H315" s="2">
-        <v>12.395</v>
-      </c>
-      <c r="I315" s="2">
-        <f t="shared" si="30"/>
-        <v>0.14498112685793293</v>
-      </c>
-      <c r="J315" s="2">
-        <f t="shared" si="31"/>
-        <v>0.1015160306575232</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C316">
-        <v>256</v>
-      </c>
-      <c r="D316">
-        <v>32</v>
-      </c>
-      <c r="E316">
-        <v>150</v>
-      </c>
-      <c r="G316" s="2">
-        <v>8.91</v>
-      </c>
-      <c r="H316" s="2">
-        <v>12.340999999999999</v>
-      </c>
-      <c r="I316" s="2">
-        <f t="shared" si="30"/>
-        <v>0.28244471380471381</v>
-      </c>
-      <c r="J316" s="2">
-        <f t="shared" si="31"/>
-        <v>0.20392046025443644</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C317">
-        <v>256</v>
-      </c>
-      <c r="D317">
-        <v>64</v>
-      </c>
-      <c r="E317">
-        <v>150</v>
-      </c>
-      <c r="G317" s="2">
-        <v>11.472</v>
-      </c>
-      <c r="H317" s="2">
-        <v>13.086</v>
-      </c>
-      <c r="I317" s="2">
-        <f t="shared" si="30"/>
-        <v>0.43873472803347285</v>
-      </c>
-      <c r="J317" s="2">
-        <f t="shared" si="31"/>
-        <v>0.38462209995414948</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>74</v>
-      </c>
-      <c r="C320" t="s">
-        <v>75</v>
-      </c>
-      <c r="D320" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" t="s">
-        <v>6</v>
-      </c>
-      <c r="G320" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H320" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C321">
-        <v>2816</v>
-      </c>
-      <c r="D321">
-        <v>32</v>
-      </c>
-      <c r="E321">
-        <v>1500</v>
-      </c>
-      <c r="G321" s="2">
-        <v>831.64099999999996</v>
-      </c>
-      <c r="H321" s="2">
-        <v>781.20399999999995</v>
-      </c>
-      <c r="I321" s="2">
-        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
-        <v>2.7461350847300698</v>
-      </c>
-      <c r="J321" s="2">
-        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
-        <v>2.923434247648502</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C322">
-        <v>2816</v>
-      </c>
-      <c r="D322">
-        <v>32</v>
-      </c>
-      <c r="E322">
-        <v>750</v>
-      </c>
-      <c r="G322" s="2">
-        <v>414.38299999999998</v>
-      </c>
-      <c r="H322" s="2">
-        <v>391.86500000000001</v>
-      </c>
-      <c r="I322" s="2">
-        <f t="shared" ref="I322:I339" si="32">(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
-        <v>2.7556614629461151</v>
-      </c>
-      <c r="J322" s="2">
-        <f t="shared" ref="J322:J339" si="33">(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
-        <v>2.9140118765391141</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C323">
-        <v>2816</v>
-      </c>
-      <c r="D323">
-        <v>32</v>
-      </c>
-      <c r="E323">
-        <v>375</v>
-      </c>
-      <c r="G323" s="2">
-        <v>211.21899999999999</v>
-      </c>
-      <c r="H323" s="2">
-        <v>197.33500000000001</v>
-      </c>
-      <c r="I323" s="2">
-        <f t="shared" si="32"/>
-        <v>2.70311682187682</v>
-      </c>
-      <c r="J323" s="2">
+      <c r="E332" s="3">
+        <v>187</v>
+      </c>
+      <c r="F332" s="3"/>
+      <c r="G332" s="2">
+        <v>41.610999999999997</v>
+      </c>
+      <c r="H332" s="2">
+        <v>48.64</v>
+      </c>
+      <c r="I332" s="2">
+        <v>18.376000000000001</v>
+      </c>
+      <c r="J332" s="2">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>2.0357156421138645</v>
+      </c>
+      <c r="K332" s="2">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>1.7415329684210525</v>
+      </c>
+      <c r="L332" s="2">
+        <f>(6*$E332*$D332*$C332*$C332)/(I332/1000)/10^12</f>
+        <v>4.6097172172398784</v>
+      </c>
+      <c r="M332" s="10">
         <f t="shared" si="33"/>
-        <v>2.8933014011705982</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C324">
-        <v>2816</v>
-      </c>
-      <c r="D324">
-        <v>32</v>
-      </c>
-      <c r="E324">
-        <v>187</v>
-      </c>
-      <c r="G324" s="2">
-        <v>106.821</v>
-      </c>
-      <c r="H324" s="2">
-        <v>99.554000000000002</v>
-      </c>
-      <c r="I324" s="2">
-        <f t="shared" si="32"/>
-        <v>2.6653331257337043</v>
-      </c>
-      <c r="J324" s="2">
-        <f t="shared" si="33"/>
-        <v>2.8598906103622155</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C325">
-        <v>2048</v>
-      </c>
-      <c r="D325">
-        <v>32</v>
-      </c>
-      <c r="E325">
-        <v>1500</v>
-      </c>
-      <c r="G325" s="2">
-        <v>430.459</v>
-      </c>
-      <c r="H325" s="2">
-        <v>529.28800000000001</v>
-      </c>
-      <c r="I325" s="2">
-        <f t="shared" si="32"/>
-        <v>2.8062127914621371</v>
-      </c>
-      <c r="J325" s="2">
-        <f t="shared" si="33"/>
-        <v>2.2822349118060488</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C326">
-        <v>2048</v>
-      </c>
-      <c r="D326">
-        <v>32</v>
-      </c>
-      <c r="E326">
-        <v>750</v>
-      </c>
-      <c r="G326" s="2">
-        <v>218.339</v>
-      </c>
-      <c r="H326" s="2">
-        <v>266.03199999999998</v>
-      </c>
-      <c r="I326" s="2">
-        <f t="shared" si="32"/>
-        <v>2.7662477889886827</v>
-      </c>
-      <c r="J326" s="2">
-        <f t="shared" si="33"/>
-        <v>2.2703275395441151</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C327">
-        <v>2048</v>
-      </c>
-      <c r="D327">
-        <v>32</v>
-      </c>
-      <c r="E327">
-        <v>375</v>
-      </c>
-      <c r="G327" s="2">
-        <v>110.236</v>
-      </c>
-      <c r="H327" s="2">
-        <v>134.517</v>
-      </c>
-      <c r="I327" s="2">
-        <f t="shared" si="32"/>
-        <v>2.7394851772560687</v>
-      </c>
-      <c r="J327" s="2">
-        <f t="shared" si="33"/>
-        <v>2.2449942237784071</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C328">
-        <v>2048</v>
-      </c>
-      <c r="D328">
-        <v>32</v>
-      </c>
-      <c r="E328">
-        <v>187</v>
-      </c>
-      <c r="G328" s="2">
-        <v>57.274999999999999</v>
-      </c>
-      <c r="H328" s="2">
-        <v>68.504000000000005</v>
-      </c>
-      <c r="I328" s="2">
-        <f t="shared" si="32"/>
-        <v>2.6292848680226979</v>
-      </c>
-      <c r="J328" s="2">
-        <f t="shared" si="33"/>
-        <v>2.1982992353147259</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C329">
-        <v>1536</v>
-      </c>
-      <c r="D329">
-        <v>32</v>
-      </c>
-      <c r="E329">
-        <v>1500</v>
-      </c>
-      <c r="G329" s="2">
-        <v>309.71699999999998</v>
-      </c>
-      <c r="H329" s="2">
-        <v>369.03399999999999</v>
-      </c>
-      <c r="I329" s="2">
-        <f t="shared" si="32"/>
-        <v>2.193864876645454</v>
-      </c>
-      <c r="J329" s="2">
-        <f t="shared" si="33"/>
-        <v>1.8412321032750372</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C330">
-        <v>1536</v>
-      </c>
-      <c r="D330">
-        <v>32</v>
-      </c>
-      <c r="E330">
-        <v>750</v>
-      </c>
-      <c r="G330" s="2">
-        <v>156.02000000000001</v>
-      </c>
-      <c r="H330" s="2">
-        <v>185.78399999999999</v>
-      </c>
-      <c r="I330" s="2">
-        <f t="shared" si="32"/>
-        <v>2.1775325214716061</v>
-      </c>
-      <c r="J330" s="2">
-        <f t="shared" si="33"/>
-        <v>1.8286753649399301</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C331">
-        <v>1536</v>
-      </c>
-      <c r="D331">
-        <v>32</v>
-      </c>
-      <c r="E331">
-        <v>375</v>
-      </c>
-      <c r="G331" s="2">
-        <v>79.287999999999997</v>
-      </c>
-      <c r="H331" s="2">
-        <v>94.47</v>
-      </c>
-      <c r="I331" s="2">
-        <f t="shared" si="32"/>
-        <v>2.1424340631621432</v>
-      </c>
-      <c r="J331" s="2">
-        <f t="shared" si="33"/>
-        <v>1.7981296919657033</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C332">
-        <v>1536</v>
-      </c>
-      <c r="D332">
-        <v>32</v>
-      </c>
-      <c r="E332">
-        <v>187</v>
-      </c>
-      <c r="G332" s="2">
-        <v>41.186</v>
-      </c>
-      <c r="H332" s="2">
-        <v>48.908999999999999</v>
-      </c>
-      <c r="I332" s="2">
-        <f t="shared" si="32"/>
-        <v>2.0567222741708346</v>
-      </c>
-      <c r="J332" s="2">
-        <f t="shared" si="33"/>
-        <v>1.731954519290928</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C333">
+        <v>108.62700000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C333" s="3">
         <v>2560</v>
       </c>
       <c r="D333" s="3">
@@ -13084,23 +13960,39 @@
       <c r="E333" s="3">
         <v>1500</v>
       </c>
+      <c r="F333" s="3"/>
       <c r="G333" s="2">
-        <v>713.30499999999995</v>
+        <v>702.96</v>
       </c>
       <c r="H333" s="2">
-        <v>695.00900000000001</v>
+        <v>699.53800000000001</v>
       </c>
       <c r="I333" s="2">
-        <f t="shared" si="32"/>
-        <v>2.6460445391522565</v>
+        <v>393.81900000000002</v>
       </c>
       <c r="J333" s="2">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>2.6849846363946739</v>
+      </c>
+      <c r="K333" s="2">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>2.6981190442835126</v>
+      </c>
+      <c r="L333" s="2">
+        <f>(6*$E333*$D333*$C333*$C333)/(I333/1000)/10^12</f>
+        <v>4.7926504307816531</v>
+      </c>
+      <c r="M333" s="10">
         <f t="shared" si="33"/>
-        <v>2.7157012355235688</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C334">
+        <v>1796.317</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C334" s="3">
         <v>2560</v>
       </c>
       <c r="D334" s="3">
@@ -13109,23 +14001,39 @@
       <c r="E334" s="3">
         <v>750</v>
       </c>
+      <c r="F334" s="3"/>
       <c r="G334" s="2">
-        <v>359.84100000000001</v>
+        <v>352.839</v>
       </c>
       <c r="H334" s="2">
-        <v>349.279</v>
+        <v>351.26400000000001</v>
       </c>
       <c r="I334" s="2">
-        <f t="shared" si="32"/>
-        <v>2.622598314255463</v>
+        <v>197.10900000000001</v>
       </c>
       <c r="J334" s="2">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>2.6746431091801073</v>
+      </c>
+      <c r="K334" s="2">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>2.6866356928122435</v>
+      </c>
+      <c r="L334" s="2">
+        <f>(6*$E334*$D334*$C334*$C334)/(I334/1000)/10^12</f>
+        <v>4.7877996438518791</v>
+      </c>
+      <c r="M334" s="10">
         <f t="shared" si="33"/>
-        <v>2.7019042083835556</v>
-      </c>
-    </row>
-    <row r="335" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C335">
+        <v>901.2120000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C335" s="3">
         <v>2560</v>
       </c>
       <c r="D335" s="3">
@@ -13134,23 +14042,39 @@
       <c r="E335" s="3">
         <v>375</v>
       </c>
+      <c r="F335" s="3"/>
       <c r="G335" s="2">
-        <v>181.12700000000001</v>
+        <v>188.42099999999999</v>
       </c>
       <c r="H335" s="2">
-        <v>176.239</v>
+        <v>176.96700000000001</v>
       </c>
       <c r="I335" s="2">
-        <f t="shared" si="32"/>
-        <v>2.6051289978854615</v>
+        <v>98.820999999999998</v>
       </c>
       <c r="J335" s="2">
+        <f>(6*$E335*$D335*$C335*$C335)/(G335/1000)/10^12</f>
+        <v>2.5042813699109971</v>
+      </c>
+      <c r="K335" s="2">
+        <f>(6*$E335*$D335*$C335*$C335)/(H335/1000)/10^12</f>
+        <v>2.6663683059553471</v>
+      </c>
+      <c r="L335" s="2">
+        <f>(6*$E335*$D335*$C335*$C335)/(I335/1000)/10^12</f>
+        <v>4.774887928679127</v>
+      </c>
+      <c r="M335" s="10">
         <f t="shared" si="33"/>
-        <v>2.6773824181934756</v>
-      </c>
-    </row>
-    <row r="336" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C336">
+        <v>464.20900000000006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C336" s="3">
         <v>2560</v>
       </c>
       <c r="D336" s="3">
@@ -13159,23 +14083,39 @@
       <c r="E336" s="3">
         <v>187</v>
       </c>
+      <c r="F336" s="3"/>
       <c r="G336" s="2">
-        <v>90.957999999999998</v>
+        <v>88.602999999999994</v>
       </c>
       <c r="H336" s="2">
-        <v>89.552999999999997</v>
+        <v>89.643000000000001</v>
       </c>
       <c r="I336" s="2">
-        <f t="shared" si="32"/>
-        <v>2.5869132390773766</v>
+        <v>49.621000000000002</v>
       </c>
       <c r="J336" s="2">
+        <f>(6*$E336*$D336*$C336*$C336)/(G336/1000)/10^12</f>
+        <v>2.6556714151891021</v>
+      </c>
+      <c r="K336" s="2">
+        <f>(6*$E336*$D336*$C336*$C336)/(H336/1000)/10^12</f>
+        <v>2.6248614437267825</v>
+      </c>
+      <c r="L336" s="2">
+        <f>(6*$E336*$D336*$C336*$C336)/(I336/1000)/10^12</f>
+        <v>4.7419530924407001</v>
+      </c>
+      <c r="M336" s="10">
         <f t="shared" si="33"/>
-        <v>2.6274994070550401</v>
+        <v>227.86699999999999</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C337">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C337" s="3">
         <v>512</v>
       </c>
       <c r="D337" s="3">
@@ -13184,23 +14124,39 @@
       <c r="E337" s="3">
         <v>1</v>
       </c>
+      <c r="F337" s="3"/>
       <c r="G337" s="2">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="H337" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="I337" s="2">
-        <f t="shared" si="32"/>
-        <v>0.39945752380952382</v>
+        <v>0.114</v>
       </c>
       <c r="J337" s="2">
+        <f>(6*$E337*$D337*$C337*$C337)/(G337/1000)/10^12</f>
+        <v>0.38716652307692301</v>
+      </c>
+      <c r="K337" s="2">
+        <f>(6*$E337*$D337*$C337*$C337)/(H337/1000)/10^12</f>
+        <v>0.50331647999999996</v>
+      </c>
+      <c r="L337" s="2">
+        <f>(6*$E337*$D337*$C337*$C337)/(I337/1000)/10^12</f>
+        <v>0.44150568421052633</v>
+      </c>
+      <c r="M337" s="10">
         <f t="shared" si="33"/>
-        <v>0.52428799999999998</v>
+        <v>0.34400000000000003</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C338">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C338" s="3">
         <v>1024</v>
       </c>
       <c r="D338" s="3">
@@ -13209,23 +14165,39 @@
       <c r="E338" s="3">
         <v>1500</v>
       </c>
+      <c r="F338" s="3"/>
       <c r="G338" s="2">
-        <v>202.87100000000001</v>
+        <v>202.851</v>
       </c>
       <c r="H338" s="2">
-        <v>322.041</v>
+        <v>323.98700000000002</v>
       </c>
       <c r="I338" s="2">
-        <f t="shared" si="32"/>
-        <v>1.4885808617298677</v>
+        <v>64.405000000000001</v>
       </c>
       <c r="J338" s="2">
+        <f>(6*$E338*$D338*$C338*$C338)/(G338/1000)/10^12</f>
+        <v>1.4887276276675985</v>
+      </c>
+      <c r="K338" s="2">
+        <f>(6*$E338*$D338*$C338*$C338)/(H338/1000)/10^12</f>
+        <v>0.93210495482843447</v>
+      </c>
+      <c r="L338" s="2">
+        <f>(6*$E338*$D338*$C338*$C338)/(I338/1000)/10^12</f>
+        <v>4.6889199285769738</v>
+      </c>
+      <c r="M338" s="10">
         <f t="shared" si="33"/>
-        <v>0.93773739368589715</v>
+        <v>591.24299999999994</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C339">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C339" s="3">
         <v>1024</v>
       </c>
       <c r="D339" s="3">
@@ -13234,19 +14206,31 @@
       <c r="E339" s="3">
         <v>1500</v>
       </c>
+      <c r="F339" s="3"/>
       <c r="G339" s="2">
-        <v>256.96300000000002</v>
+        <v>258.09199999999998</v>
       </c>
       <c r="H339" s="2">
-        <v>514.49199999999996</v>
+        <v>514.14099999999996</v>
       </c>
       <c r="I339" s="2">
-        <f t="shared" si="32"/>
-        <v>2.3504542521686003</v>
+        <v>128.83600000000001</v>
       </c>
       <c r="J339" s="2">
+        <f>(6*$E339*$D339*$C339*$C339)/(G339/1000)/10^12</f>
+        <v>2.3401724036390128</v>
+      </c>
+      <c r="K339" s="2">
+        <f>(6*$E339*$D339*$C339*$C339)/(H339/1000)/10^12</f>
+        <v>1.1747356775670488</v>
+      </c>
+      <c r="L339" s="2">
+        <f>(6*$E339*$D339*$C339*$C339)/(I339/1000)/10^12</f>
+        <v>4.6879736719550431</v>
+      </c>
+      <c r="M339" s="10">
         <f t="shared" si="33"/>
-        <v>1.1739342419318475</v>
+        <v>901.06899999999996</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
@@ -13269,16 +14253,16 @@
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I342" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J342" t="s">
         <v>0</v>
       </c>
       <c r="K342" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
@@ -13296,7 +14280,7 @@
         <v>7.2871226522940331</v>
       </c>
       <c r="J344" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K344" s="2">
         <v>2.2696037238156561E-3</v>
@@ -13319,7 +14303,7 @@
         <v>8.9850640157732791</v>
       </c>
       <c r="J345" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K345" s="2">
         <v>3.3197148910553633E-3</v>
@@ -13342,7 +14326,7 @@
         <v>12.837866571238521</v>
       </c>
       <c r="J346" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K346" s="2">
         <v>2.9536964601914262E-3</v>
@@ -13367,7 +14351,7 @@
         <v>13.813755608330821</v>
       </c>
       <c r="J347" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K347" s="2">
         <v>4.2256619923609828E-3</v>
@@ -13390,7 +14374,7 @@
         <v>16.959953508527445</v>
       </c>
       <c r="J348" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K348" s="2">
         <v>2.0141545112619435E-2</v>
@@ -13411,7 +14395,7 @@
         <v>12.088351386005721</v>
       </c>
       <c r="J349" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K349" s="2">
         <v>6.3579813767297266E-2</v>
@@ -13434,7 +14418,7 @@
         <v>15.84217154766243</v>
       </c>
       <c r="J350" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K350" s="2">
         <v>6.0916603907136165E-3</v>
@@ -13457,7 +14441,7 @@
         <v>27.021784110766109</v>
       </c>
       <c r="J351" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K351" s="2">
         <v>4.3355543565900849E-3</v>
@@ -13482,7 +14466,7 @@
         <v>34.319942109472656</v>
       </c>
       <c r="J352" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K352" s="2">
         <v>4.6878417208775329E-2</v>
@@ -13505,7 +14489,7 @@
         <v>70.529211719908758</v>
       </c>
       <c r="J353" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K353" s="2">
         <v>9.5289644878405987E-3</v>
@@ -13526,7 +14510,7 @@
         <v>12.176989763062725</v>
       </c>
       <c r="J354" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K354" s="2">
         <v>9.6685842183249451E-2</v>
@@ -13549,7 +14533,7 @@
         <v>15.908892726115869</v>
       </c>
       <c r="J355" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K355" s="2">
         <v>6.1311726361877074E-3</v>
@@ -13572,7 +14556,7 @@
         <v>28.185961192301878</v>
       </c>
       <c r="J356" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K356" s="2">
         <v>3.6067560508754861E-3</v>
@@ -13597,7 +14581,7 @@
         <v>33.837132785136625</v>
       </c>
       <c r="J357" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K357" s="2">
         <v>2.7993788709565332E-2</v>
@@ -13621,7 +14605,7 @@
         <v>68.383872759618995</v>
       </c>
       <c r="J358" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K358" s="2">
         <v>1.3483624337067398E-2</v>
@@ -13643,7 +14627,7 @@
         <v>12.146208670988328</v>
       </c>
       <c r="J359" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K359" s="2">
         <v>0.13576660508988064</v>
@@ -13666,7 +14650,7 @@
         <v>15.865819844833391</v>
       </c>
       <c r="J360" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K360" s="2">
         <v>1.1830816361919905E-2</v>
@@ -13689,7 +14673,7 @@
         <v>27.992658099336172</v>
       </c>
       <c r="J361" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K361" s="2">
         <v>7.3726115490124478E-3</v>
@@ -13714,7 +14698,7 @@
         <v>38.471964693477979</v>
       </c>
       <c r="J362" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K362" s="2">
         <v>5.9074175273215068E-2</v>
@@ -13737,7 +14721,7 @@
         <v>67.583217084069659</v>
       </c>
       <c r="J363" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K363" s="2">
         <v>1.2376857648981601E-2</v>
@@ -13758,7 +14742,7 @@
         <v>9.7701357228909096</v>
       </c>
       <c r="J364" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K364" s="2">
         <v>0.52290056164477483</v>
@@ -13781,7 +14765,7 @@
         <v>13.862424622693881</v>
       </c>
       <c r="J365" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K365" s="2">
         <v>0.10638553275209651</v>
@@ -13804,7 +14788,7 @@
         <v>23.426804701323697</v>
       </c>
       <c r="J366" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K366" s="2">
         <v>0.45263677490897697</v>
@@ -13830,7 +14814,7 @@
         <v>21.334671952208382</v>
       </c>
       <c r="J367" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K367" s="2">
         <v>0.24557020413294217</v>
@@ -13855,7 +14839,7 @@
         <v>40.522340207024982</v>
       </c>
       <c r="J368" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K368" s="2">
         <v>9.69673492253421E-2</v>
@@ -13876,7 +14860,7 @@
         <v>11.756246367833979</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K369" s="2">
         <v>1.2326501890343085</v>
@@ -13901,7 +14885,7 @@
         <v>15.925917084344878</v>
       </c>
       <c r="J370" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K370" s="2">
         <v>8.0857186641504208E-2</v>
@@ -13921,7 +14905,7 @@
         <v>28.136249660622759</v>
       </c>
       <c r="J371" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K371" s="2">
         <v>8.7409264082065966E-2</v>
@@ -13944,7 +14928,7 @@
         <v>34.367462116964774</v>
       </c>
       <c r="J372" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K372" s="2">
         <v>0.16647151455397538</v>
@@ -13967,7 +14951,7 @@
         <v>67.714318359266045</v>
       </c>
       <c r="J373" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K373" s="2">
         <v>0.1073846479030543</v>
@@ -13987,7 +14971,7 @@
         <v>11.94262816974363</v>
       </c>
       <c r="J374" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K374" s="2">
         <v>1.7852796682283356</v>
@@ -14007,7 +14991,7 @@
         <v>15.933972828098755</v>
       </c>
       <c r="J375" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K375" s="2">
         <v>0.14894533393161236</v>
@@ -14027,7 +15011,7 @@
         <v>28.207856092920839</v>
       </c>
       <c r="J376" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K376" s="2">
         <v>0.23929681079758283</v>
@@ -14050,7 +15034,7 @@
         <v>34.508846653820598</v>
       </c>
       <c r="J377" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K377" s="2">
         <v>0.35306127394249198</v>
@@ -14073,7 +15057,7 @@
         <v>68.524389196286776</v>
       </c>
       <c r="J378" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K378" s="2">
         <v>0.25136182245813254</v>
@@ -14086,7 +15070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
@@ -14100,39 +15084,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -14140,15 +15124,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8">
         <v>352.99</v>
@@ -14156,42 +15140,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
